--- a/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
+++ b/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16453,8 +16454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18579,9 +18580,9 @@
       <c r="A67">
         <v>3.6772985453372064E-6</v>
       </c>
-      <c r="B67" s="1">
-        <f>$B$66</f>
-        <v>3.1169728572759868E-5</v>
+      <c r="B67" s="2">
+        <f>0.00000001</f>
+        <v>1E-8</v>
       </c>
       <c r="C67">
         <v>3.0424785583827258E-3</v>
@@ -18610,12 +18611,12 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f>$A$67</f>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B68" s="1">
-        <f t="shared" ref="B68:B82" si="0">$B$66</f>
-        <v>3.1169728572759868E-5</v>
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" ref="B68:B82" si="0">0.00000001</f>
+        <v>1E-8</v>
       </c>
       <c r="C68">
         <v>4.4894297687675519E-3</v>
@@ -18644,12 +18645,12 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <f t="shared" ref="A69:A82" si="1">$A$67</f>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B69" s="1">
+        <f t="shared" ref="A69:A82" si="1">0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="B69" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C69">
         <v>7.1278236431375867E-3</v>
@@ -18679,11 +18680,11 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B70" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B70" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C70">
         <v>9.9140595417599574E-3</v>
@@ -18713,11 +18714,11 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B71" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B71" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C71">
         <v>1.2758164711773613E-2</v>
@@ -18747,11 +18748,11 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B72" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B72" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C72">
         <v>1.5622122541673431E-2</v>
@@ -18781,11 +18782,11 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B73" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B73" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C73">
         <v>1.8490306662119593E-2</v>
@@ -18815,11 +18816,11 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B74" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B74" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C74">
         <v>2.1356393266010687E-2</v>
@@ -18849,11 +18850,11 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B75" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B75" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C75">
         <v>2.4217897254033217E-2</v>
@@ -18883,11 +18884,11 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B76" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B76" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C76">
         <v>2.9923729560848378E-2</v>
@@ -18917,11 +18918,11 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B77" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B77" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C77">
         <v>3.7304906470641004E-2</v>
@@ -18951,11 +18952,11 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B78" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B78" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C78">
         <v>7.7987536753899245E-2</v>
@@ -18985,11 +18986,11 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B79" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B79" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C79">
         <v>0.15558555032853438</v>
@@ -19019,11 +19020,11 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B80" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B80" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C80">
         <v>0.29685248896807293</v>
@@ -19053,11 +19054,11 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B81" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B81" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C81">
         <v>0.53166437007620704</v>
@@ -19087,11 +19088,11 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
-        <v>3.6772985453372064E-6</v>
-      </c>
-      <c r="B82" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B82" s="2">
         <f t="shared" si="0"/>
-        <v>3.1169728572759868E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="C82">
         <v>0.66717789968697772</v>
@@ -24405,7 +24406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>

--- a/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
+++ b/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -11353,15 +11353,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="G43" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AH82"/>
+    <sheetView topLeftCell="G63" workbookViewId="0">
+      <selection activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -11392,38 +11392,8 @@
       <c r="J1">
         <v>0</v>
       </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1">
-        <v>0</v>
-      </c>
-      <c r="AE1">
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <v>0</v>
-      </c>
-      <c r="AG1">
-        <v>0</v>
-      </c>
-      <c r="AH1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3.3010551151742792E-7</v>
       </c>
@@ -11454,38 +11424,8 @@
       <c r="J2">
         <v>2.142231668963969E-8</v>
       </c>
-      <c r="Y2">
-        <v>3.3712300104791731E-7</v>
-      </c>
-      <c r="Z2">
-        <v>1.3338398815160474E-7</v>
-      </c>
-      <c r="AA2">
-        <v>1.0205452124758134E-7</v>
-      </c>
-      <c r="AB2">
-        <v>1.6210600604383393E-7</v>
-      </c>
-      <c r="AC2">
-        <v>1.4169046685819461E-7</v>
-      </c>
-      <c r="AD2">
-        <v>5.6250804868373769E-7</v>
-      </c>
-      <c r="AE2">
-        <v>2.1139750565669581E-7</v>
-      </c>
-      <c r="AF2">
-        <v>1.7778586425601432E-8</v>
-      </c>
-      <c r="AG2">
-        <v>2.8483047998490422E-8</v>
-      </c>
-      <c r="AH2">
-        <v>4.0112006313423317E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.3545869063388997E-7</v>
       </c>
@@ -11516,38 +11456,8 @@
       <c r="J3">
         <v>8.6162959597067568E-8</v>
       </c>
-      <c r="Y3">
-        <v>8.5630740139862156E-7</v>
-      </c>
-      <c r="Z3">
-        <v>3.4118658797373082E-7</v>
-      </c>
-      <c r="AA3">
-        <v>2.7051308359880414E-7</v>
-      </c>
-      <c r="AB3">
-        <v>4.1777514950725633E-7</v>
-      </c>
-      <c r="AC3">
-        <v>3.768202550106519E-7</v>
-      </c>
-      <c r="AD3">
-        <v>1.4801472383820191E-6</v>
-      </c>
-      <c r="AE3">
-        <v>5.7294712479915473E-7</v>
-      </c>
-      <c r="AF3">
-        <v>5.1536784004283357E-8</v>
-      </c>
-      <c r="AG3">
-        <v>7.6175246277932763E-8</v>
-      </c>
-      <c r="AH3">
-        <v>1.5489300595447497E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.1832721400648428E-6</v>
       </c>
@@ -11578,38 +11488,8 @@
       <c r="J4">
         <v>1.793056250060855E-7</v>
       </c>
-      <c r="Y4">
-        <v>1.2182750072271193E-6</v>
-      </c>
-      <c r="Z4">
-        <v>4.8955927270009582E-7</v>
-      </c>
-      <c r="AA4">
-        <v>4.0456069051145541E-7</v>
-      </c>
-      <c r="AB4">
-        <v>6.0471221697884786E-7</v>
-      </c>
-      <c r="AC4">
-        <v>5.6560112401424051E-7</v>
-      </c>
-      <c r="AD4">
-        <v>2.1956869928461485E-6</v>
-      </c>
-      <c r="AE4">
-        <v>8.7770509100415059E-7</v>
-      </c>
-      <c r="AF4">
-        <v>8.4499866381211995E-8</v>
-      </c>
-      <c r="AG4">
-        <v>1.1504495800371408E-7</v>
-      </c>
-      <c r="AH4">
-        <v>3.1503896726965617E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.4993110458717559E-6</v>
       </c>
@@ -11640,38 +11520,8 @@
       <c r="J5">
         <v>3.1425435031598173E-7</v>
       </c>
-      <c r="Y5">
-        <v>1.5518179269600656E-6</v>
-      </c>
-      <c r="Z5">
-        <v>6.3016580655170471E-7</v>
-      </c>
-      <c r="AA5">
-        <v>5.4458687251275866E-7</v>
-      </c>
-      <c r="AB5">
-        <v>7.8577223034699606E-7</v>
-      </c>
-      <c r="AC5">
-        <v>7.6432021065664998E-7</v>
-      </c>
-      <c r="AD5">
-        <v>2.9317861117557073E-6</v>
-      </c>
-      <c r="AE5">
-        <v>1.2113617415779344E-6</v>
-      </c>
-      <c r="AF5">
-        <v>1.2426136191047068E-7</v>
-      </c>
-      <c r="AG5">
-        <v>1.5649334274114583E-7</v>
-      </c>
-      <c r="AH5">
-        <v>5.4456860584624709E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.8957881148503357E-6</v>
       </c>
@@ -11702,38 +11552,8 @@
       <c r="J6">
         <v>1.2861526175660067E-6</v>
       </c>
-      <c r="Y6">
-        <v>3.0487684506259726E-6</v>
-      </c>
-      <c r="Z6">
-        <v>1.3808176846257748E-6</v>
-      </c>
-      <c r="AA6">
-        <v>1.3231648453989827E-6</v>
-      </c>
-      <c r="AB6">
-        <v>1.745894505576768E-6</v>
-      </c>
-      <c r="AC6">
-        <v>1.8983768154242409E-6</v>
-      </c>
-      <c r="AD6">
-        <v>7.1557652622791987E-6</v>
-      </c>
-      <c r="AE6">
-        <v>3.3249367116335595E-6</v>
-      </c>
-      <c r="AF6">
-        <v>3.8030422752432882E-7</v>
-      </c>
-      <c r="AG6">
-        <v>4.040715978012125E-7</v>
-      </c>
-      <c r="AH6">
-        <v>2.1882254541314674E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.1123157608063618E-6</v>
       </c>
@@ -11764,38 +11584,8 @@
       <c r="J7">
         <v>2.5733026294606882E-6</v>
       </c>
-      <c r="Y7">
-        <v>4.3651087487836587E-6</v>
-      </c>
-      <c r="Z7">
-        <v>2.3610085547416936E-6</v>
-      </c>
-      <c r="AA7">
-        <v>2.2110606448761944E-6</v>
-      </c>
-      <c r="AB7">
-        <v>2.8752107341702725E-6</v>
-      </c>
-      <c r="AC7">
-        <v>3.2492957824340075E-6</v>
-      </c>
-      <c r="AD7">
-        <v>1.2607852661214461E-5</v>
-      </c>
-      <c r="AE7">
-        <v>6.2116674141761531E-6</v>
-      </c>
-      <c r="AF7">
-        <v>7.0829803868286583E-7</v>
-      </c>
-      <c r="AG7">
-        <v>7.2237222789232465E-7</v>
-      </c>
-      <c r="AH7">
-        <v>4.3610553984224702E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.1390597283634136E-6</v>
       </c>
@@ -11826,38 +11616,8 @@
       <c r="J8">
         <v>4.1081050863446168E-6</v>
       </c>
-      <c r="Y8">
-        <v>5.4781406089319175E-6</v>
-      </c>
-      <c r="Z8">
-        <v>3.7437334115191202E-6</v>
-      </c>
-      <c r="AA8">
-        <v>3.1703272753617922E-6</v>
-      </c>
-      <c r="AB8">
-        <v>4.2047429915406725E-6</v>
-      </c>
-      <c r="AC8">
-        <v>4.7850820818733984E-6</v>
-      </c>
-      <c r="AD8">
-        <v>1.9775818853023497E-5</v>
-      </c>
-      <c r="AE8">
-        <v>9.9282404886454404E-6</v>
-      </c>
-      <c r="AF8">
-        <v>1.1000757061556658E-6</v>
-      </c>
-      <c r="AG8">
-        <v>1.1174470688629349E-6</v>
-      </c>
-      <c r="AH8">
-        <v>6.9505896304542636E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.9407044485998956E-6</v>
       </c>
@@ -11888,38 +11648,8 @@
       <c r="J9">
         <v>5.8916854436305335E-6</v>
       </c>
-      <c r="Y9">
-        <v>6.3498534755925765E-6</v>
-      </c>
-      <c r="Z9">
-        <v>5.6675223445349997E-6</v>
-      </c>
-      <c r="AA9">
-        <v>4.1684067812656224E-6</v>
-      </c>
-      <c r="AB9">
-        <v>5.7366460924073451E-6</v>
-      </c>
-      <c r="AC9">
-        <v>6.4749552597348505E-6</v>
-      </c>
-      <c r="AD9">
-        <v>2.9098544940061007E-5</v>
-      </c>
-      <c r="AE9">
-        <v>1.4505850856995853E-5</v>
-      </c>
-      <c r="AF9">
-        <v>1.556413329466803E-6</v>
-      </c>
-      <c r="AG9">
-        <v>1.5940416884138816E-6</v>
-      </c>
-      <c r="AH9">
-        <v>9.9574258328419985E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6.5168538966072005E-6</v>
       </c>
@@ -11950,38 +11680,8 @@
       <c r="J10">
         <v>7.9246153468200082E-6</v>
       </c>
-      <c r="Y10">
-        <v>6.9798132513626237E-6</v>
-      </c>
-      <c r="Z10">
-        <v>8.2362111203852159E-6</v>
-      </c>
-      <c r="AA10">
-        <v>5.1823876556401303E-6</v>
-      </c>
-      <c r="AB10">
-        <v>7.4720443455371697E-6</v>
-      </c>
-      <c r="AC10">
-        <v>8.2932081752415477E-6</v>
-      </c>
-      <c r="AD10">
-        <v>4.0912484691671981E-5</v>
-      </c>
-      <c r="AE10">
-        <v>1.9952803733995114E-5</v>
-      </c>
-      <c r="AF10">
-        <v>2.0780649422131335E-6</v>
-      </c>
-      <c r="AG10">
-        <v>2.1552451892539897E-6</v>
-      </c>
-      <c r="AH10">
-        <v>1.338086132371146E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.9102830818876478E-6</v>
       </c>
@@ -12012,38 +11712,8 @@
       <c r="J11">
         <v>1.0206579754260235E-5</v>
       </c>
-      <c r="Y11">
-        <v>7.4140244660489908E-6</v>
-      </c>
-      <c r="Z11">
-        <v>1.1476876791340658E-5</v>
-      </c>
-      <c r="AA11">
-        <v>6.207736771020873E-6</v>
-      </c>
-      <c r="AB11">
-        <v>9.4094587733409186E-6</v>
-      </c>
-      <c r="AC11">
-        <v>1.0226346889825538E-5</v>
-      </c>
-      <c r="AD11">
-        <v>5.5322048754920948E-5</v>
-      </c>
-      <c r="AE11">
-        <v>2.6247607353496886E-5</v>
-      </c>
-      <c r="AF11">
-        <v>2.6656449770407223E-6</v>
-      </c>
-      <c r="AG11">
-        <v>2.8012132060570365E-6</v>
-      </c>
-      <c r="AH11">
-        <v>1.7218412898224953E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7.2016673400679919E-6</v>
       </c>
@@ -12074,38 +11744,8 @@
       <c r="J12">
         <v>1.2736697066683741E-5</v>
       </c>
-      <c r="Y12">
-        <v>7.7392280187808807E-6</v>
-      </c>
-      <c r="Z12">
-        <v>1.531130633509114E-5</v>
-      </c>
-      <c r="AA12">
-        <v>7.2628172534433785E-6</v>
-      </c>
-      <c r="AB12">
-        <v>1.1543253472139553E-5</v>
-      </c>
-      <c r="AC12">
-        <v>1.2276856999765197E-5</v>
-      </c>
-      <c r="AD12">
-        <v>7.2114163075165413E-5</v>
-      </c>
-      <c r="AE12">
-        <v>3.334308030721135E-5</v>
-      </c>
-      <c r="AF12">
-        <v>3.3197377261546737E-6</v>
-      </c>
-      <c r="AG12">
-        <v>3.5287403881449063E-6</v>
-      </c>
-      <c r="AH12">
-        <v>2.1466289497293455E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.4739495803040683E-6</v>
       </c>
@@ -12136,38 +11776,8 @@
       <c r="J13">
         <v>1.5513324508829305E-5</v>
       </c>
-      <c r="Y13">
-        <v>8.0445721848021596E-6</v>
-      </c>
-      <c r="Z13">
-        <v>1.960308037631518E-5</v>
-      </c>
-      <c r="AA13">
-        <v>8.3764131147807762E-6</v>
-      </c>
-      <c r="AB13">
-        <v>1.3864131809076865E-5</v>
-      </c>
-      <c r="AC13">
-        <v>1.445614344694174E-5</v>
-      </c>
-      <c r="AD13">
-        <v>9.0907811640239137E-5</v>
-      </c>
-      <c r="AE13">
-        <v>4.1186240467415011E-5</v>
-      </c>
-      <c r="AF13">
-        <v>4.0405036332721581E-6</v>
-      </c>
-      <c r="AG13">
-        <v>4.3330377201933212E-6</v>
-      </c>
-      <c r="AH13">
-        <v>2.6119188247741544E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.9333043630512995E-6</v>
       </c>
@@ -12198,38 +11808,8 @@
       <c r="J14">
         <v>2.0470580974095386E-5</v>
       </c>
-      <c r="Y14">
-        <v>8.5598669649148405E-6</v>
-      </c>
-      <c r="Z14">
-        <v>2.727652501697533E-5</v>
-      </c>
-      <c r="AA14">
-        <v>1.0301635225789945E-5</v>
-      </c>
-      <c r="AB14">
-        <v>1.7945986028883131E-5</v>
-      </c>
-      <c r="AC14">
-        <v>1.8211141744218236E-5</v>
-      </c>
-      <c r="AD14">
-        <v>1.2487805884219051E-4</v>
-      </c>
-      <c r="AE14">
-        <v>5.5256884133969874E-5</v>
-      </c>
-      <c r="AF14">
-        <v>5.3326700895009751E-6</v>
-      </c>
-      <c r="AG14">
-        <v>5.7771342144879273E-6</v>
-      </c>
-      <c r="AH14">
-        <v>3.4401462773979515E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.416542956931196E-6</v>
       </c>
@@ -12260,38 +11840,8 @@
       <c r="J15">
         <v>2.6057106372387811E-5</v>
       </c>
-      <c r="Y15">
-        <v>9.1021708249229956E-6</v>
-      </c>
-      <c r="Z15">
-        <v>3.5894733372891948E-5</v>
-      </c>
-      <c r="AA15">
-        <v>1.2392524383883847E-5</v>
-      </c>
-      <c r="AB15">
-        <v>2.2450847628151797E-5</v>
-      </c>
-      <c r="AC15">
-        <v>2.2271046679067008E-5</v>
-      </c>
-      <c r="AD15">
-        <v>1.6376506828268402E-4</v>
-      </c>
-      <c r="AE15">
-        <v>7.1184768082925375E-5</v>
-      </c>
-      <c r="AF15">
-        <v>6.7930368854316597E-6</v>
-      </c>
-      <c r="AG15">
-        <v>7.4149180736793371E-6</v>
-      </c>
-      <c r="AH15">
-        <v>4.3696923031489318E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.9152057360213811E-6</v>
       </c>
@@ -12322,38 +11872,8 @@
       <c r="J16">
         <v>3.224040602989653E-5</v>
       </c>
-      <c r="Y16">
-        <v>9.6620224081126376E-6</v>
-      </c>
-      <c r="Z16">
-        <v>4.5344530886624251E-5</v>
-      </c>
-      <c r="AA16">
-        <v>1.4626975370713687E-5</v>
-      </c>
-      <c r="AB16">
-        <v>2.7315922315417418E-5</v>
-      </c>
-      <c r="AC16">
-        <v>2.6587981304753349E-5</v>
-      </c>
-      <c r="AD16">
-        <v>2.0753457955906729E-4</v>
-      </c>
-      <c r="AE16">
-        <v>8.8867747200415624E-5</v>
-      </c>
-      <c r="AF16">
-        <v>8.4101648386480184E-6</v>
-      </c>
-      <c r="AG16">
-        <v>9.2384377103499569E-6</v>
-      </c>
-      <c r="AH16">
-        <v>5.3936789005447369E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9.6129646681980688E-6</v>
       </c>
@@ -12384,38 +11904,8 @@
       <c r="J17">
         <v>4.1667984068639062E-5</v>
       </c>
-      <c r="Y17">
-        <v>1.0445831451927736E-5</v>
-      </c>
-      <c r="Z17">
-        <v>5.9472554315240019E-5</v>
-      </c>
-      <c r="AA17">
-        <v>1.7902324197018978E-5</v>
-      </c>
-      <c r="AB17">
-        <v>3.4479254983184116E-5</v>
-      </c>
-      <c r="AC17">
-        <v>3.2873248542233474E-5</v>
-      </c>
-      <c r="AD17">
-        <v>2.7573363867924795E-4</v>
-      </c>
-      <c r="AE17">
-        <v>1.158767998521011E-4</v>
-      </c>
-      <c r="AF17">
-        <v>1.0869160857595954E-5</v>
-      </c>
-      <c r="AG17">
-        <v>1.2037094608696079E-5</v>
-      </c>
-      <c r="AH17">
-        <v>6.9446908708129074E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.0248918141299846E-5</v>
       </c>
@@ -12446,38 +11936,8 @@
       <c r="J18">
         <v>5.1128313458400745E-5</v>
       </c>
-      <c r="Y18">
-        <v>1.1160687012565675E-5</v>
-      </c>
-      <c r="Z18">
-        <v>7.3233627375069208E-5</v>
-      </c>
-      <c r="AA18">
-        <v>2.1060493206671645E-5</v>
-      </c>
-      <c r="AB18">
-        <v>4.136026079514945E-5</v>
-      </c>
-      <c r="AC18">
-        <v>3.8884480751250633E-5</v>
-      </c>
-      <c r="AD18">
-        <v>3.4588909495142356E-4</v>
-      </c>
-      <c r="AE18">
-        <v>1.4298515773907629E-4</v>
-      </c>
-      <c r="AF18">
-        <v>1.3321749257231884E-5</v>
-      </c>
-      <c r="AG18">
-        <v>1.4864081716709463E-5</v>
-      </c>
-      <c r="AH18">
-        <v>8.4886573648752334E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.0876524084979103E-5</v>
       </c>
@@ -12508,38 +11968,8 @@
       <c r="J19">
         <v>6.1394959167758472E-5</v>
       </c>
-      <c r="Y19">
-        <v>1.1866661154318804E-5</v>
-      </c>
-      <c r="Z19">
-        <v>8.7610517821682746E-5</v>
-      </c>
-      <c r="AA19">
-        <v>2.4370210486191291E-5</v>
-      </c>
-      <c r="AB19">
-        <v>4.8474457022474936E-5</v>
-      </c>
-      <c r="AC19">
-        <v>4.5130462749411838E-5</v>
-      </c>
-      <c r="AD19">
-        <v>4.2396131573895054E-4</v>
-      </c>
-      <c r="AE19">
-        <v>1.7235949324427455E-4</v>
-      </c>
-      <c r="AF19">
-        <v>1.5959068041246063E-5</v>
-      </c>
-      <c r="AG19">
-        <v>1.7949860355742159E-5</v>
-      </c>
-      <c r="AH19">
-        <v>1.014981308938605E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.148698049021853E-5</v>
       </c>
@@ -12570,38 +12000,8 @@
       <c r="J20">
         <v>7.2415389743067549E-5</v>
       </c>
-      <c r="Y20">
-        <v>1.2553900019866343E-5</v>
-      </c>
-      <c r="Z20">
-        <v>1.0232777961507735E-4</v>
-      </c>
-      <c r="AA20">
-        <v>2.7811515410941769E-5</v>
-      </c>
-      <c r="AB20">
-        <v>5.5700007841087871E-5</v>
-      </c>
-      <c r="AC20">
-        <v>5.1565142119825435E-5</v>
-      </c>
-      <c r="AD20">
-        <v>5.0999781804866439E-4</v>
-      </c>
-      <c r="AE20">
-        <v>2.0379837746726094E-4</v>
-      </c>
-      <c r="AF20">
-        <v>1.8755546905886507E-5</v>
-      </c>
-      <c r="AG20">
-        <v>2.1279986617314801E-5</v>
-      </c>
-      <c r="AH20">
-        <v>1.1916024456285535E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.2072812184143985E-5</v>
       </c>
@@ -12632,38 +12032,8 @@
       <c r="J21">
         <v>8.4134581689961218E-5</v>
       </c>
-      <c r="Y21">
-        <v>1.3214034398007555E-5</v>
-      </c>
-      <c r="Z21">
-        <v>1.1710498935259278E-4</v>
-      </c>
-      <c r="AA21">
-        <v>3.1367033788314167E-5</v>
-      </c>
-      <c r="AB21">
-        <v>6.2916896017105366E-5</v>
-      </c>
-      <c r="AC21">
-        <v>5.8148745498142317E-5</v>
-      </c>
-      <c r="AD21">
-        <v>6.040207328214057E-4</v>
-      </c>
-      <c r="AE21">
-        <v>2.3709309197452079E-4</v>
-      </c>
-      <c r="AF21">
-        <v>2.1684421763227825E-5</v>
-      </c>
-      <c r="AG21">
-        <v>2.4838855814047886E-5</v>
-      </c>
-      <c r="AH21">
-        <v>1.3774811997612193E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.262788113554322E-5</v>
       </c>
@@ -12694,38 +12064,8 @@
       <c r="J22">
         <v>9.6496362803113702E-5</v>
       </c>
-      <c r="Y22">
-        <v>1.3840193793264344E-5</v>
-      </c>
-      <c r="Z22">
-        <v>1.3166652802290677E-4</v>
-      </c>
-      <c r="AA22">
-        <v>3.5021818973743906E-5</v>
-      </c>
-      <c r="AB22">
-        <v>7.0010595166172939E-5</v>
-      </c>
-      <c r="AC22">
-        <v>6.4847738767099291E-5</v>
-      </c>
-      <c r="AD22">
-        <v>7.0602803793620782E-4</v>
-      </c>
-      <c r="AE22">
-        <v>2.7203513921737022E-4</v>
-      </c>
-      <c r="AF22">
-        <v>2.4718552167804596E-5</v>
-      </c>
-      <c r="AG22">
-        <v>2.8610151750353286E-5</v>
-      </c>
-      <c r="AH22">
-        <v>1.5713664583249384E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.3147380840634583E-5</v>
       </c>
@@ -12756,38 +12096,8 @@
       <c r="J23">
         <v>1.0944473357964458E-4</v>
       </c>
-      <c r="Y23">
-        <v>1.4427002688070946E-5</v>
-      </c>
-      <c r="Z23">
-        <v>1.45751299130677E-4</v>
-      </c>
-      <c r="AA23">
-        <v>3.8763154360551442E-5</v>
-      </c>
-      <c r="AB23">
-        <v>7.6875676679223124E-5</v>
-      </c>
-      <c r="AC23">
-        <v>7.1634701292023638E-5</v>
-      </c>
-      <c r="AD23">
-        <v>8.1599482990046693E-4</v>
-      </c>
-      <c r="AE23">
-        <v>3.0842369149046108E-4</v>
-      </c>
-      <c r="AF23">
-        <v>2.7831234718159224E-5</v>
-      </c>
-      <c r="AG23">
-        <v>3.2577293534770421E-5</v>
-      </c>
-      <c r="AH23">
-        <v>1.7720348545677042E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.3627816880253905E-5</v>
       </c>
@@ -12818,38 +12128,8 @@
       <c r="J24">
         <v>1.2292515575574681E-4</v>
       </c>
-      <c r="Y24">
-        <v>1.4970561310249234E-5</v>
-      </c>
-      <c r="Z24">
-        <v>1.591222903553514E-4</v>
-      </c>
-      <c r="AA24">
-        <v>4.2580324220155005E-5</v>
-      </c>
-      <c r="AB24">
-        <v>8.3419322183552198E-5</v>
-      </c>
-      <c r="AC24">
-        <v>7.8488126467957808E-5</v>
-      </c>
-      <c r="AD24">
-        <v>9.3387461573233698E-4</v>
-      </c>
-      <c r="AE24">
-        <v>3.4607290881248024E-4</v>
-      </c>
-      <c r="AF24">
-        <v>3.099700449141418E-5</v>
-      </c>
-      <c r="AG24">
-        <v>3.6723875596166014E-5</v>
-      </c>
-      <c r="AH24">
-        <v>1.9783209146435153E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.4066975630367368E-5</v>
       </c>
@@ -12880,38 +12160,8 @@
       <c r="J25">
         <v>1.3688579918585229E-4</v>
       </c>
-      <c r="Y25">
-        <v>1.5468413100573844E-5</v>
-      </c>
-      <c r="Z25">
-        <v>1.7157590196407719E-4</v>
-      </c>
-      <c r="AA25">
-        <v>4.6464359313127375E-5</v>
-      </c>
-      <c r="AB25">
-        <v>8.9564718107892024E-5</v>
-      </c>
-      <c r="AC25">
-        <v>8.5392160128202498E-5</v>
-      </c>
-      <c r="AD25">
-        <v>1.059600609755642E-3</v>
-      </c>
-      <c r="AE25">
-        <v>3.8481906852608493E-4</v>
-      </c>
-      <c r="AF25">
-        <v>3.4192417935966366E-5</v>
-      </c>
-      <c r="AG25">
-        <v>4.1034097332212047E-5</v>
-      </c>
-      <c r="AH25">
-        <v>2.1891462321486558E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.4463882973584541E-5</v>
       </c>
@@ -12942,38 +12192,8 @@
       <c r="J26">
         <v>1.5127874011772115E-4</v>
       </c>
-      <c r="Y26">
-        <v>1.5919500929025366E-5</v>
-      </c>
-      <c r="Z26">
-        <v>1.8295097980374386E-4</v>
-      </c>
-      <c r="AA26">
-        <v>5.0407763067857789E-5</v>
-      </c>
-      <c r="AB26">
-        <v>9.5254314011155233E-5</v>
-      </c>
-      <c r="AC26">
-        <v>9.2336287472758534E-5</v>
-      </c>
-      <c r="AD26">
-        <v>1.1930870218298016E-3</v>
-      </c>
-      <c r="AE26">
-        <v>4.2452746039911392E-4</v>
-      </c>
-      <c r="AF26">
-        <v>3.7396811871143555E-5</v>
-      </c>
-      <c r="AG26">
-        <v>4.5493179478886641E-5</v>
-      </c>
-      <c r="AH26">
-        <v>2.4035475076501981E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.4818754716269805E-5</v>
       </c>
@@ -13004,38 +12224,8 @@
       <c r="J27">
         <v>1.6606110559703441E-4</v>
       </c>
-      <c r="Y27">
-        <v>1.6324113951905839E-5</v>
-      </c>
-      <c r="Z27">
-        <v>1.9313750399409048E-4</v>
-      </c>
-      <c r="AA27">
-        <v>5.4404223510679111E-5</v>
-      </c>
-      <c r="AB27">
-        <v>1.0045293091546739E-4</v>
-      </c>
-      <c r="AC27">
-        <v>9.9314978260830786E-5</v>
-      </c>
-      <c r="AD27">
-        <v>1.3342303255207892E-3</v>
-      </c>
-      <c r="AE27">
-        <v>4.6509901105796657E-4</v>
-      </c>
-      <c r="AF27">
-        <v>4.0593034363750488E-5</v>
-      </c>
-      <c r="AG27">
-        <v>5.008776490025591E-5</v>
-      </c>
-      <c r="AH27">
-        <v>2.6207033297895836E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.5132940269611461E-5</v>
       </c>
@@ -13066,38 +12256,8 @@
       <c r="J28">
         <v>1.8119616028499443E-4</v>
       </c>
-      <c r="Y28">
-        <v>1.6683826841697143E-5</v>
-      </c>
-      <c r="Z28">
-        <v>2.020848964062109E-4</v>
-      </c>
-      <c r="AA28">
-        <v>5.8448315549613362E-5</v>
-      </c>
-      <c r="AB28">
-        <v>1.0515070996078507E-4</v>
-      </c>
-      <c r="AC28">
-        <v>1.063272991141924E-4</v>
-      </c>
-      <c r="AD28">
-        <v>1.4829104971037456E-3</v>
-      </c>
-      <c r="AE28">
-        <v>5.0647661073635966E-4</v>
-      </c>
-      <c r="AF28">
-        <v>4.3768144271300485E-5</v>
-      </c>
-      <c r="AG28">
-        <v>5.4806302064209796E-5</v>
-      </c>
-      <c r="AH28">
-        <v>2.8399596104529732E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.5408861002029858E-5</v>
       </c>
@@ -13128,38 +12288,8 @@
       <c r="J29">
         <v>1.9665433324585487E-4</v>
       </c>
-      <c r="Y29">
-        <v>1.7001432955546684E-5</v>
-      </c>
-      <c r="Z29">
-        <v>2.098099204801689E-4</v>
-      </c>
-      <c r="AA29">
-        <v>6.2535197630925592E-5</v>
-      </c>
-      <c r="AB29">
-        <v>1.0936589520460132E-4</v>
-      </c>
-      <c r="AC29">
-        <v>1.1337650084305319E-4</v>
-      </c>
-      <c r="AD29">
-        <v>1.6389922177803666E-3</v>
-      </c>
-      <c r="AE29">
-        <v>5.4865112316241239E-4</v>
-      </c>
-      <c r="AF29">
-        <v>4.691407712425195E-5</v>
-      </c>
-      <c r="AG29">
-        <v>5.9639409946088858E-5</v>
-      </c>
-      <c r="AH29">
-        <v>3.0608536166054851E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.5649944523279446E-5</v>
       </c>
@@ -13190,38 +12320,8 @@
       <c r="J30">
         <v>2.1241418339824211E-4</v>
       </c>
-      <c r="Y30">
-        <v>1.7280872846352051E-5</v>
-      </c>
-      <c r="Z30">
-        <v>2.1640415609409624E-4</v>
-      </c>
-      <c r="AA30">
-        <v>6.6660306249327603E-5</v>
-      </c>
-      <c r="AB30">
-        <v>1.1314744741928521E-4</v>
-      </c>
-      <c r="AC30">
-        <v>1.2046958782039208E-4</v>
-      </c>
-      <c r="AD30">
-        <v>1.8023260332110339E-3</v>
-      </c>
-      <c r="AE30">
-        <v>5.916670663376624E-4</v>
-      </c>
-      <c r="AF30">
-        <v>5.002827579941172E-5</v>
-      </c>
-      <c r="AG30">
-        <v>6.4580223530352074E-5</v>
-      </c>
-      <c r="AH30">
-        <v>3.2831365679213744E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.586055601782378E-5</v>
       </c>
@@ -13252,38 +12352,8 @@
       <c r="J31">
         <v>2.2846330327390342E-4</v>
       </c>
-      <c r="Y31">
-        <v>1.7527159362908981E-5</v>
-      </c>
-      <c r="Z31">
-        <v>2.2204104004743989E-4</v>
-      </c>
-      <c r="AA31">
-        <v>7.0819051286558443E-5</v>
-      </c>
-      <c r="AB31">
-        <v>1.1657748829185043E-4</v>
-      </c>
-      <c r="AC31">
-        <v>1.2761687557624345E-4</v>
-      </c>
-      <c r="AD31">
-        <v>1.9727494658699882E-3</v>
-      </c>
-      <c r="AE31">
-        <v>6.3562795786299405E-4</v>
-      </c>
-      <c r="AF31">
-        <v>5.3114285104459166E-5</v>
-      </c>
-      <c r="AG31">
-        <v>6.9624719444559506E-5</v>
-      </c>
-      <c r="AH31">
-        <v>3.5067947916157056E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.6045927609175767E-5</v>
       </c>
@@ -13314,38 +12384,8 @@
       <c r="J32">
         <v>2.4479916152016137E-4</v>
       </c>
-      <c r="Y32">
-        <v>1.7746300435464202E-5</v>
-      </c>
-      <c r="Z32">
-        <v>2.2698246936716403E-4</v>
-      </c>
-      <c r="AA32">
-        <v>7.500651468730114E-5</v>
-      </c>
-      <c r="AB32">
-        <v>1.1977357655247191E-4</v>
-      </c>
-      <c r="AC32">
-        <v>1.3483154197877644E-4</v>
-      </c>
-      <c r="AD32">
-        <v>2.1500880769785981E-3</v>
-      </c>
-      <c r="AE32">
-        <v>6.8070132345303164E-4</v>
-      </c>
-      <c r="AF32">
-        <v>5.6182309960327369E-5</v>
-      </c>
-      <c r="AG32">
-        <v>7.4772021568977664E-5</v>
-      </c>
-      <c r="AH32">
-        <v>3.7320694444657591E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.6212086609325516E-5</v>
       </c>
@@ -13376,38 +12416,8 @@
       <c r="J33">
         <v>2.6142988523979659E-4</v>
       </c>
-      <c r="Y33">
-        <v>1.7945220501904139E-5</v>
-      </c>
-      <c r="Z33">
-        <v>2.3158497018682856E-4</v>
-      </c>
-      <c r="AA33">
-        <v>7.9217154559421032E-5</v>
-      </c>
-      <c r="AB33">
-        <v>1.2289081929004936E-4</v>
-      </c>
-      <c r="AC33">
-        <v>1.4212917662392746E-4</v>
-      </c>
-      <c r="AD33">
-        <v>2.3341564759513794E-3</v>
-      </c>
-      <c r="AE33">
-        <v>7.2712337144946622E-4</v>
-      </c>
-      <c r="AF33">
-        <v>5.9249737343324758E-5</v>
-      </c>
-      <c r="AG33">
-        <v>8.0024686725875836E-5</v>
-      </c>
-      <c r="AH33">
-        <v>3.9594748273405256E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.6363908430665607E-5</v>
       </c>
@@ -13438,38 +12448,8 @@
       <c r="J34">
         <v>2.783628277005826E-4</v>
       </c>
-      <c r="Y34">
-        <v>1.8129523905743653E-5</v>
-      </c>
-      <c r="Z34">
-        <v>2.3616866204502273E-4</v>
-      </c>
-      <c r="AA34">
-        <v>8.3445489260204628E-5</v>
-      </c>
-      <c r="AB34">
-        <v>1.2606727349833265E-4</v>
-      </c>
-      <c r="AC34">
-        <v>1.4952116071106328E-4</v>
-      </c>
-      <c r="AD34">
-        <v>2.5247248063158833E-3</v>
-      </c>
-      <c r="AE34">
-        <v>7.7510637919966615E-4</v>
-      </c>
-      <c r="AF34">
-        <v>6.2333070666975677E-5</v>
-      </c>
-      <c r="AG34">
-        <v>8.5385227373539874E-5</v>
-      </c>
-      <c r="AH34">
-        <v>4.1895063795485801E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.6503021044974253E-5</v>
       </c>
@@ -13500,38 +12480,8 @@
       <c r="J35">
         <v>2.9558942537734903E-4</v>
       </c>
-      <c r="Y35">
-        <v>1.8301078928730376E-5</v>
-      </c>
-      <c r="Z35">
-        <v>2.4084945989223791E-4</v>
-      </c>
-      <c r="AA35">
-        <v>8.7687613284145787E-5</v>
-      </c>
-      <c r="AB35">
-        <v>1.2935514482198177E-4</v>
-      </c>
-      <c r="AC35">
-        <v>1.5700807745313132E-4</v>
-      </c>
-      <c r="AD35">
-        <v>2.7214839182833194E-3</v>
-      </c>
-      <c r="AE35">
-        <v>8.2471958004867599E-4</v>
-      </c>
-      <c r="AF35">
-        <v>6.5437244933547501E-5</v>
-      </c>
-      <c r="AG35">
-        <v>9.085138904284098E-5</v>
-      </c>
-      <c r="AH35">
-        <v>4.4222555598694808E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.6629410673286162E-5</v>
       </c>
@@ -13562,38 +12512,8 @@
       <c r="J36">
         <v>3.130922717068596E-4</v>
       </c>
-      <c r="Y36">
-        <v>1.8459855267633032E-5</v>
-      </c>
-      <c r="Z36">
-        <v>2.4562451193795395E-4</v>
-      </c>
-      <c r="AA36">
-        <v>9.1941279871849525E-5</v>
-      </c>
-      <c r="AB36">
-        <v>1.3275732912057715E-4</v>
-      </c>
-      <c r="AC36">
-        <v>1.6458564025700027E-4</v>
-      </c>
-      <c r="AD36">
-        <v>2.9240794606193912E-3</v>
-      </c>
-      <c r="AE36">
-        <v>8.7594927878224165E-4</v>
-      </c>
-      <c r="AF36">
-        <v>6.8560567149359412E-5</v>
-      </c>
-      <c r="AG36">
-        <v>9.6418202952500831E-5</v>
-      </c>
-      <c r="AH36">
-        <v>4.6575901721202027E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.6743209869479226E-5</v>
       </c>
@@ -13624,38 +12544,8 @@
       <c r="J37">
         <v>3.308555243518179E-4</v>
       </c>
-      <c r="Y37">
-        <v>1.8605978171886537E-5</v>
-      </c>
-      <c r="Z37">
-        <v>2.5049142156517907E-4</v>
-      </c>
-      <c r="AA37">
-        <v>9.6205286787737917E-5</v>
-      </c>
-      <c r="AB37">
-        <v>1.3627713649608052E-4</v>
-      </c>
-      <c r="AC37">
-        <v>1.7225080482843061E-4</v>
-      </c>
-      <c r="AD37">
-        <v>3.1321480382457537E-3</v>
-      </c>
-      <c r="AE37">
-        <v>9.2878323587507726E-4</v>
-      </c>
-      <c r="AF37">
-        <v>7.1702017101237038E-5</v>
-      </c>
-      <c r="AG37">
-        <v>1.0208114617926055E-4</v>
-      </c>
-      <c r="AH37">
-        <v>4.8954186291983153E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.684469317515454E-5</v>
       </c>
@@ -13686,38 +12576,8 @@
       <c r="J38">
         <v>3.4886489976500773E-4</v>
       </c>
-      <c r="Y38">
-        <v>1.8739723875605072E-5</v>
-      </c>
-      <c r="Z38">
-        <v>2.5544824294716366E-4</v>
-      </c>
-      <c r="AA38">
-        <v>1.0047945228945561E-4</v>
-      </c>
-      <c r="AB38">
-        <v>1.3991828013698281E-4</v>
-      </c>
-      <c r="AC38">
-        <v>1.8000174584020421E-4</v>
-      </c>
-      <c r="AD38">
-        <v>3.3453196417531856E-3</v>
-      </c>
-      <c r="AE38">
-        <v>9.8321070875132498E-4</v>
-      </c>
-      <c r="AF38">
-        <v>7.4861232677649297E-5</v>
-      </c>
-      <c r="AG38">
-        <v>1.0783614092640926E-4</v>
-      </c>
-      <c r="AH38">
-        <v>5.1356891646230345E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.6934272572271561E-5</v>
       </c>
@@ -13748,38 +12608,8 @@
       <c r="J39">
         <v>3.6710766080818804E-4</v>
       </c>
-      <c r="Y39">
-        <v>1.8861514808665317E-5</v>
-      </c>
-      <c r="Z39">
-        <v>2.6049347496887558E-4</v>
-      </c>
-      <c r="AA39">
-        <v>1.0476458883820979E-4</v>
-      </c>
-      <c r="AB39">
-        <v>1.4368486445315968E-4</v>
-      </c>
-      <c r="AC39">
-        <v>1.8783783030068132E-4</v>
-      </c>
-      <c r="AD39">
-        <v>3.5632199597051975E-3</v>
-      </c>
-      <c r="AE39">
-        <v>1.0392224811580457E-3</v>
-      </c>
-      <c r="AF39">
-        <v>7.8038493641461096E-5</v>
-      </c>
-      <c r="AG39">
-        <v>1.1367955171695521E-4</v>
-      </c>
-      <c r="AH39">
-        <v>5.3783889392263471E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.701249279246089E-5</v>
       </c>
@@ -13810,38 +12640,8 @@
       <c r="J40">
         <v>3.8557259842587568E-4</v>
       </c>
-      <c r="Y40">
-        <v>1.8971914649952967E-5</v>
-      </c>
-      <c r="Z40">
-        <v>2.6562605371872189E-4</v>
-      </c>
-      <c r="AA40">
-        <v>1.0906247503350738E-4</v>
-      </c>
-      <c r="AB40">
-        <v>1.4758137267774403E-4</v>
-      </c>
-      <c r="AC40">
-        <v>1.9575958824503595E-4</v>
-      </c>
-      <c r="AD40">
-        <v>3.7854725727723562E-3</v>
-      </c>
-      <c r="AE40">
-        <v>1.0968108819953853E-3</v>
-      </c>
-      <c r="AF40">
-        <v>8.123470417289663E-5</v>
-      </c>
-      <c r="AG40">
-        <v>1.1960818080381524E-4</v>
-      </c>
-      <c r="AH40">
-        <v>5.6235430631027753E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.7080026534442404E-5</v>
       </c>
@@ -13872,38 +12672,8 @@
       <c r="J41">
         <v>4.0425000829547112E-4</v>
       </c>
-      <c r="Y41">
-        <v>1.9071623277904878E-5</v>
-      </c>
-      <c r="Z41">
-        <v>2.7084534379380389E-4</v>
-      </c>
-      <c r="AA41">
-        <v>1.133758262031065E-4</v>
-      </c>
-      <c r="AB41">
-        <v>1.5161265409376968E-4</v>
-      </c>
-      <c r="AC41">
-        <v>2.0376868130944647E-4</v>
-      </c>
-      <c r="AD41">
-        <v>4.0117010302192918E-3</v>
-      </c>
-      <c r="AE41">
-        <v>1.155969794892342E-3</v>
-      </c>
-      <c r="AF41">
-        <v>8.4451374467495811E-5</v>
-      </c>
-      <c r="AG41">
-        <v>1.2561926206726006E-4</v>
-      </c>
-      <c r="AH41">
-        <v>5.8712135508973487E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.7137669633926849E-5</v>
       </c>
@@ -13934,38 +12704,8 @@
       <c r="J42">
         <v>4.2313166327078924E-4</v>
       </c>
-      <c r="Y42">
-        <v>1.9161471665946099E-5</v>
-      </c>
-      <c r="Z42">
-        <v>2.7615112863300305E-4</v>
-      </c>
-      <c r="AA42">
-        <v>1.1770826402327959E-4</v>
-      </c>
-      <c r="AB42">
-        <v>1.5578391102061254E-4</v>
-      </c>
-      <c r="AC42">
-        <v>2.1186786967819095E-4</v>
-      </c>
-      <c r="AD42">
-        <v>4.2415308101656597E-3</v>
-      </c>
-      <c r="AE42">
-        <v>1.2166946596744905E-3</v>
-      </c>
-      <c r="AF42">
-        <v>8.7690601637339729E-5</v>
-      </c>
-      <c r="AG42">
-        <v>1.3171045363932451E-4</v>
-      </c>
-      <c r="AH42">
-        <v>6.1214982262323861E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.7186336224101855E-5</v>
       </c>
@@ -13996,38 +12736,8 @@
       <c r="J43">
         <v>4.4221078235484167E-4</v>
       </c>
-      <c r="Y43">
-        <v>1.9242416763731978E-5</v>
-      </c>
-      <c r="Z43">
-        <v>2.8154360006973109E-4</v>
-      </c>
-      <c r="AA43">
-        <v>1.2206428549743005E-4</v>
-      </c>
-      <c r="AB43">
-        <v>1.6010068567776125E-4</v>
-      </c>
-      <c r="AC43">
-        <v>2.2006097783594143E-4</v>
-      </c>
-      <c r="AD43">
-        <v>4.4745911659471102E-3</v>
-      </c>
-      <c r="AE43">
-        <v>1.2789824667827974E-3</v>
-      </c>
-      <c r="AF43">
-        <v>9.0955050133254806E-5</v>
-      </c>
-      <c r="AG43">
-        <v>1.3787982947152699E-4</v>
-      </c>
-      <c r="AH43">
-        <v>6.3745295891972828E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.7227053919111705E-5</v>
       </c>
@@ -14058,38 +12768,8 @@
       <c r="J44">
         <v>4.6148199685680058E-4</v>
       </c>
-      <c r="Y44">
-        <v>1.9315536399030076E-5</v>
-      </c>
-      <c r="Z44">
-        <v>2.8702334727394855E-4</v>
-      </c>
-      <c r="AA44">
-        <v>1.2644923157701732E-4</v>
-      </c>
-      <c r="AB44">
-        <v>1.645688470266012E-4</v>
-      </c>
-      <c r="AC44">
-        <v>2.2835285950251668E-4</v>
-      </c>
-      <c r="AD44">
-        <v>4.7105168615684569E-3</v>
-      </c>
-      <c r="AE44">
-        <v>1.3428317456035627E-3</v>
-      </c>
-      <c r="AF44">
-        <v>9.4247931876912977E-5</v>
-      </c>
-      <c r="AG44">
-        <v>1.4412587003876086E-4</v>
-      </c>
-      <c r="AH44">
-        <v>6.6304736590392841E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.7260959047844555E-5</v>
       </c>
@@ -14120,38 +12800,8 @@
       <c r="J45">
         <v>4.8094131431382023E-4</v>
       </c>
-      <c r="Y45">
-        <v>1.9382024229635281E-5</v>
-      </c>
-      <c r="Z45">
-        <v>2.9259134523277686E-4</v>
-      </c>
-      <c r="AA45">
-        <v>1.3086925566898477E-4</v>
-      </c>
-      <c r="AB45">
-        <v>1.6919457767583876E-4</v>
-      </c>
-      <c r="AC45">
-        <v>2.36749362077518E-4</v>
-      </c>
-      <c r="AD45">
-        <v>4.9489497997645231E-3</v>
-      </c>
-      <c r="AE45">
-        <v>1.4082425475775494E-3</v>
-      </c>
-      <c r="AF45">
-        <v>9.7572986265747559E-5</v>
-      </c>
-      <c r="AG45">
-        <v>1.5044745235065309E-4</v>
-      </c>
-      <c r="AH45">
-        <v>6.8895288025766781E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.7289282305109773E-5</v>
       </c>
@@ -14182,38 +12832,8 @@
       <c r="J46">
         <v>5.0057871396485393E-4</v>
       </c>
-      <c r="Y46">
-        <v>1.9443162809427805E-5</v>
-      </c>
-      <c r="Z46">
-        <v>2.9824681436850802E-4</v>
-      </c>
-      <c r="AA46">
-        <v>1.3532961828391132E-4</v>
-      </c>
-      <c r="AB46">
-        <v>1.7398254192753449E-4</v>
-      </c>
-      <c r="AC46">
-        <v>2.4525409386541108E-4</v>
-      </c>
-      <c r="AD46">
-        <v>5.1894503768595045E-3</v>
-      </c>
-      <c r="AE46">
-        <v>1.4751911353147219E-3</v>
-      </c>
-      <c r="AF46">
-        <v>1.0093319832206633E-4</v>
-      </c>
-      <c r="AG46">
-        <v>1.5684143809582834E-4</v>
-      </c>
-      <c r="AH46">
-        <v>7.1518259733240616E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.7313373117412819E-5</v>
       </c>
@@ -14244,38 +12864,8 @@
       <c r="J47">
         <v>5.2040020786544249E-4</v>
       </c>
-      <c r="Y47">
-        <v>1.9500384591003134E-5</v>
-      </c>
-      <c r="Z47">
-        <v>3.0399359407150587E-4</v>
-      </c>
-      <c r="AA47">
-        <v>1.3983967777500545E-4</v>
-      </c>
-      <c r="AB47">
-        <v>1.7894133000295382E-4</v>
-      </c>
-      <c r="AC47">
-        <v>2.5387797938702451E-4</v>
-      </c>
-      <c r="AD47">
-        <v>5.431769417365756E-3</v>
-      </c>
-      <c r="AE47">
-        <v>1.5437058262366642E-3</v>
-      </c>
-      <c r="AF47">
-        <v>1.0433456444746801E-4</v>
-      </c>
-      <c r="AG47">
-        <v>1.6330986668644398E-4</v>
-      </c>
-      <c r="AH47">
-        <v>7.4177232895917785E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.7334675837276951E-5</v>
       </c>
@@ -14306,38 +12896,8 @@
       <c r="J48">
         <v>5.4041306748015753E-4</v>
       </c>
-      <c r="Y48">
-        <v>1.9555223237341439E-5</v>
-      </c>
-      <c r="Z48">
-        <v>3.0983587345045715E-4</v>
-      </c>
-      <c r="AA48">
-        <v>1.4440951172148977E-4</v>
-      </c>
-      <c r="AB48">
-        <v>1.8407980753400497E-4</v>
-      </c>
-      <c r="AC48">
-        <v>2.6263282986437107E-4</v>
-      </c>
-      <c r="AD48">
-        <v>5.6756691648807917E-3</v>
-      </c>
-      <c r="AE48">
-        <v>1.6138163852757131E-3</v>
-      </c>
-      <c r="AF48">
-        <v>1.0778354906438992E-4</v>
-      </c>
-      <c r="AG48">
-        <v>1.6985514137622486E-4</v>
-      </c>
-      <c r="AH48">
-        <v>7.6876077011091336E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.7354706056664615E-5</v>
       </c>
@@ -14368,38 +12928,8 @@
       <c r="J49">
         <v>5.6061104974287359E-4</v>
       </c>
-      <c r="Y49">
-        <v>1.9609265057840566E-5</v>
-      </c>
-      <c r="Z49">
-        <v>3.1577392205117775E-4</v>
-      </c>
-      <c r="AA49">
-        <v>1.4904653885472035E-4</v>
-      </c>
-      <c r="AB49">
-        <v>1.8940346534175286E-4</v>
-      </c>
-      <c r="AC49">
-        <v>2.7152491411997263E-4</v>
-      </c>
-      <c r="AD49">
-        <v>5.9207441826398966E-3</v>
-      </c>
-      <c r="AE49">
-        <v>1.6855034150418562E-3</v>
-      </c>
-      <c r="AF49">
-        <v>1.1128454157205567E-4</v>
-      </c>
-      <c r="AG49">
-        <v>1.7647521519083606E-4</v>
-      </c>
-      <c r="AH49">
-        <v>7.9616966703313413E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.7374803929254435E-5</v>
       </c>
@@ -14430,38 +12960,8 @@
       <c r="J50">
         <v>5.8122151208797623E-4</v>
       </c>
-      <c r="Y50">
-        <v>1.966417346688E-5</v>
-      </c>
-      <c r="Z50">
-        <v>3.21854756772727E-4</v>
-      </c>
-      <c r="AA50">
-        <v>1.5379309763394072E-4</v>
-      </c>
-      <c r="AB50">
-        <v>1.9490688275803389E-4</v>
-      </c>
-      <c r="AC50">
-        <v>2.806292140693308E-4</v>
-      </c>
-      <c r="AD50">
-        <v>6.1701964997280612E-3</v>
-      </c>
-      <c r="AE50">
-        <v>1.7591215010016909E-3</v>
-      </c>
-      <c r="AF50">
-        <v>1.1486856255648481E-4</v>
-      </c>
-      <c r="AG50">
-        <v>1.8323764666161433E-4</v>
-      </c>
-      <c r="AH50">
-        <v>8.2423203376405226E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.739552669752156E-5</v>
       </c>
@@ -14492,38 +12992,8 @@
       <c r="J51">
         <v>6.0247280787299219E-4</v>
       </c>
-      <c r="Y51">
-        <v>1.9720789122659257E-5</v>
-      </c>
-      <c r="Z51">
-        <v>3.2812466062658908E-4</v>
-      </c>
-      <c r="AA51">
-        <v>1.58687239399865E-4</v>
-      </c>
-      <c r="AB51">
-        <v>2.005814158851176E-4</v>
-      </c>
-      <c r="AC51">
-        <v>2.9001659063079301E-4</v>
-      </c>
-      <c r="AD51">
-        <v>6.4274049449310295E-3</v>
-      </c>
-      <c r="AE51">
-        <v>1.8350285667270223E-3</v>
-      </c>
-      <c r="AF51">
-        <v>1.1856402017235462E-4</v>
-      </c>
-      <c r="AG51">
-        <v>1.9021033989891848E-4</v>
-      </c>
-      <c r="AH51">
-        <v>8.5316693322631668E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.7416877896553698E-5</v>
       </c>
@@ -14554,38 +13024,8 @@
       <c r="J52">
         <v>6.2436856234690476E-4</v>
       </c>
-      <c r="Y52">
-        <v>1.9779121683217574E-5</v>
-      </c>
-      <c r="Z52">
-        <v>3.3458470319284046E-4</v>
-      </c>
-      <c r="AA52">
-        <v>1.6372979904193428E-4</v>
-      </c>
-      <c r="AB52">
-        <v>2.0642803273905616E-4</v>
-      </c>
-      <c r="AC52">
-        <v>2.9968864519270183E-4</v>
-      </c>
-      <c r="AD52">
-        <v>6.6924133953217054E-3</v>
-      </c>
-      <c r="AE52">
-        <v>1.9132375611700288E-3</v>
-      </c>
-      <c r="AF52">
-        <v>1.2237154482611657E-4</v>
-      </c>
-      <c r="AG52">
-        <v>1.9739448437134963E-4</v>
-      </c>
-      <c r="AH52">
-        <v>8.8297930141140386E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.7438860888484491E-5</v>
       </c>
@@ -14616,38 +13056,8 @@
       <c r="J53">
         <v>6.4691222339348592E-4</v>
       </c>
-      <c r="Y53">
-        <v>1.9839180334074873E-5</v>
-      </c>
-      <c r="Z53">
-        <v>3.4123590172238053E-4</v>
-      </c>
-      <c r="AA53">
-        <v>1.6892157060264572E-4</v>
-      </c>
-      <c r="AB53">
-        <v>2.1244765397574185E-4</v>
-      </c>
-      <c r="AC53">
-        <v>3.0964690079551729E-4</v>
-      </c>
-      <c r="AD53">
-        <v>6.9652635812883536E-3</v>
-      </c>
-      <c r="AE53">
-        <v>1.9937607997557432E-3</v>
-      </c>
-      <c r="AF53">
-        <v>1.2629173608160303E-4</v>
-      </c>
-      <c r="AG53">
-        <v>2.0479121135278885E-4</v>
-      </c>
-      <c r="AH53">
-        <v>9.1367383281753677E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.75331861025962E-5</v>
       </c>
@@ -14678,38 +13088,8 @@
       <c r="J54">
         <v>7.4364317165453802E-4</v>
       </c>
-      <c r="Y54">
-        <v>2.0096881611462875E-5</v>
-      </c>
-      <c r="Z54">
-        <v>3.6977504359048889E-4</v>
-      </c>
-      <c r="AA54">
-        <v>1.9119856390842214E-4</v>
-      </c>
-      <c r="AB54">
-        <v>2.3827680697772422E-4</v>
-      </c>
-      <c r="AC54">
-        <v>3.5237605226279235E-4</v>
-      </c>
-      <c r="AD54">
-        <v>8.1360165112238821E-3</v>
-      </c>
-      <c r="AE54">
-        <v>2.3392720815902596E-3</v>
-      </c>
-      <c r="AF54">
-        <v>1.43112598350795E-4</v>
-      </c>
-      <c r="AG54">
-        <v>2.3652928679068384E-4</v>
-      </c>
-      <c r="AH54">
-        <v>1.0453787552437974E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.7637843391778817E-5</v>
       </c>
@@ -14740,38 +13120,8 @@
       <c r="J55">
         <v>8.5096971122725757E-4</v>
       </c>
-      <c r="Y55">
-        <v>2.0382810642892208E-5</v>
-      </c>
-      <c r="Z55">
-        <v>4.0144026960287852E-4</v>
-      </c>
-      <c r="AA55">
-        <v>2.1591570611136177E-4</v>
-      </c>
-      <c r="AB55">
-        <v>2.669352008178813E-4</v>
-      </c>
-      <c r="AC55">
-        <v>3.9978561505840204E-4</v>
-      </c>
-      <c r="AD55">
-        <v>9.4350098832881972E-3</v>
-      </c>
-      <c r="AE55">
-        <v>2.7226295378053791E-3</v>
-      </c>
-      <c r="AF55">
-        <v>1.6177596279037007E-4</v>
-      </c>
-      <c r="AG55">
-        <v>2.7174384708067868E-4</v>
-      </c>
-      <c r="AH55">
-        <v>1.1915102035839511E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.7752972768971354E-5</v>
       </c>
@@ -14802,38 +13152,8 @@
       <c r="J56">
         <v>9.6903542603549078E-4</v>
       </c>
-      <c r="Y56">
-        <v>2.0697349950825983E-5</v>
-      </c>
-      <c r="Z56">
-        <v>4.3627394223036463E-4</v>
-      </c>
-      <c r="AA56">
-        <v>2.4310606437526113E-4</v>
-      </c>
-      <c r="AB56">
-        <v>2.9846117535749141E-4</v>
-      </c>
-      <c r="AC56">
-        <v>4.5193901479059886E-4</v>
-      </c>
-      <c r="AD56">
-        <v>1.0863981520820742E-2</v>
-      </c>
-      <c r="AE56">
-        <v>3.1443460328614507E-3</v>
-      </c>
-      <c r="AF56">
-        <v>1.8230679768039277E-4</v>
-      </c>
-      <c r="AG56">
-        <v>3.1048200307497349E-4</v>
-      </c>
-      <c r="AH56">
-        <v>1.3522636758651733E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.7878678647379515E-5</v>
       </c>
@@ -14864,38 +13184,8 @@
       <c r="J57">
         <v>1.0979473923100576E-3</v>
       </c>
-      <c r="Y57">
-        <v>2.1040784797447154E-5</v>
-      </c>
-      <c r="Z57">
-        <v>4.7430765284878923E-4</v>
-      </c>
-      <c r="AA57">
-        <v>2.7279429819659023E-4</v>
-      </c>
-      <c r="AB57">
-        <v>3.3288332215280873E-4</v>
-      </c>
-      <c r="AC57">
-        <v>5.0888355045280217E-4</v>
-      </c>
-      <c r="AD57">
-        <v>1.2424227387659489E-2</v>
-      </c>
-      <c r="AE57">
-        <v>3.6048040301420109E-3</v>
-      </c>
-      <c r="AF57">
-        <v>2.0472372285829159E-4</v>
-      </c>
-      <c r="AG57">
-        <v>3.527788872058711E-4</v>
-      </c>
-      <c r="AH57">
-        <v>1.5277849627255932E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.8014979456643182E-5</v>
       </c>
@@ -14926,38 +13216,8 @@
       <c r="J58">
         <v>1.2377245097328605E-3</v>
       </c>
-      <c r="Y58">
-        <v>2.1413165533468246E-5</v>
-      </c>
-      <c r="Z58">
-        <v>5.155469775505278E-4</v>
-      </c>
-      <c r="AA58">
-        <v>3.0498476014394042E-4</v>
-      </c>
-      <c r="AB58">
-        <v>3.7020668780767945E-4</v>
-      </c>
-      <c r="AC58">
-        <v>5.7062757063856145E-4</v>
-      </c>
-      <c r="AD58">
-        <v>1.4115976230222824E-2</v>
-      </c>
-      <c r="AE58">
-        <v>4.1040710370315913E-3</v>
-      </c>
-      <c r="AF58">
-        <v>2.2903002485182139E-4</v>
-      </c>
-      <c r="AG58">
-        <v>3.9864070058625992E-4</v>
-      </c>
-      <c r="AH58">
-        <v>1.7180997972029155E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.8161970941595507E-5</v>
       </c>
@@ -14988,38 +13248,8 @@
       <c r="J59">
         <v>1.3884649650781247E-3</v>
       </c>
-      <c r="Y59">
-        <v>2.1814753738637993E-5</v>
-      </c>
-      <c r="Z59">
-        <v>5.6002088499896652E-4</v>
-      </c>
-      <c r="AA59">
-        <v>3.3970006248516875E-4</v>
-      </c>
-      <c r="AB59">
-        <v>4.1045749021058532E-4</v>
-      </c>
-      <c r="AC59">
-        <v>6.3721444758420211E-4</v>
-      </c>
-      <c r="AD59">
-        <v>1.5940416421577196E-2</v>
-      </c>
-      <c r="AE59">
-        <v>4.6424977648468037E-3</v>
-      </c>
-      <c r="AF59">
-        <v>2.5524277768160936E-4</v>
-      </c>
-      <c r="AG59">
-        <v>4.4809965895787918E-4</v>
-      </c>
-      <c r="AH59">
-        <v>1.9233418664129512E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.8319721881078878E-5</v>
       </c>
@@ -15050,38 +13280,8 @@
       <c r="J60">
         <v>1.550239291370424E-3</v>
       </c>
-      <c r="Y60">
-        <v>2.2245737320248294E-5</v>
-      </c>
-      <c r="Z60">
-        <v>6.0775018499728496E-4</v>
-      </c>
-      <c r="AA60">
-        <v>3.7695644887077704E-4</v>
-      </c>
-      <c r="AB60">
-        <v>4.5365456312999609E-4</v>
-      </c>
-      <c r="AC60">
-        <v>7.0867533798098627E-4</v>
-      </c>
-      <c r="AD60">
-        <v>1.7898401636235895E-2</v>
-      </c>
-      <c r="AE60">
-        <v>5.2203361490454339E-3</v>
-      </c>
-      <c r="AF60">
-        <v>2.8337424656693763E-4</v>
-      </c>
-      <c r="AG60">
-        <v>5.0117890468100786E-4</v>
-      </c>
-      <c r="AH60">
-        <v>2.1436072052514288E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.8488169615949026E-5</v>
       </c>
@@ -15112,38 +13312,8 @@
       <c r="J61">
         <v>1.7229832313642268E-3</v>
       </c>
-      <c r="Y61">
-        <v>2.2705945090333427E-5</v>
-      </c>
-      <c r="Z61">
-        <v>6.5871591932498347E-4</v>
-      </c>
-      <c r="AA61">
-        <v>4.1673912095282914E-4</v>
-      </c>
-      <c r="AB61">
-        <v>4.9978074855954293E-4</v>
-      </c>
-      <c r="AC61">
-        <v>7.8498185734983492E-4</v>
-      </c>
-      <c r="AD61">
-        <v>1.9989154156624264E-2</v>
-      </c>
-      <c r="AE61">
-        <v>5.8373566704956019E-3</v>
-      </c>
-      <c r="AF61">
-        <v>3.1341325760435215E-4</v>
-      </c>
-      <c r="AG61">
-        <v>5.5785735452072705E-4</v>
-      </c>
-      <c r="AH61">
-        <v>2.3788083236679532E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.8667335858245945E-5</v>
       </c>
@@ -15174,38 +13344,8 @@
       <c r="J62">
         <v>1.9067190508581051E-3</v>
       </c>
-      <c r="Y62">
-        <v>2.3195436367289803E-5</v>
-      </c>
-      <c r="Z62">
-        <v>7.1292465720107284E-4</v>
-      </c>
-      <c r="AA62">
-        <v>4.590532065115718E-4</v>
-      </c>
-      <c r="AB62">
-        <v>5.4884199192546603E-4</v>
-      </c>
-      <c r="AC62">
-        <v>8.6614384120561536E-4</v>
-      </c>
-      <c r="AD62">
-        <v>2.2212943469906279E-2</v>
-      </c>
-      <c r="AE62">
-        <v>6.4936388599446428E-3</v>
-      </c>
-      <c r="AF62">
-        <v>3.4536368266669017E-4</v>
-      </c>
-      <c r="AG62">
-        <v>6.1814231403546941E-4</v>
-      </c>
-      <c r="AH62">
-        <v>2.6289755378676939E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.9720009774195407E-5</v>
       </c>
@@ -15236,38 +13376,8 @@
       <c r="J63">
         <v>2.9862410753602152E-3</v>
       </c>
-      <c r="Y63">
-        <v>2.6071394989466233E-5</v>
-      </c>
-      <c r="Z63">
-        <v>1.0314228499807882E-3</v>
-      </c>
-      <c r="AA63">
-        <v>7.0766552082871187E-4</v>
-      </c>
-      <c r="AB63">
-        <v>8.3709657891271742E-4</v>
-      </c>
-      <c r="AC63">
-        <v>1.3430032220598687E-3</v>
-      </c>
-      <c r="AD63">
-        <v>3.5278602349885002E-2</v>
-      </c>
-      <c r="AE63">
-        <v>1.0349561345556174E-2</v>
-      </c>
-      <c r="AF63">
-        <v>5.330853127876328E-4</v>
-      </c>
-      <c r="AG63">
-        <v>9.7234075896389946E-4</v>
-      </c>
-      <c r="AH63">
-        <v>4.0988087923788273E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.1024398554535577E-5</v>
       </c>
@@ -15298,38 +13408,8 @@
       <c r="J64">
         <v>4.323897870646725E-3</v>
       </c>
-      <c r="Y64">
-        <v>2.9635051410178391E-5</v>
-      </c>
-      <c r="Z64">
-        <v>1.4260801725627474E-3</v>
-      </c>
-      <c r="AA64">
-        <v>1.0157258883711049E-3</v>
-      </c>
-      <c r="AB64">
-        <v>1.1942784596935571E-3</v>
-      </c>
-      <c r="AC64">
-        <v>1.9338889814217546E-3</v>
-      </c>
-      <c r="AD64">
-        <v>5.1468515097389964E-2</v>
-      </c>
-      <c r="AE64">
-        <v>1.5127510102419386E-2</v>
-      </c>
-      <c r="AF64">
-        <v>7.6569484594593378E-4</v>
-      </c>
-      <c r="AG64">
-        <v>1.4112349602720664E-3</v>
-      </c>
-      <c r="AH64">
-        <v>5.9201078453015414E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.430151107984362E-5</v>
       </c>
@@ -15360,38 +13440,8 @@
       <c r="J65">
         <v>7.6845920934639662E-3</v>
       </c>
-      <c r="Y65">
-        <v>3.8588289331440348E-5</v>
-      </c>
-      <c r="Z65">
-        <v>2.4176069892075424E-3</v>
-      </c>
-      <c r="AA65">
-        <v>1.7896887622014797E-3</v>
-      </c>
-      <c r="AB65">
-        <v>2.0916529487739624E-3</v>
-      </c>
-      <c r="AC65">
-        <v>3.4184150308761195E-3</v>
-      </c>
-      <c r="AD65">
-        <v>9.2143631786646057E-2</v>
-      </c>
-      <c r="AE65">
-        <v>2.7131504580440745E-2</v>
-      </c>
-      <c r="AF65">
-        <v>1.3500970012759791E-3</v>
-      </c>
-      <c r="AG65">
-        <v>2.5139013631653578E-3</v>
-      </c>
-      <c r="AH65">
-        <v>1.0495892326603317E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.8337153687178286E-5</v>
       </c>
@@ -15422,38 +13472,8 @@
       <c r="J66">
         <v>1.1823162463289719E-2</v>
       </c>
-      <c r="Y66">
-        <v>4.9613869975868425E-5</v>
-      </c>
-      <c r="Z66">
-        <v>3.6386355125386134E-3</v>
-      </c>
-      <c r="AA66">
-        <v>2.7427953540575052E-3</v>
-      </c>
-      <c r="AB66">
-        <v>3.1967363705059171E-3</v>
-      </c>
-      <c r="AC66">
-        <v>5.2465538361840319E-3</v>
-      </c>
-      <c r="AD66">
-        <v>0.14223353034880828</v>
-      </c>
-      <c r="AE66">
-        <v>4.1913978846916958E-2</v>
-      </c>
-      <c r="AF66">
-        <v>2.0697665944482344E-3</v>
-      </c>
-      <c r="AG66">
-        <v>3.8717941675249909E-3</v>
-      </c>
-      <c r="AH66">
-        <v>1.6130801311910862E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3.2958607305112752E-5</v>
       </c>
@@ -15484,38 +13504,8 @@
       <c r="J67">
         <v>1.6562484764512889E-2</v>
       </c>
-      <c r="Y67">
-        <v>6.2239916064888427E-5</v>
-      </c>
-      <c r="Z67">
-        <v>5.0369076678810363E-3</v>
-      </c>
-      <c r="AA67">
-        <v>3.8342542209067977E-3</v>
-      </c>
-      <c r="AB67">
-        <v>4.4622329157650411E-3</v>
-      </c>
-      <c r="AC67">
-        <v>7.3400639702383818E-3</v>
-      </c>
-      <c r="AD67">
-        <v>0.19959444296068127</v>
-      </c>
-      <c r="AE67">
-        <v>5.8842266564136096E-2</v>
-      </c>
-      <c r="AF67">
-        <v>2.893902913912842E-3</v>
-      </c>
-      <c r="AG67">
-        <v>5.4267977255877328E-3</v>
-      </c>
-      <c r="AH67">
-        <v>2.2583669677794242E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.0656334391208386E-5</v>
       </c>
@@ -15546,38 +13536,8 @@
       <c r="J68">
         <v>2.4456539896060038E-2</v>
       </c>
-      <c r="Y68">
-        <v>8.3270497566900897E-5</v>
-      </c>
-      <c r="Z68">
-        <v>7.3659405509857662E-3</v>
-      </c>
-      <c r="AA68">
-        <v>5.6522433596704934E-3</v>
-      </c>
-      <c r="AB68">
-        <v>6.5701080215538332E-3</v>
-      </c>
-      <c r="AC68">
-        <v>1.0827120423945368E-2</v>
-      </c>
-      <c r="AD68">
-        <v>0.29513768264225299</v>
-      </c>
-      <c r="AE68">
-        <v>8.7038879503486294E-2</v>
-      </c>
-      <c r="AF68">
-        <v>4.266626085764837E-3</v>
-      </c>
-      <c r="AG68">
-        <v>8.0168903668776346E-3</v>
-      </c>
-      <c r="AH68">
-        <v>3.3331893875113136E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5.4692492517870825E-5</v>
       </c>
@@ -15608,38 +13568,8 @@
       <c r="J69">
         <v>3.8850685706597839E-2</v>
       </c>
-      <c r="Y69">
-        <v>1.2161799471201357E-4</v>
-      </c>
-      <c r="Z69">
-        <v>1.1612736191286329E-2</v>
-      </c>
-      <c r="AA69">
-        <v>8.9671937000553037E-3</v>
-      </c>
-      <c r="AB69">
-        <v>1.0413641049575661E-2</v>
-      </c>
-      <c r="AC69">
-        <v>1.7185474680130791E-2</v>
-      </c>
-      <c r="AD69">
-        <v>0.4693527470508756</v>
-      </c>
-      <c r="AE69">
-        <v>0.13845303246402668</v>
-      </c>
-      <c r="AF69">
-        <v>6.7696713728667233E-3</v>
-      </c>
-      <c r="AG69">
-        <v>1.2739706526665579E-2</v>
-      </c>
-      <c r="AH69">
-        <v>5.2930377002280884E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6.9515164762205372E-5</v>
       </c>
@@ -15670,38 +13600,8 @@
       <c r="J70">
         <v>5.4051405423588966E-2</v>
       </c>
-      <c r="Y70">
-        <v>1.6211428838747667E-4</v>
-      </c>
-      <c r="Z70">
-        <v>1.6097500419274709E-2</v>
-      </c>
-      <c r="AA70">
-        <v>1.2467896809721189E-2</v>
-      </c>
-      <c r="AB70">
-        <v>1.4472545902351718E-2</v>
-      </c>
-      <c r="AC70">
-        <v>2.3900118409726379E-2</v>
-      </c>
-      <c r="AD70">
-        <v>0.65332992773319953</v>
-      </c>
-      <c r="AE70">
-        <v>0.1927481701489272</v>
-      </c>
-      <c r="AF70">
-        <v>9.4129744454475757E-3</v>
-      </c>
-      <c r="AG70">
-        <v>1.7727165016022835E-2</v>
-      </c>
-      <c r="AH70">
-        <v>7.3627058334781989E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.4645699396539124E-5</v>
       </c>
@@ -15732,38 +13632,8 @@
       <c r="J71">
         <v>6.9567839461496125E-2</v>
       </c>
-      <c r="Y71">
-        <v>2.0345167775415719E-4</v>
-      </c>
-      <c r="Z71">
-        <v>2.0675411834966653E-2</v>
-      </c>
-      <c r="AA71">
-        <v>1.6041308457244094E-2</v>
-      </c>
-      <c r="AB71">
-        <v>1.861575297325397E-2</v>
-      </c>
-      <c r="AC71">
-        <v>3.0754223245424248E-2</v>
-      </c>
-      <c r="AD71">
-        <v>0.84112825844950778</v>
-      </c>
-      <c r="AE71">
-        <v>0.24817100131429298</v>
-      </c>
-      <c r="AF71">
-        <v>1.2111178118136348E-2</v>
-      </c>
-      <c r="AG71">
-        <v>2.2818211499855395E-2</v>
-      </c>
-      <c r="AH71">
-        <v>9.4753603437799316E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9.9881849449443973E-5</v>
       </c>
@@ -15794,38 +13664,8 @@
       <c r="J72">
         <v>8.5192582605145381E-2</v>
       </c>
-      <c r="Y72">
-        <v>2.4507761381043663E-4</v>
-      </c>
-      <c r="Z72">
-        <v>2.5285278369366206E-2</v>
-      </c>
-      <c r="AA72">
-        <v>1.9639663530495233E-2</v>
-      </c>
-      <c r="AB72">
-        <v>2.2787880803375606E-2</v>
-      </c>
-      <c r="AC72">
-        <v>3.7656171674798566E-2</v>
-      </c>
-      <c r="AD72">
-        <v>1.0302374747217402</v>
-      </c>
-      <c r="AE72">
-        <v>0.30398069954373746</v>
-      </c>
-      <c r="AF72">
-        <v>1.4828216016922753E-2</v>
-      </c>
-      <c r="AG72">
-        <v>2.7944794930553983E-2</v>
-      </c>
-      <c r="AH72">
-        <v>0.11602761781126486</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.151404832122202E-4</v>
       </c>
@@ -15856,38 +13696,8 @@
       <c r="J73">
         <v>0.10084038289843129</v>
       </c>
-      <c r="Y73">
-        <v>2.8676497650442724E-4</v>
-      </c>
-      <c r="Z73">
-        <v>2.9901947600073243E-2</v>
-      </c>
-      <c r="AA73">
-        <v>2.3243328630964549E-2</v>
-      </c>
-      <c r="AB73">
-        <v>2.6966165366750262E-2</v>
-      </c>
-      <c r="AC73">
-        <v>4.4568305184097559E-2</v>
-      </c>
-      <c r="AD73">
-        <v>1.2196257560292931</v>
-      </c>
-      <c r="AE73">
-        <v>0.3598727551310868</v>
-      </c>
-      <c r="AF73">
-        <v>1.7549263399181933E-2</v>
-      </c>
-      <c r="AG73">
-        <v>3.3078943567297861E-2</v>
-      </c>
-      <c r="AH73">
-        <v>0.13733302586130297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.3038795826426474E-4</v>
       </c>
@@ -15918,38 +13728,8 @@
       <c r="J74">
         <v>0.116476739881669</v>
       </c>
-      <c r="Y74">
-        <v>3.28421853033752E-4</v>
-      </c>
-      <c r="Z74">
-        <v>3.451524063882954E-2</v>
-      </c>
-      <c r="AA74">
-        <v>2.6844358354174334E-2</v>
-      </c>
-      <c r="AB74">
-        <v>3.1141394330945978E-2</v>
-      </c>
-      <c r="AC74">
-        <v>5.1475383817608321E-2</v>
-      </c>
-      <c r="AD74">
-        <v>1.4088755367947967</v>
-      </c>
-      <c r="AE74">
-        <v>0.41572393659495999</v>
-      </c>
-      <c r="AF74">
-        <v>2.026832086667562E-2</v>
-      </c>
-      <c r="AG74">
-        <v>3.8209337576964278E-2</v>
-      </c>
-      <c r="AH74">
-        <v>0.1586228531660957</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.4561105396886245E-4</v>
       </c>
@@ -15980,38 +13760,8 @@
       <c r="J75">
         <v>0.13208809573006988</v>
       </c>
-      <c r="Y75">
-        <v>3.700121239471966E-4</v>
-      </c>
-      <c r="Z75">
-        <v>3.9121157435061608E-2</v>
-      </c>
-      <c r="AA75">
-        <v>3.043963035326987E-2</v>
-      </c>
-      <c r="AB75">
-        <v>3.5309947477851239E-2</v>
-      </c>
-      <c r="AC75">
-        <v>5.8371418650799735E-2</v>
-      </c>
-      <c r="AD75">
-        <v>1.5978227241050711</v>
-      </c>
-      <c r="AE75">
-        <v>0.47148581702022996</v>
-      </c>
-      <c r="AF75">
-        <v>2.2983030804725794E-2</v>
-      </c>
-      <c r="AG75">
-        <v>4.3331528545951896E-2</v>
-      </c>
-      <c r="AH75">
-        <v>0.17987863994318301</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.7596587145106993E-4</v>
       </c>
@@ -16042,38 +13792,8 @@
       <c r="J76">
         <v>0.16321710303736015</v>
       </c>
-      <c r="Y76">
-        <v>4.5294302756306769E-4</v>
-      </c>
-      <c r="Z76">
-        <v>4.8305344830377801E-2</v>
-      </c>
-      <c r="AA76">
-        <v>3.7608594370127195E-2</v>
-      </c>
-      <c r="AB76">
-        <v>4.3622032772104115E-2</v>
-      </c>
-      <c r="AC76">
-        <v>7.2122096093446886E-2</v>
-      </c>
-      <c r="AD76">
-        <v>1.9745829768076546</v>
-      </c>
-      <c r="AE76">
-        <v>0.58267487709179822</v>
-      </c>
-      <c r="AF76">
-        <v>2.8396156116797498E-2</v>
-      </c>
-      <c r="AG76">
-        <v>5.3545165442793544E-2</v>
-      </c>
-      <c r="AH76">
-        <v>0.22226262941415081</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.1523346044646059E-4</v>
       </c>
@@ -16104,38 +13824,8 @@
       <c r="J77">
         <v>0.20348619921933106</v>
       </c>
-      <c r="Y77">
-        <v>5.6022407578920771E-4</v>
-      </c>
-      <c r="Z77">
-        <v>6.0186190304323199E-2</v>
-      </c>
-      <c r="AA77">
-        <v>4.6882507240850413E-2</v>
-      </c>
-      <c r="AB77">
-        <v>5.4374709813258121E-2</v>
-      </c>
-      <c r="AC77">
-        <v>8.9910242918660163E-2</v>
-      </c>
-      <c r="AD77">
-        <v>2.4619674508403633</v>
-      </c>
-      <c r="AE77">
-        <v>0.72651123236665205</v>
-      </c>
-      <c r="AF77">
-        <v>3.5398681500439483E-2</v>
-      </c>
-      <c r="AG77">
-        <v>6.6757727041901138E-2</v>
-      </c>
-      <c r="AH77">
-        <v>0.27709139191639515</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4.3166355347065005E-4</v>
       </c>
@@ -16166,38 +13856,8 @@
       <c r="J78">
         <v>0.42543627192909295</v>
       </c>
-      <c r="Y78">
-        <v>1.1515220862181536E-3</v>
-      </c>
-      <c r="Z78">
-        <v>0.1256695203716176</v>
-      </c>
-      <c r="AA78">
-        <v>9.7997278395872439E-2</v>
-      </c>
-      <c r="AB78">
-        <v>0.11363994487898121</v>
-      </c>
-      <c r="AC78">
-        <v>0.18795268378664326</v>
-      </c>
-      <c r="AD78">
-        <v>5.1482710857751925</v>
-      </c>
-      <c r="AE78">
-        <v>1.5192901258212821</v>
-      </c>
-      <c r="AF78">
-        <v>7.3994308554694924E-2</v>
-      </c>
-      <c r="AG78">
-        <v>0.13958104034281094</v>
-      </c>
-      <c r="AH78">
-        <v>0.57928957806311454</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8.4448212443118879E-4</v>
       </c>
@@ -16228,38 +13888,8 @@
       <c r="J79">
         <v>0.84878364733492906</v>
       </c>
-      <c r="Y79">
-        <v>2.2793633963903268E-3</v>
-      </c>
-      <c r="Z79">
-        <v>0.25057236711713199</v>
-      </c>
-      <c r="AA79">
-        <v>0.19549354838468944</v>
-      </c>
-      <c r="AB79">
-        <v>0.22668240263340161</v>
-      </c>
-      <c r="AC79">
-        <v>0.3749587501199434</v>
-      </c>
-      <c r="AD79">
-        <v>10.272124299736312</v>
-      </c>
-      <c r="AE79">
-        <v>3.0314358968210646</v>
-      </c>
-      <c r="AF79">
-        <v>0.14761157398775501</v>
-      </c>
-      <c r="AG79">
-        <v>0.27848416471624637</v>
-      </c>
-      <c r="AH79">
-        <v>1.1557021351561454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.5960170290850754E-3</v>
       </c>
@@ -16290,38 +13920,8 @@
       <c r="J80">
         <v>1.6194862072289973</v>
       </c>
-      <c r="Y80">
-        <v>4.332594939566183E-3</v>
-      </c>
-      <c r="Z80">
-        <v>0.47795760514427993</v>
-      </c>
-      <c r="AA80">
-        <v>0.37298519998279356</v>
-      </c>
-      <c r="AB80">
-        <v>0.43247583996020789</v>
-      </c>
-      <c r="AC80">
-        <v>0.71540270326983579</v>
-      </c>
-      <c r="AD80">
-        <v>19.600082893398692</v>
-      </c>
-      <c r="AE80">
-        <v>5.7842924972081882</v>
-      </c>
-      <c r="AF80">
-        <v>0.28163157320771082</v>
-      </c>
-      <c r="AG80">
-        <v>0.53135686394879955</v>
-      </c>
-      <c r="AH80">
-        <v>2.2050593748953018</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2.8452075784073504E-3</v>
       </c>
@@ -16352,38 +13952,8 @@
       <c r="J81">
         <v>2.9005369584266987</v>
       </c>
-      <c r="Y81">
-        <v>7.7454469886495247E-3</v>
-      </c>
-      <c r="Z81">
-        <v>0.85591408945384773</v>
-      </c>
-      <c r="AA81">
-        <v>0.6680092798850642</v>
-      </c>
-      <c r="AB81">
-        <v>0.77454274254750199</v>
-      </c>
-      <c r="AC81">
-        <v>1.2812837637704388</v>
-      </c>
-      <c r="AD81">
-        <v>35.104882001883169</v>
-      </c>
-      <c r="AE81">
-        <v>10.360051291041954</v>
-      </c>
-      <c r="AF81">
-        <v>0.50439769545834634</v>
-      </c>
-      <c r="AG81">
-        <v>0.95167824104890708</v>
-      </c>
-      <c r="AH81">
-        <v>3.9492859419218367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.566134559172528E-3</v>
       </c>
@@ -16413,36 +13983,6 @@
       </c>
       <c r="J82">
         <v>3.6398509492097486</v>
-      </c>
-      <c r="Y82">
-        <v>9.7150561286472262E-3</v>
-      </c>
-      <c r="Z82">
-        <v>1.0740385599293458</v>
-      </c>
-      <c r="AA82">
-        <v>0.83827219076952453</v>
-      </c>
-      <c r="AB82">
-        <v>0.97195478623911102</v>
-      </c>
-      <c r="AC82">
-        <v>1.607862382733116</v>
-      </c>
-      <c r="AD82">
-        <v>44.052938817326293</v>
-      </c>
-      <c r="AE82">
-        <v>13.000791707896678</v>
-      </c>
-      <c r="AF82">
-        <v>0.63295943331174809</v>
-      </c>
-      <c r="AG82">
-        <v>1.1942521394091217</v>
-      </c>
-      <c r="AH82">
-        <v>4.9559057834016347</v>
       </c>
     </row>
   </sheetData>
@@ -16454,8 +13994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
+++ b/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="1" r:id="rId1"/>
@@ -11359,15 +11359,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="G45" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AH82"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -11398,38 +11398,8 @@
       <c r="J1">
         <v>0</v>
       </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1">
-        <v>0</v>
-      </c>
-      <c r="AE1">
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <v>0</v>
-      </c>
-      <c r="AG1">
-        <v>0</v>
-      </c>
-      <c r="AH1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7.9225322764182708E-4</v>
       </c>
@@ -11460,38 +11430,8 @@
       <c r="J2">
         <v>5.1413560055135261E-5</v>
       </c>
-      <c r="Y2">
-        <v>8.0909520251500175E-4</v>
-      </c>
-      <c r="Z2">
-        <v>3.201215715638514E-4</v>
-      </c>
-      <c r="AA2">
-        <v>2.4493085099419522E-4</v>
-      </c>
-      <c r="AB2">
-        <v>3.8905441450520144E-4</v>
-      </c>
-      <c r="AC2">
-        <v>3.4005712045966709E-4</v>
-      </c>
-      <c r="AD2">
-        <v>1.3500193168409706E-3</v>
-      </c>
-      <c r="AE2">
-        <v>5.0735401357606996E-4</v>
-      </c>
-      <c r="AF2">
-        <v>4.2668607421443438E-5</v>
-      </c>
-      <c r="AG2">
-        <v>6.8359315196377015E-5</v>
-      </c>
-      <c r="AH2">
-        <v>9.6268815152215957E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.5160595373493858E-3</v>
       </c>
@@ -11522,38 +11462,8 @@
       <c r="J3">
         <v>1.942219287222836E-4</v>
       </c>
-      <c r="Y3">
-        <v>1.5575532010521126E-3</v>
-      </c>
-      <c r="Z3">
-        <v>6.2340779946637806E-4</v>
-      </c>
-      <c r="AA3">
-        <v>5.0537568705366837E-4</v>
-      </c>
-      <c r="AB3">
-        <v>7.6700743039026726E-4</v>
-      </c>
-      <c r="AC3">
-        <v>7.0538936445737189E-4</v>
-      </c>
-      <c r="AD3">
-        <v>2.7529175690948439E-3</v>
-      </c>
-      <c r="AE3">
-        <v>1.0846488574273766E-3</v>
-      </c>
-      <c r="AF3">
-        <v>1.012745927360458E-4</v>
-      </c>
-      <c r="AG3">
-        <v>1.4307659483832704E-4</v>
-      </c>
-      <c r="AH3">
-        <v>3.44342998923155E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3912537977238107E-3</v>
       </c>
@@ -11584,38 +11494,8 @@
       <c r="J4">
         <v>3.7257066163607163E-4</v>
       </c>
-      <c r="Y4">
-        <v>1.4478704233139902E-3</v>
-      </c>
-      <c r="Z4">
-        <v>5.9349073890545994E-4</v>
-      </c>
-      <c r="AA4">
-        <v>5.3619042765060501E-4</v>
-      </c>
-      <c r="AB4">
-        <v>7.4774826988636587E-4</v>
-      </c>
-      <c r="AC4">
-        <v>7.5512347601435457E-4</v>
-      </c>
-      <c r="AD4">
-        <v>2.8621590178565166E-3</v>
-      </c>
-      <c r="AE4">
-        <v>1.219031864819983E-3</v>
-      </c>
-      <c r="AF4">
-        <v>1.318523295077145E-4</v>
-      </c>
-      <c r="AG4">
-        <v>1.5547884690312523E-4</v>
-      </c>
-      <c r="AH4">
-        <v>6.4058384526072471E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.2641556232276525E-3</v>
       </c>
@@ -11646,38 +11526,8 @@
       <c r="J5">
         <v>5.3979490123958515E-4</v>
       </c>
-      <c r="Y5">
-        <v>1.3341716789317852E-3</v>
-      </c>
-      <c r="Z5">
-        <v>5.6242613540643594E-4</v>
-      </c>
-      <c r="AA5">
-        <v>5.6010472800521337E-4</v>
-      </c>
-      <c r="AB5">
-        <v>7.2424005347259302E-4</v>
-      </c>
-      <c r="AC5">
-        <v>7.9487634656963835E-4</v>
-      </c>
-      <c r="AD5">
-        <v>2.9443964756382351E-3</v>
-      </c>
-      <c r="AE5">
-        <v>1.3346266022951359E-3</v>
-      </c>
-      <c r="AF5">
-        <v>1.5904598211703472E-4</v>
-      </c>
-      <c r="AG5">
-        <v>1.6579353894972707E-4</v>
-      </c>
-      <c r="AH5">
-        <v>9.1811855430636415E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.1171816551828638E-3</v>
       </c>
@@ -11708,38 +11558,8 @@
       <c r="J6">
         <v>7.7751861380001997E-4</v>
       </c>
-      <c r="Y6">
-        <v>1.1975604189327256E-3</v>
-      </c>
-      <c r="Z6">
-        <v>6.0052150245925608E-4</v>
-      </c>
-      <c r="AA6">
-        <v>6.2286237830897916E-4</v>
-      </c>
-      <c r="AB6">
-        <v>7.6809782018381759E-4</v>
-      </c>
-      <c r="AC6">
-        <v>9.0724528381407282E-4</v>
-      </c>
-      <c r="AD6">
-        <v>3.3791833204187931E-3</v>
-      </c>
-      <c r="AE6">
-        <v>1.6908599760445001E-3</v>
-      </c>
-      <c r="AF6">
-        <v>2.0483429249108651E-4</v>
-      </c>
-      <c r="AG6">
-        <v>1.9806260404805335E-4</v>
-      </c>
-      <c r="AH6">
-        <v>1.3149254786281764E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.7322211676482105E-4</v>
       </c>
@@ -11770,38 +11590,8 @@
       <c r="J7">
         <v>1.029720009515745E-3</v>
       </c>
-      <c r="Y7">
-        <v>1.0530722385261491E-3</v>
-      </c>
-      <c r="Z7">
-        <v>7.8415269609273487E-4</v>
-      </c>
-      <c r="AA7">
-        <v>7.1031663958176928E-4</v>
-      </c>
-      <c r="AB7">
-        <v>9.0345298287480358E-4</v>
-      </c>
-      <c r="AC7">
-        <v>1.0807351736078132E-3</v>
-      </c>
-      <c r="AD7">
-        <v>4.3616699191482101E-3</v>
-      </c>
-      <c r="AE7">
-        <v>2.3093845620340745E-3</v>
-      </c>
-      <c r="AF7">
-        <v>2.6239504892682961E-4</v>
-      </c>
-      <c r="AG7">
-        <v>2.546405040728897E-4</v>
-      </c>
-      <c r="AH7">
-        <v>1.7382639554328026E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.2139517404564112E-4</v>
       </c>
@@ -11832,38 +11622,8 @@
       <c r="J8">
         <v>1.2278419655071431E-3</v>
       </c>
-      <c r="Y8">
-        <v>8.9042548811860687E-4</v>
-      </c>
-      <c r="Z8">
-        <v>1.1061798854219414E-3</v>
-      </c>
-      <c r="AA8">
-        <v>7.6741330438847807E-4</v>
-      </c>
-      <c r="AB8">
-        <v>1.0636258058963203E-3</v>
-      </c>
-      <c r="AC8">
-        <v>1.2286290395515131E-3</v>
-      </c>
-      <c r="AD8">
-        <v>5.7343729534472289E-3</v>
-      </c>
-      <c r="AE8">
-        <v>2.9732584595754297E-3</v>
-      </c>
-      <c r="AF8">
-        <v>3.1342213397824001E-4</v>
-      </c>
-      <c r="AG8">
-        <v>3.1605987277648828E-4</v>
-      </c>
-      <c r="AH8">
-        <v>2.0716273856254347E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.4131577618918567E-4</v>
       </c>
@@ -11894,38 +11654,8 @@
       <c r="J9">
         <v>1.4268642858287336E-3</v>
       </c>
-      <c r="Y9">
-        <v>6.9737029332852727E-4</v>
-      </c>
-      <c r="Z9">
-        <v>1.5390311464127035E-3</v>
-      </c>
-      <c r="AA9">
-        <v>7.9846360472306417E-4</v>
-      </c>
-      <c r="AB9">
-        <v>1.2255224806933379E-3</v>
-      </c>
-      <c r="AC9">
-        <v>1.351898542289162E-3</v>
-      </c>
-      <c r="AD9">
-        <v>7.4581808696300078E-3</v>
-      </c>
-      <c r="AE9">
-        <v>3.6620882946803309E-3</v>
-      </c>
-      <c r="AF9">
-        <v>3.6507009864890979E-4</v>
-      </c>
-      <c r="AG9">
-        <v>3.8127569564075738E-4</v>
-      </c>
-      <c r="AH9">
-        <v>2.4054689619101882E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.6091955840584382E-4</v>
       </c>
@@ -11956,38 +11686,8 @@
       <c r="J10">
         <v>1.6263439225515798E-3</v>
       </c>
-      <c r="Y10">
-        <v>5.0396782061603803E-4</v>
-      </c>
-      <c r="Z10">
-        <v>2.0549510206801735E-3</v>
-      </c>
-      <c r="AA10">
-        <v>8.1118469949960608E-4</v>
-      </c>
-      <c r="AB10">
-        <v>1.3883186025038601E-3</v>
-      </c>
-      <c r="AC10">
-        <v>1.4546023324053582E-3</v>
-      </c>
-      <c r="AD10">
-        <v>9.4511518012887798E-3</v>
-      </c>
-      <c r="AE10">
-        <v>4.3575623015994084E-3</v>
-      </c>
-      <c r="AF10">
-        <v>4.1732129019706431E-4</v>
-      </c>
-      <c r="AG10">
-        <v>4.4896280067208643E-4</v>
-      </c>
-      <c r="AH10">
-        <v>2.7387483926955693E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.1474334822435758E-4</v>
       </c>
@@ -12018,38 +11718,8 @@
       <c r="J11">
         <v>1.8255715259521807E-3</v>
       </c>
-      <c r="Y11">
-        <v>3.4736897174909387E-4</v>
-      </c>
-      <c r="Z11">
-        <v>2.5925325367643537E-3</v>
-      </c>
-      <c r="AA11">
-        <v>8.2027929230459452E-4</v>
-      </c>
-      <c r="AB11">
-        <v>1.5499315422429988E-3</v>
-      </c>
-      <c r="AC11">
-        <v>1.5465109716671917E-3</v>
-      </c>
-      <c r="AD11">
-        <v>1.1527651250599173E-2</v>
-      </c>
-      <c r="AE11">
-        <v>5.0358428956014181E-3</v>
-      </c>
-      <c r="AF11">
-        <v>4.7006402786207101E-4</v>
-      </c>
-      <c r="AG11">
-        <v>5.167744134424373E-4</v>
-      </c>
-      <c r="AH11">
-        <v>3.070041259610795E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.3310740654427532E-4</v>
       </c>
@@ -12080,38 +11750,8 @@
       <c r="J12">
         <v>2.0240938499388053E-3</v>
       </c>
-      <c r="Y12">
-        <v>2.6016284218551228E-4</v>
-      </c>
-      <c r="Z12">
-        <v>3.0675436350003854E-3</v>
-      </c>
-      <c r="AA12">
-        <v>8.4406438593800427E-4</v>
-      </c>
-      <c r="AB12">
-        <v>1.7070357590389072E-3</v>
-      </c>
-      <c r="AC12">
-        <v>1.6404080879517274E-3</v>
-      </c>
-      <c r="AD12">
-        <v>1.3433691456195572E-2</v>
-      </c>
-      <c r="AE12">
-        <v>5.6763783629715705E-3</v>
-      </c>
-      <c r="AF12">
-        <v>5.2327419929116127E-4</v>
-      </c>
-      <c r="AG12">
-        <v>5.8202174567029586E-4</v>
-      </c>
-      <c r="AH12">
-        <v>3.3983012792548018E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.178257921888613E-4</v>
       </c>
@@ -12142,38 +11782,8 @@
       <c r="J13">
         <v>2.2213019537164528E-3</v>
       </c>
-      <c r="Y13">
-        <v>2.442753328170232E-4</v>
-      </c>
-      <c r="Z13">
-        <v>3.4334192329792332E-3</v>
-      </c>
-      <c r="AA13">
-        <v>8.9087668906991883E-4</v>
-      </c>
-      <c r="AB13">
-        <v>1.85670266954985E-3</v>
-      </c>
-      <c r="AC13">
-        <v>1.743429157741234E-3</v>
-      </c>
-      <c r="AD13">
-        <v>1.5034918852058977E-2</v>
-      </c>
-      <c r="AE13">
-        <v>6.2745281281629279E-3</v>
-      </c>
-      <c r="AF13">
-        <v>5.7661272569398765E-4</v>
-      </c>
-      <c r="AG13">
-        <v>6.4343786563873209E-4</v>
-      </c>
-      <c r="AH13">
-        <v>3.7223190003584723E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.2967739137361604E-4</v>
       </c>
@@ -12204,38 +11814,8 @@
       <c r="J14">
         <v>2.478628232633041E-3</v>
       </c>
-      <c r="Y14">
-        <v>2.5764739005634032E-4</v>
-      </c>
-      <c r="Z14">
-        <v>3.8367223203300766E-3</v>
-      </c>
-      <c r="AA14">
-        <v>9.6261105550458437E-4</v>
-      </c>
-      <c r="AB14">
-        <v>2.0409271099031336E-3</v>
-      </c>
-      <c r="AC14">
-        <v>1.8774991486382477E-3</v>
-      </c>
-      <c r="AD14">
-        <v>1.6985123600975691E-2</v>
-      </c>
-      <c r="AE14">
-        <v>7.0353218332774312E-3</v>
-      </c>
-      <c r="AF14">
-        <v>6.4608322811440853E-4</v>
-      </c>
-      <c r="AG14">
-        <v>7.2204824714730326E-4</v>
-      </c>
-      <c r="AH14">
-        <v>4.1411372631189871E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.4161929693994807E-4</v>
       </c>
@@ -12266,38 +11846,8 @@
       <c r="J15">
         <v>2.7932626991462122E-3</v>
       </c>
-      <c r="Y15">
-        <v>2.7115193000407762E-4</v>
-      </c>
-      <c r="Z15">
-        <v>4.3091041779583089E-3</v>
-      </c>
-      <c r="AA15">
-        <v>1.0454445790469514E-3</v>
-      </c>
-      <c r="AB15">
-        <v>2.2524307996343333E-3</v>
-      </c>
-      <c r="AC15">
-        <v>2.0299524674243863E-3</v>
-      </c>
-      <c r="AD15">
-        <v>1.9443504720246758E-2</v>
-      </c>
-      <c r="AE15">
-        <v>7.9639419744777524E-3</v>
-      </c>
-      <c r="AF15">
-        <v>7.3018339796534267E-4</v>
-      </c>
-      <c r="AG15">
-        <v>8.1889192959570497E-4</v>
-      </c>
-      <c r="AH15">
-        <v>4.6477301287549044E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.4933138954509224E-4</v>
       </c>
@@ -12328,38 +11878,8 @@
       <c r="J16">
         <v>3.0916498287543617E-3</v>
       </c>
-      <c r="Y16">
-        <v>2.7992579159482104E-4</v>
-      </c>
-      <c r="Z16">
-        <v>4.7248987568661522E-3</v>
-      </c>
-      <c r="AA16">
-        <v>1.1172254934149206E-3</v>
-      </c>
-      <c r="AB16">
-        <v>2.4325373436328117E-3</v>
-      </c>
-      <c r="AC16">
-        <v>2.1584673128431709E-3</v>
-      </c>
-      <c r="AD16">
-        <v>2.1884755638191637E-2</v>
-      </c>
-      <c r="AE16">
-        <v>8.841489558745131E-3</v>
-      </c>
-      <c r="AF16">
-        <v>8.0856397660817973E-4</v>
-      </c>
-      <c r="AG16">
-        <v>9.1175981833531005E-4</v>
-      </c>
-      <c r="AH16">
-        <v>5.1199329869790252E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.5373052079152278E-4</v>
       </c>
@@ -12390,38 +11910,8 @@
       <c r="J17">
         <v>3.4282101959063737E-3</v>
       </c>
-      <c r="Y17">
-        <v>2.8502147047821741E-4</v>
-      </c>
-      <c r="Z17">
-        <v>5.1374630649511869E-3</v>
-      </c>
-      <c r="AA17">
-        <v>1.1910359368382869E-3</v>
-      </c>
-      <c r="AB17">
-        <v>2.6048482428242532E-3</v>
-      </c>
-      <c r="AC17">
-        <v>2.2855517227200446E-3</v>
-      </c>
-      <c r="AD17">
-        <v>2.4799657861883855E-2</v>
-      </c>
-      <c r="AE17">
-        <v>9.8214736915219845E-3</v>
-      </c>
-      <c r="AF17">
-        <v>8.9418037052652164E-4</v>
-      </c>
-      <c r="AG17">
-        <v>1.0176934175804076E-3</v>
-      </c>
-      <c r="AH17">
-        <v>5.640043528247889E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.5438138924071076E-4</v>
       </c>
@@ -12452,38 +11942,8 @@
       <c r="J18">
         <v>3.7841317559046744E-3</v>
       </c>
-      <c r="Y18">
-        <v>2.8594222425517527E-4</v>
-      </c>
-      <c r="Z18">
-        <v>5.5044292239316743E-3</v>
-      </c>
-      <c r="AA18">
-        <v>1.2632676038610664E-3</v>
-      </c>
-      <c r="AB18">
-        <v>2.752402324786133E-3</v>
-      </c>
-      <c r="AC18">
-        <v>2.4044928836068642E-3</v>
-      </c>
-      <c r="AD18">
-        <v>2.8062182508870239E-2</v>
-      </c>
-      <c r="AE18">
-        <v>1.0843343154790077E-2</v>
-      </c>
-      <c r="AF18">
-        <v>9.8103535985437189E-4</v>
-      </c>
-      <c r="AG18">
-        <v>1.1307948432053535E-3</v>
-      </c>
-      <c r="AH18">
-        <v>6.1758659762493054E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.5104237747170297E-4</v>
       </c>
@@ -12514,38 +11974,8 @@
       <c r="J19">
         <v>4.1066582837430915E-3</v>
       </c>
-      <c r="Y19">
-        <v>2.8238965670125178E-4</v>
-      </c>
-      <c r="Z19">
-        <v>5.7507561786454154E-3</v>
-      </c>
-      <c r="AA19">
-        <v>1.323886911807858E-3</v>
-      </c>
-      <c r="AB19">
-        <v>2.845678490930194E-3</v>
-      </c>
-      <c r="AC19">
-        <v>2.4983927992644804E-3</v>
-      </c>
-      <c r="AD19">
-        <v>3.1228888315010798E-2</v>
-      </c>
-      <c r="AE19">
-        <v>1.1749734202079306E-2</v>
-      </c>
-      <c r="AF19">
-        <v>1.0549275136056717E-3</v>
-      </c>
-      <c r="AG19">
-        <v>1.2343114556130782E-3</v>
-      </c>
-      <c r="AH19">
-        <v>6.6446228980432684E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.4418256209577071E-4</v>
       </c>
@@ -12576,38 +12006,8 @@
       <c r="J20">
         <v>4.4081722301236321E-3</v>
       </c>
-      <c r="Y20">
-        <v>2.7489554621901532E-4</v>
-      </c>
-      <c r="Z20">
-        <v>5.8869047173578416E-3</v>
-      </c>
-      <c r="AA20">
-        <v>1.3765219699001915E-3</v>
-      </c>
-      <c r="AB20">
-        <v>2.8902203274451758E-3</v>
-      </c>
-      <c r="AC20">
-        <v>2.5738717481654382E-3</v>
-      </c>
-      <c r="AD20">
-        <v>3.4414600923885527E-2</v>
-      </c>
-      <c r="AE20">
-        <v>1.2575553689194561E-2</v>
-      </c>
-      <c r="AF20">
-        <v>1.1185915458561775E-3</v>
-      </c>
-      <c r="AG20">
-        <v>1.3320505046290573E-3</v>
-      </c>
-      <c r="AH20">
-        <v>7.0648454675979423E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.3433267757018243E-4</v>
       </c>
@@ -12638,38 +12038,8 @@
       <c r="J21">
         <v>4.6876767787574674E-3</v>
       </c>
-      <c r="Y21">
-        <v>2.6405375125648507E-4</v>
-      </c>
-      <c r="Z21">
-        <v>5.9108838950061721E-3</v>
-      </c>
-      <c r="AA21">
-        <v>1.4222073509489602E-3</v>
-      </c>
-      <c r="AB21">
-        <v>2.8867552704070001E-3</v>
-      </c>
-      <c r="AC21">
-        <v>2.6334413513267531E-3</v>
-      </c>
-      <c r="AD21">
-        <v>3.760916590909652E-2</v>
-      </c>
-      <c r="AE21">
-        <v>1.3317885802903932E-2</v>
-      </c>
-      <c r="AF21">
-        <v>1.1715499429365275E-3</v>
-      </c>
-      <c r="AG21">
-        <v>1.4235476786932343E-3</v>
-      </c>
-      <c r="AH21">
-        <v>7.4351501653066327E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.2202758055969349E-4</v>
       </c>
@@ -12700,38 +12070,8 @@
       <c r="J22">
         <v>4.9447124452609917E-3</v>
       </c>
-      <c r="Y22">
-        <v>2.5046375810271573E-4</v>
-      </c>
-      <c r="Z22">
-        <v>5.8246154681255964E-3</v>
-      </c>
-      <c r="AA22">
-        <v>1.461914074171896E-3</v>
-      </c>
-      <c r="AB22">
-        <v>2.83747965962703E-3</v>
-      </c>
-      <c r="AC22">
-        <v>2.6795973075827927E-3</v>
-      </c>
-      <c r="AD22">
-        <v>4.0802922045920828E-2</v>
-      </c>
-      <c r="AE22">
-        <v>1.3976818897139771E-2</v>
-      </c>
-      <c r="AF22">
-        <v>1.2136521618307083E-3</v>
-      </c>
-      <c r="AG22">
-        <v>1.5085183745221604E-3</v>
-      </c>
-      <c r="AH22">
-        <v>7.7554103425487696E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.077998820365453E-4</v>
       </c>
@@ -12762,38 +12102,8 @@
       <c r="J23">
         <v>5.1793483106123547E-3</v>
       </c>
-      <c r="Y23">
-        <v>2.3472355792264116E-4</v>
-      </c>
-      <c r="Z23">
-        <v>5.6339084431080945E-3</v>
-      </c>
-      <c r="AA23">
-        <v>1.496534154723014E-3</v>
-      </c>
-      <c r="AB23">
-        <v>2.7460326052200748E-3</v>
-      </c>
-      <c r="AC23">
-        <v>2.7147850099697407E-3</v>
-      </c>
-      <c r="AD23">
-        <v>4.3986716785703657E-2</v>
-      </c>
-      <c r="AE23">
-        <v>1.4555420909236337E-2</v>
-      </c>
-      <c r="AF23">
-        <v>1.2450730201418508E-3</v>
-      </c>
-      <c r="AG23">
-        <v>1.5868567137668536E-3</v>
-      </c>
-      <c r="AH23">
-        <v>8.0267358497106318E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.9217441584772871E-4</v>
       </c>
@@ -12824,38 +12134,8 @@
       <c r="J24">
         <v>5.3921688704408844E-3</v>
       </c>
-      <c r="Y24">
-        <v>2.1742344887131488E-4</v>
-      </c>
-      <c r="Z24">
-        <v>5.3483964898697663E-3</v>
-      </c>
-      <c r="AA24">
-        <v>1.5268679438414253E-3</v>
-      </c>
-      <c r="AB24">
-        <v>2.6174582017316275E-3</v>
-      </c>
-      <c r="AC24">
-        <v>2.7413700703736686E-3</v>
-      </c>
-      <c r="AD24">
-        <v>4.7151914332748034E-2</v>
-      </c>
-      <c r="AE24">
-        <v>1.5059686928807665E-2</v>
-      </c>
-      <c r="AF24">
-        <v>1.2663079093019824E-3</v>
-      </c>
-      <c r="AG24">
-        <v>1.6586328245582367E-3</v>
-      </c>
-      <c r="AH24">
-        <v>8.2514424030324419E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.7566350004538512E-4</v>
       </c>
@@ -12886,38 +12166,8 @@
       <c r="J25">
         <v>5.5842573720421935E-3</v>
       </c>
-      <c r="Y25">
-        <v>1.9914071612984379E-4</v>
-      </c>
-      <c r="Z25">
-        <v>4.981444643490319E-3</v>
-      </c>
-      <c r="AA25">
-        <v>1.5536140371889488E-3</v>
-      </c>
-      <c r="AB25">
-        <v>2.45815836973593E-3</v>
-      </c>
-      <c r="AC25">
-        <v>2.7616134640978782E-3</v>
-      </c>
-      <c r="AD25">
-        <v>5.0290397609321989E-2</v>
-      </c>
-      <c r="AE25">
-        <v>1.549846388544188E-2</v>
-      </c>
-      <c r="AF25">
-        <v>1.2781653778208739E-3</v>
-      </c>
-      <c r="AG25">
-        <v>1.7240886944184118E-3</v>
-      </c>
-      <c r="AH25">
-        <v>8.4330127002056141E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.5876293728686917E-4</v>
       </c>
@@ -12948,38 +12198,8 @@
       <c r="J26">
         <v>5.7571763727475422E-3</v>
       </c>
-      <c r="Y26">
-        <v>1.8043513138060936E-4</v>
-      </c>
-      <c r="Z26">
-        <v>4.5500311358666699E-3</v>
-      </c>
-      <c r="AA26">
-        <v>1.5773615018921665E-3</v>
-      </c>
-      <c r="AB26">
-        <v>2.2758383613052818E-3</v>
-      </c>
-      <c r="AC26">
-        <v>2.7776509378224165E-3</v>
-      </c>
-      <c r="AD26">
-        <v>5.3394564829663836E-2</v>
-      </c>
-      <c r="AE26">
-        <v>1.5883356749211586E-2</v>
-      </c>
-      <c r="AF26">
-        <v>1.2817575740708745E-3</v>
-      </c>
-      <c r="AG26">
-        <v>1.7836328586698384E-3</v>
-      </c>
-      <c r="AH26">
-        <v>8.5760510200616948E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.4194869707410536E-4</v>
       </c>
@@ -13010,38 +12230,8 @@
       <c r="J27">
         <v>5.9129461917253037E-3</v>
       </c>
-      <c r="Y27">
-        <v>1.6184520915218844E-4</v>
-      </c>
-      <c r="Z27">
-        <v>4.0746096761386432E-3</v>
-      </c>
-      <c r="AA27">
-        <v>1.5985841771285285E-3</v>
-      </c>
-      <c r="AB27">
-        <v>2.0794467617248603E-3</v>
-      </c>
-      <c r="AC27">
-        <v>2.7914763152289022E-3</v>
-      </c>
-      <c r="AD27">
-        <v>5.6457321476395032E-2</v>
-      </c>
-      <c r="AE27">
-        <v>1.6228620263541056E-2</v>
-      </c>
-      <c r="AF27">
-        <v>1.2784889970427738E-3</v>
-      </c>
-      <c r="AG27">
-        <v>1.8378341685477064E-3</v>
-      </c>
-      <c r="AH27">
-        <v>8.6862328855754206E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.2567422133666258E-4</v>
       </c>
@@ -13072,38 +12262,8 @@
       <c r="J28">
         <v>6.0540218751840031E-3</v>
       </c>
-      <c r="Y28">
-        <v>1.4388515591652151E-4</v>
-      </c>
-      <c r="Z28">
-        <v>3.5789569648481652E-3</v>
-      </c>
-      <c r="AA28">
-        <v>1.6176368155736995E-3</v>
-      </c>
-      <c r="AB28">
-        <v>1.8791116181270768E-3</v>
-      </c>
-      <c r="AC28">
-        <v>2.8049283413446469E-3</v>
-      </c>
-      <c r="AD28">
-        <v>5.9472068633182565E-2</v>
-      </c>
-      <c r="AE28">
-        <v>1.6551039871357219E-2</v>
-      </c>
-      <c r="AF28">
-        <v>1.2700439630199977E-3</v>
-      </c>
-      <c r="AG28">
-        <v>1.8874148655815552E-3</v>
-      </c>
-      <c r="AH28">
-        <v>8.77025122653558E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.1036829296735841E-4</v>
       </c>
@@ -13134,38 +12294,8 @@
       <c r="J29">
         <v>6.1832691843441761E-3</v>
       </c>
-      <c r="Y29">
-        <v>1.2704244553981612E-4</v>
-      </c>
-      <c r="Z29">
-        <v>3.0900096295831997E-3</v>
-      </c>
-      <c r="AA29">
-        <v>1.6347528325248921E-3</v>
-      </c>
-      <c r="AB29">
-        <v>1.6860740975264959E-3</v>
-      </c>
-      <c r="AC29">
-        <v>2.8196806915443181E-3</v>
-      </c>
-      <c r="AD29">
-        <v>6.2432688270648413E-2</v>
-      </c>
-      <c r="AE29">
-        <v>1.6869804970421103E-2</v>
-      </c>
-      <c r="AF29">
-        <v>1.2583731411805849E-3</v>
-      </c>
-      <c r="AG29">
-        <v>1.9332431527516257E-3</v>
-      </c>
-      <c r="AH29">
-        <v>8.8357602461004818E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9.6433408499835009E-5</v>
       </c>
@@ -13196,38 +12326,8 @@
       <c r="J30">
         <v>6.3039400609548957E-3</v>
       </c>
-      <c r="Y30">
-        <v>1.1177595632214621E-4</v>
-      </c>
-      <c r="Z30">
-        <v>2.6376942455709341E-3</v>
-      </c>
-      <c r="AA30">
-        <v>1.6500434473608033E-3</v>
-      </c>
-      <c r="AB30">
-        <v>1.5126208858735534E-3</v>
-      </c>
-      <c r="AC30">
-        <v>2.8372347909355524E-3</v>
-      </c>
-      <c r="AD30">
-        <v>6.5333526172266898E-2</v>
-      </c>
-      <c r="AE30">
-        <v>1.7206377270100007E-2</v>
-      </c>
-      <c r="AF30">
-        <v>1.2456794700639083E-3</v>
-      </c>
-      <c r="AG30">
-        <v>1.9763254337052875E-3</v>
-      </c>
-      <c r="AH30">
-        <v>8.8913180526355735E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8.4244597817733334E-5</v>
       </c>
@@ -13258,38 +12358,8 @@
       <c r="J31">
         <v>6.4196479502645282E-3</v>
       </c>
-      <c r="Y31">
-        <v>9.8514606622772115E-5</v>
-      </c>
-      <c r="Z31">
-        <v>2.254753581337459E-3</v>
-      </c>
-      <c r="AA31">
-        <v>1.6634980148923352E-3</v>
-      </c>
-      <c r="AB31">
-        <v>1.3720163490260882E-3</v>
-      </c>
-      <c r="AC31">
-        <v>2.858915102340545E-3</v>
-      </c>
-      <c r="AD31">
-        <v>6.8169373063581701E-2</v>
-      </c>
-      <c r="AE31">
-        <v>1.7584356610132676E-2</v>
-      </c>
-      <c r="AF31">
-        <v>1.2344037220189785E-3</v>
-      </c>
-      <c r="AG31">
-        <v>2.0177983656829738E-3</v>
-      </c>
-      <c r="AH31">
-        <v>8.94632894777324E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.414863654079476E-5</v>
       </c>
@@ -13320,38 +12390,8 @@
       <c r="J32">
         <v>6.5343432985031698E-3</v>
       </c>
-      <c r="Y32">
-        <v>8.7656429022088962E-5</v>
-      </c>
-      <c r="Z32">
-        <v>1.9765717278896634E-3</v>
-      </c>
-      <c r="AA32">
-        <v>1.6749853602970766E-3</v>
-      </c>
-      <c r="AB32">
-        <v>1.2784353042485912E-3</v>
-      </c>
-      <c r="AC32">
-        <v>2.8858665610131981E-3</v>
-      </c>
-      <c r="AD32">
-        <v>7.0935444443443949E-2</v>
-      </c>
-      <c r="AE32">
-        <v>1.8029346236015025E-2</v>
-      </c>
-      <c r="AF32">
-        <v>1.2272099423472804E-3</v>
-      </c>
-      <c r="AG32">
-        <v>2.0589208497672653E-3</v>
-      </c>
-      <c r="AH32">
-        <v>9.0109861140021483E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.6463600059899912E-5</v>
       </c>
@@ -13382,38 +12422,8 @@
       <c r="J33">
         <v>6.6522894878540961E-3</v>
       </c>
-      <c r="Y33">
-        <v>7.9568026575975125E-5</v>
-      </c>
-      <c r="Z33">
-        <v>1.8410003278658145E-3</v>
-      </c>
-      <c r="AA33">
-        <v>1.6842559488479578E-3</v>
-      </c>
-      <c r="AB33">
-        <v>1.2468970950309795E-3</v>
-      </c>
-      <c r="AC33">
-        <v>2.9190538580604096E-3</v>
-      </c>
-      <c r="AD33">
-        <v>7.3627359589112568E-2</v>
-      </c>
-      <c r="AE33">
-        <v>1.8568819198573849E-2</v>
-      </c>
-      <c r="AF33">
-        <v>1.2269709531989549E-3</v>
-      </c>
-      <c r="AG33">
-        <v>2.1010660627592682E-3</v>
-      </c>
-      <c r="AH33">
-        <v>9.0962153149906529E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6.0728728536036002E-5</v>
       </c>
@@ -13444,38 +12454,8 @@
       <c r="J34">
         <v>6.773176984314391E-3</v>
       </c>
-      <c r="Y34">
-        <v>7.3721361535805831E-5</v>
-      </c>
-      <c r="Z34">
-        <v>1.8334767432776691E-3</v>
-      </c>
-      <c r="AA34">
-        <v>1.6913338803134397E-3</v>
-      </c>
-      <c r="AB34">
-        <v>1.2705816833133187E-3</v>
-      </c>
-      <c r="AC34">
-        <v>2.9567936348543298E-3</v>
-      </c>
-      <c r="AD34">
-        <v>7.6227332145801505E-2</v>
-      </c>
-      <c r="AE34">
-        <v>1.9193203100079964E-2</v>
-      </c>
-      <c r="AF34">
-        <v>1.2333333294603697E-3</v>
-      </c>
-      <c r="AG34">
-        <v>2.1442162590656175E-3</v>
-      </c>
-      <c r="AH34">
-        <v>9.2012620883221864E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.5645045723458602E-5</v>
       </c>
@@ -13506,38 +12486,8 @@
       <c r="J35">
         <v>6.8906390707065748E-3</v>
       </c>
-      <c r="Y35">
-        <v>6.8622009194689492E-5</v>
-      </c>
-      <c r="Z35">
-        <v>1.8723191388860753E-3</v>
-      </c>
-      <c r="AA35">
-        <v>1.6968496095764649E-3</v>
-      </c>
-      <c r="AB35">
-        <v>1.3151485294596488E-3</v>
-      </c>
-      <c r="AC35">
-        <v>2.9947666968272199E-3</v>
-      </c>
-      <c r="AD35">
-        <v>7.8703644786974419E-2</v>
-      </c>
-      <c r="AE35">
-        <v>1.9845280339603935E-2</v>
-      </c>
-      <c r="AF35">
-        <v>1.2416697066287318E-3</v>
-      </c>
-      <c r="AG35">
-        <v>2.186464667720444E-3</v>
-      </c>
-      <c r="AH35">
-        <v>9.309967212836015E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.0555851324763553E-5</v>
       </c>
@@ -13568,38 +12518,8 @@
       <c r="J36">
         <v>7.0011385318042192E-3</v>
       </c>
-      <c r="Y36">
-        <v>6.3510535561063183E-5</v>
-      </c>
-      <c r="Z36">
-        <v>1.9100208182864179E-3</v>
-      </c>
-      <c r="AA36">
-        <v>1.7014666350814967E-3</v>
-      </c>
-      <c r="AB36">
-        <v>1.360873719438155E-3</v>
-      </c>
-      <c r="AC36">
-        <v>3.0310251215475773E-3</v>
-      </c>
-      <c r="AD36">
-        <v>8.1038216934428767E-2</v>
-      </c>
-      <c r="AE36">
-        <v>2.049187949342627E-2</v>
-      </c>
-      <c r="AF36">
-        <v>1.2493288863247652E-3</v>
-      </c>
-      <c r="AG36">
-        <v>2.2267255638639418E-3</v>
-      </c>
-      <c r="AH36">
-        <v>9.4133844900288789E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4.5519678477225366E-5</v>
       </c>
@@ -13630,38 +12550,8 @@
       <c r="J37">
         <v>7.1053010579833122E-3</v>
       </c>
-      <c r="Y37">
-        <v>5.8449161701402101E-5</v>
-      </c>
-      <c r="Z37">
-        <v>1.9467638508900505E-3</v>
-      </c>
-      <c r="AA37">
-        <v>1.7056027663553564E-3</v>
-      </c>
-      <c r="AB37">
-        <v>1.4079229502013534E-3</v>
-      </c>
-      <c r="AC37">
-        <v>3.0660658285721325E-3</v>
-      </c>
-      <c r="AD37">
-        <v>8.3227431050544989E-2</v>
-      </c>
-      <c r="AE37">
-        <v>2.1133582837134231E-2</v>
-      </c>
-      <c r="AF37">
-        <v>1.2565799807510508E-3</v>
-      </c>
-      <c r="AG37">
-        <v>2.2651772907038852E-3</v>
-      </c>
-      <c r="AH37">
-        <v>9.5131382831245073E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4.0593322270125614E-5</v>
       </c>
@@ -13692,38 +12582,8 @@
       <c r="J38">
         <v>7.2037501652759224E-3</v>
       </c>
-      <c r="Y38">
-        <v>5.3498281487413865E-5</v>
-      </c>
-      <c r="Z38">
-        <v>1.9827285527938372E-3</v>
-      </c>
-      <c r="AA38">
-        <v>1.7096662006870786E-3</v>
-      </c>
-      <c r="AB38">
-        <v>1.4564574563609147E-3</v>
-      </c>
-      <c r="AC38">
-        <v>3.1003764047094354E-3</v>
-      </c>
-      <c r="AD38">
-        <v>8.5268641402972745E-2</v>
-      </c>
-      <c r="AE38">
-        <v>2.1770989150499052E-2</v>
-      </c>
-      <c r="AF38">
-        <v>1.2636862305649033E-3</v>
-      </c>
-      <c r="AG38">
-        <v>2.3019978988594847E-3</v>
-      </c>
-      <c r="AH38">
-        <v>9.6108214169887615E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.5831758846807762E-5</v>
       </c>
@@ -13754,38 +12614,8 @@
       <c r="J39">
         <v>7.2971044172721201E-3</v>
       </c>
-      <c r="Y39">
-        <v>4.8716373224097446E-5</v>
-      </c>
-      <c r="Z39">
-        <v>2.0180928086847576E-3</v>
-      </c>
-      <c r="AA39">
-        <v>1.7140546195016689E-3</v>
-      </c>
-      <c r="AB39">
-        <v>1.5066337264707486E-3</v>
-      </c>
-      <c r="AC39">
-        <v>3.134433784190841E-3</v>
-      </c>
-      <c r="AD39">
-        <v>8.7160127180804875E-2</v>
-      </c>
-      <c r="AE39">
-        <v>2.2404708962688261E-2</v>
-      </c>
-      <c r="AF39">
-        <v>1.2709043855247211E-3</v>
-      </c>
-      <c r="AG39">
-        <v>2.337364316218382E-3</v>
-      </c>
-      <c r="AH39">
-        <v>9.7079909841324991E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.1288088075732027E-5</v>
       </c>
@@ -13816,38 +12646,8 @@
       <c r="J40">
         <v>7.3859750470750577E-3</v>
       </c>
-      <c r="Y40">
-        <v>4.415993651506007E-5</v>
-      </c>
-      <c r="Z40">
-        <v>2.0530314999385344E-3</v>
-      </c>
-      <c r="AA40">
-        <v>1.7191544781190379E-3</v>
-      </c>
-      <c r="AB40">
-        <v>1.5586032898337449E-3</v>
-      </c>
-      <c r="AC40">
-        <v>3.168703177741857E-3</v>
-      </c>
-      <c r="AD40">
-        <v>8.8901045226863429E-2</v>
-      </c>
-      <c r="AE40">
-        <v>2.3035360334935796E-2</v>
-      </c>
-      <c r="AF40">
-        <v>1.2784842125742135E-3</v>
-      </c>
-      <c r="AG40">
-        <v>2.3714516347440105E-3</v>
-      </c>
-      <c r="AH40">
-        <v>9.8061649550571141E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.7013496792606266E-5</v>
       </c>
@@ -13878,38 +12678,8 @@
       <c r="J41">
         <v>7.470963947838174E-3</v>
       </c>
-      <c r="Y41">
-        <v>3.9883451180764642E-5</v>
-      </c>
-      <c r="Z41">
-        <v>2.0877160300327995E-3</v>
-      </c>
-      <c r="AA41">
-        <v>1.7253404678396474E-3</v>
-      </c>
-      <c r="AB41">
-        <v>1.6125125664102602E-3</v>
-      </c>
-      <c r="AC41">
-        <v>3.2036372257642095E-3</v>
-      </c>
-      <c r="AD41">
-        <v>9.0491382978774307E-2</v>
-      </c>
-      <c r="AE41">
-        <v>2.3663565158782721E-2</v>
-      </c>
-      <c r="AF41">
-        <v>1.2866681178396713E-3</v>
-      </c>
-      <c r="AG41">
-        <v>2.4044325053779276E-3</v>
-      </c>
-      <c r="AH41">
-        <v>9.9068195117829466E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.3057239793777665E-5</v>
       </c>
@@ -13940,38 +12710,8 @@
       <c r="J42">
         <v>7.5526619901272532E-3</v>
       </c>
-      <c r="Y42">
-        <v>3.5939355216488144E-5</v>
-      </c>
-      <c r="Z42">
-        <v>2.1223139356796607E-3</v>
-      </c>
-      <c r="AA42">
-        <v>1.732975128069232E-3</v>
-      </c>
-      <c r="AB42">
-        <v>1.6685027707371441E-3</v>
-      </c>
-      <c r="AC42">
-        <v>3.2396753474977931E-3</v>
-      </c>
-      <c r="AD42">
-        <v>9.1931911978547221E-2</v>
-      </c>
-      <c r="AE42">
-        <v>2.4289945912859389E-2</v>
-      </c>
-      <c r="AF42">
-        <v>1.295690867937566E-3</v>
-      </c>
-      <c r="AG42">
-        <v>2.4364766288257822E-3</v>
-      </c>
-      <c r="AH42">
-        <v>1.0011387013401507E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.9466636070002495E-5</v>
       </c>
@@ -14002,38 +12742,8 @@
       <c r="J43">
         <v>7.6316476336209726E-3</v>
       </c>
-      <c r="Y43">
-        <v>3.2378039114351359E-5</v>
-      </c>
-      <c r="Z43">
-        <v>2.1569885746912073E-3</v>
-      </c>
-      <c r="AA43">
-        <v>1.7424085896601844E-3</v>
-      </c>
-      <c r="AB43">
-        <v>1.7267098628594823E-3</v>
-      </c>
-      <c r="AC43">
-        <v>3.2772432631001948E-3</v>
-      </c>
-      <c r="AD43">
-        <v>9.322414231258018E-2</v>
-      </c>
-      <c r="AE43">
-        <v>2.4915122843322798E-2</v>
-      </c>
-      <c r="AF43">
-        <v>1.3057793983660324E-3</v>
-      </c>
-      <c r="AG43">
-        <v>2.4677503328809883E-3</v>
-      </c>
-      <c r="AH43">
-        <v>1.0121254518595862E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.6287078003939972E-5</v>
       </c>
@@ -14064,38 +12774,8 @@
       <c r="J44">
         <v>7.7084858007835698E-3</v>
       </c>
-      <c r="Y44">
-        <v>2.9247854119238823E-5</v>
-      </c>
-      <c r="Z44">
-        <v>2.1918988816869906E-3</v>
-      </c>
-      <c r="AA44">
-        <v>1.7539784318349053E-3</v>
-      </c>
-      <c r="AB44">
-        <v>1.7872645395359816E-3</v>
-      </c>
-      <c r="AC44">
-        <v>3.3167526666300993E-3</v>
-      </c>
-      <c r="AD44">
-        <v>9.4370278248538816E-2</v>
-      </c>
-      <c r="AE44">
-        <v>2.5539711528306128E-2</v>
-      </c>
-      <c r="AF44">
-        <v>1.317152697463269E-3</v>
-      </c>
-      <c r="AG44">
-        <v>2.4984162268935476E-3</v>
-      </c>
-      <c r="AH44">
-        <v>1.0237762793680041E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.3562051493139759E-5</v>
       </c>
@@ -14126,38 +12806,8 @@
       <c r="J45">
         <v>7.7837269828078537E-3</v>
       </c>
-      <c r="Y45">
-        <v>2.6595132242081491E-5</v>
-      </c>
-      <c r="Z45">
-        <v>2.2271991835313308E-3</v>
-      </c>
-      <c r="AA45">
-        <v>1.768009636786983E-3</v>
-      </c>
-      <c r="AB45">
-        <v>1.8502922596950178E-3</v>
-      </c>
-      <c r="AC45">
-        <v>3.3586010300005226E-3</v>
-      </c>
-      <c r="AD45">
-        <v>9.5373175278426578E-2</v>
-      </c>
-      <c r="AE45">
-        <v>2.6164320789594721E-2</v>
-      </c>
-      <c r="AF45">
-        <v>1.3300217555338328E-3</v>
-      </c>
-      <c r="AG45">
-        <v>2.5286329247568924E-3</v>
-      </c>
-      <c r="AH45">
-        <v>1.0362205741495755E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.132930290608666E-5</v>
       </c>
@@ -14188,38 +12838,8 @@
       <c r="J46">
         <v>7.8549598604134782E-3</v>
       </c>
-      <c r="Y46">
-        <v>2.4455431917009396E-5</v>
-      </c>
-      <c r="Z46">
-        <v>2.2621876542924602E-3</v>
-      </c>
-      <c r="AA46">
-        <v>1.7841450459706164E-3</v>
-      </c>
-      <c r="AB46">
-        <v>1.9151857006782936E-3</v>
-      </c>
-      <c r="AC46">
-        <v>3.4018927151572278E-3</v>
-      </c>
-      <c r="AD46">
-        <v>9.6200230837992645E-2</v>
-      </c>
-      <c r="AE46">
-        <v>2.6779435094869034E-2</v>
-      </c>
-      <c r="AF46">
-        <v>1.3440848225275096E-3</v>
-      </c>
-      <c r="AG46">
-        <v>2.5575942980701014E-3</v>
-      </c>
-      <c r="AH46">
-        <v>1.0491886829895327E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9.6363249212189373E-6</v>
       </c>
@@ -14250,38 +12870,8 @@
       <c r="J47">
         <v>7.9285975602354196E-3</v>
       </c>
-      <c r="Y47">
-        <v>2.2888712630131482E-5</v>
-      </c>
-      <c r="Z47">
-        <v>2.2987118811991468E-3</v>
-      </c>
-      <c r="AA47">
-        <v>1.8040237964376442E-3</v>
-      </c>
-      <c r="AB47">
-        <v>1.9835152301677303E-3</v>
-      </c>
-      <c r="AC47">
-        <v>3.449554208645368E-3</v>
-      </c>
-      <c r="AD47">
-        <v>9.6927616202500788E-2</v>
-      </c>
-      <c r="AE47">
-        <v>2.7405876368776911E-2</v>
-      </c>
-      <c r="AF47">
-        <v>1.3605464501606722E-3</v>
-      </c>
-      <c r="AG47">
-        <v>2.5873714362462542E-3</v>
-      </c>
-      <c r="AH47">
-        <v>1.0635892650708682E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8.5210879456528915E-6</v>
       </c>
@@ -14312,38 +12902,8 @@
       <c r="J48">
         <v>8.0051438458859994E-3</v>
       </c>
-      <c r="Y48">
-        <v>2.1935458535322436E-5</v>
-      </c>
-      <c r="Z48">
-        <v>2.3369117515805162E-3</v>
-      </c>
-      <c r="AA48">
-        <v>1.8279335785937275E-3</v>
-      </c>
-      <c r="AB48">
-        <v>2.0553910124204624E-3</v>
-      </c>
-      <c r="AC48">
-        <v>3.5019401909386337E-3</v>
-      </c>
-      <c r="AD48">
-        <v>9.7559899006014389E-2</v>
-      </c>
-      <c r="AE48">
-        <v>2.8044223615619566E-2</v>
-      </c>
-      <c r="AF48">
-        <v>1.3795938467687657E-3</v>
-      </c>
-      <c r="AG48">
-        <v>2.6181098759123513E-3</v>
-      </c>
-      <c r="AH48">
-        <v>1.0795376460694199E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8.0120877550662978E-6</v>
       </c>
@@ -14374,38 +12934,8 @@
       <c r="J49">
         <v>8.0791929050864127E-3</v>
       </c>
-      <c r="Y49">
-        <v>2.1616728199650944E-5</v>
-      </c>
-      <c r="Z49">
-        <v>2.3752194402882373E-3</v>
-      </c>
-      <c r="AA49">
-        <v>1.8548108532922265E-3</v>
-      </c>
-      <c r="AB49">
-        <v>2.1294631230991548E-3</v>
-      </c>
-      <c r="AC49">
-        <v>3.5568337022406139E-3</v>
-      </c>
-      <c r="AD49">
-        <v>9.8030007103641861E-2</v>
-      </c>
-      <c r="AE49">
-        <v>2.8674811906457258E-2</v>
-      </c>
-      <c r="AF49">
-        <v>1.4003970030663016E-3</v>
-      </c>
-      <c r="AG49">
-        <v>2.6480295258444779E-3</v>
-      </c>
-      <c r="AH49">
-        <v>1.0963558768888305E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8.0391490359280863E-6</v>
       </c>
@@ -14436,38 +12966,8 @@
       <c r="J50">
         <v>8.2441849380410718E-3</v>
       </c>
-      <c r="Y50">
-        <v>2.1963363615773958E-5</v>
-      </c>
-      <c r="Z50">
-        <v>2.4323338886197022E-3</v>
-      </c>
-      <c r="AA50">
-        <v>1.8986235116881518E-3</v>
-      </c>
-      <c r="AB50">
-        <v>2.2013669665124124E-3</v>
-      </c>
-      <c r="AC50">
-        <v>3.6417199797432582E-3</v>
-      </c>
-      <c r="AD50">
-        <v>9.9780926835265946E-2</v>
-      </c>
-      <c r="AE50">
-        <v>2.9447234383933901E-2</v>
-      </c>
-      <c r="AF50">
-        <v>1.4336083937716529E-3</v>
-      </c>
-      <c r="AG50">
-        <v>2.7049725883113041E-3</v>
-      </c>
-      <c r="AH50">
-        <v>1.1224946692367271E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8.2891073068493343E-6</v>
       </c>
@@ -14498,38 +12998,8 @@
       <c r="J51">
         <v>8.5005183140063889E-3</v>
       </c>
-      <c r="Y51">
-        <v>2.2646262311702879E-5</v>
-      </c>
-      <c r="Z51">
-        <v>2.5079615415448289E-3</v>
-      </c>
-      <c r="AA51">
-        <v>1.9576567063697104E-3</v>
-      </c>
-      <c r="AB51">
-        <v>2.2698132508334836E-3</v>
-      </c>
-      <c r="AC51">
-        <v>3.7549506245848738E-3</v>
-      </c>
-      <c r="AD51">
-        <v>0.10288337808118733</v>
-      </c>
-      <c r="AE51">
-        <v>3.0362826290132604E-2</v>
-      </c>
-      <c r="AF51">
-        <v>1.478183046347923E-3</v>
-      </c>
-      <c r="AG51">
-        <v>2.7890772949216622E-3</v>
-      </c>
-      <c r="AH51">
-        <v>1.1573959784905786E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8.5404796128553304E-6</v>
       </c>
@@ -14560,38 +13030,8 @@
       <c r="J52">
         <v>8.7583017895650102E-3</v>
       </c>
-      <c r="Y52">
-        <v>2.333302422332701E-5</v>
-      </c>
-      <c r="Z52">
-        <v>2.5840170265005544E-3</v>
-      </c>
-      <c r="AA52">
-        <v>2.0170238568277127E-3</v>
-      </c>
-      <c r="AB52">
-        <v>2.3386467415754258E-3</v>
-      </c>
-      <c r="AC52">
-        <v>3.8688218247635237E-3</v>
-      </c>
-      <c r="AD52">
-        <v>0.10600338015627023</v>
-      </c>
-      <c r="AE52">
-        <v>3.1283597777202556E-2</v>
-      </c>
-      <c r="AF52">
-        <v>1.5230098615047747E-3</v>
-      </c>
-      <c r="AG52">
-        <v>2.8736577889724637E-3</v>
-      </c>
-      <c r="AH52">
-        <v>1.1924947274034849E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8.7931967723167298E-6</v>
       </c>
@@ -14622,38 +13062,8 @@
       <c r="J53">
         <v>9.0174644186324596E-3</v>
       </c>
-      <c r="Y53">
-        <v>2.4023460342920037E-5</v>
-      </c>
-      <c r="Z53">
-        <v>2.6604794118160295E-3</v>
-      </c>
-      <c r="AA53">
-        <v>2.0767086242845785E-3</v>
-      </c>
-      <c r="AB53">
-        <v>2.4078484946742774E-3</v>
-      </c>
-      <c r="AC53">
-        <v>3.9833022411261852E-3</v>
-      </c>
-      <c r="AD53">
-        <v>0.10914007438665933</v>
-      </c>
-      <c r="AE53">
-        <v>3.2209295434285815E-2</v>
-      </c>
-      <c r="AF53">
-        <v>1.5680765021945826E-3</v>
-      </c>
-      <c r="AG53">
-        <v>2.9586907925756934E-3</v>
-      </c>
-      <c r="AH53">
-        <v>1.2277812562453175E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9.4325214111708556E-6</v>
       </c>
@@ -14684,38 +13094,8 @@
       <c r="J54">
         <v>9.6730948261052139E-3</v>
       </c>
-      <c r="Y54">
-        <v>2.5770127738800144E-5</v>
-      </c>
-      <c r="Z54">
-        <v>2.8539141868108337E-3</v>
-      </c>
-      <c r="AA54">
-        <v>2.2276993305776422E-3</v>
-      </c>
-      <c r="AB54">
-        <v>2.5829153001982372E-3</v>
-      </c>
-      <c r="AC54">
-        <v>4.272915146727509E-3</v>
-      </c>
-      <c r="AD54">
-        <v>0.11707529299355282</v>
-      </c>
-      <c r="AE54">
-        <v>3.4551128183451664E-2</v>
-      </c>
-      <c r="AF54">
-        <v>1.6820862269191969E-3</v>
-      </c>
-      <c r="AG54">
-        <v>3.1738075437894976E-3</v>
-      </c>
-      <c r="AH54">
-        <v>1.3170492242626074E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.046572891826153E-5</v>
       </c>
@@ -14746,38 +13126,8 @@
       <c r="J55">
         <v>1.0732653957271953E-2</v>
       </c>
-      <c r="Y55">
-        <v>2.8592903142933452E-5</v>
-      </c>
-      <c r="Z55">
-        <v>3.1665226012389659E-3</v>
-      </c>
-      <c r="AA55">
-        <v>2.4717142202939626E-3</v>
-      </c>
-      <c r="AB55">
-        <v>2.8658393840157079E-3</v>
-      </c>
-      <c r="AC55">
-        <v>4.7409562795609726E-3</v>
-      </c>
-      <c r="AD55">
-        <v>0.12989933720643143</v>
-      </c>
-      <c r="AE55">
-        <v>3.8335745621511964E-2</v>
-      </c>
-      <c r="AF55">
-        <v>1.8663364439575074E-3</v>
-      </c>
-      <c r="AG55">
-        <v>3.5214560289994852E-3</v>
-      </c>
-      <c r="AH55">
-        <v>1.4613144834015377E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.1512937719253769E-5</v>
       </c>
@@ -14808,38 +13158,8 @@
       <c r="J56">
         <v>1.1806571480823322E-2</v>
       </c>
-      <c r="Y56">
-        <v>3.1453930793377539E-5</v>
-      </c>
-      <c r="Z56">
-        <v>3.4833672627486109E-3</v>
-      </c>
-      <c r="AA56">
-        <v>2.7190358263899351E-3</v>
-      </c>
-      <c r="AB56">
-        <v>3.1525974539610116E-3</v>
-      </c>
-      <c r="AC56">
-        <v>5.2153399732196813E-3</v>
-      </c>
-      <c r="AD56">
-        <v>0.14289716375325451</v>
-      </c>
-      <c r="AE56">
-        <v>4.2171649505607173E-2</v>
-      </c>
-      <c r="AF56">
-        <v>2.0530834890022699E-3</v>
-      </c>
-      <c r="AG56">
-        <v>3.8738155994294827E-3</v>
-      </c>
-      <c r="AH56">
-        <v>1.6075347228122216E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.2570587840816036E-5</v>
       </c>
@@ -14870,38 +13190,8 @@
       <c r="J57">
         <v>1.2891196627456684E-2</v>
       </c>
-      <c r="Y57">
-        <v>3.4343484662117059E-5</v>
-      </c>
-      <c r="Z57">
-        <v>3.8033710618424611E-3</v>
-      </c>
-      <c r="AA57">
-        <v>2.9688233821329076E-3</v>
-      </c>
-      <c r="AB57">
-        <v>3.4422146795317298E-3</v>
-      </c>
-      <c r="AC57">
-        <v>5.6944535662203297E-3</v>
-      </c>
-      <c r="AD57">
-        <v>0.15602458668387459</v>
-      </c>
-      <c r="AE57">
-        <v>4.6045799728056017E-2</v>
-      </c>
-      <c r="AF57">
-        <v>2.241692517789883E-3</v>
-      </c>
-      <c r="AG57">
-        <v>4.2296884130897626E-3</v>
-      </c>
-      <c r="AH57">
-        <v>1.7552128686041987E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.3630080926366692E-5</v>
       </c>
@@ -14932,38 +13222,8 @@
       <c r="J58">
         <v>1.3977711742280276E-2</v>
       </c>
-      <c r="Y58">
-        <v>3.7238073602109377E-5</v>
-      </c>
-      <c r="Z58">
-        <v>4.1239324701738593E-3</v>
-      </c>
-      <c r="AA58">
-        <v>3.2190461947350221E-3</v>
-      </c>
-      <c r="AB58">
-        <v>3.732336565487071E-3</v>
-      </c>
-      <c r="AC58">
-        <v>6.1744020185759245E-3</v>
-      </c>
-      <c r="AD58">
-        <v>0.16917488425633345</v>
-      </c>
-      <c r="AE58">
-        <v>4.9926700688957999E-2</v>
-      </c>
-      <c r="AF58">
-        <v>2.430630199352979E-3</v>
-      </c>
-      <c r="AG58">
-        <v>4.5861813380388815E-3</v>
-      </c>
-      <c r="AH58">
-        <v>1.9031483447732239E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.4699148495232413E-5</v>
       </c>
@@ -14994,38 +13254,8 @@
       <c r="J59">
         <v>1.5074045534526419E-2</v>
       </c>
-      <c r="Y59">
-        <v>4.0158820516974674E-5</v>
-      </c>
-      <c r="Z59">
-        <v>4.4473907448438687E-3</v>
-      </c>
-      <c r="AA59">
-        <v>3.4715302341228327E-3</v>
-      </c>
-      <c r="AB59">
-        <v>4.0250802402905872E-3</v>
-      </c>
-      <c r="AC59">
-        <v>6.6586876945640659E-3</v>
-      </c>
-      <c r="AD59">
-        <v>0.18244401913543709</v>
-      </c>
-      <c r="AE59">
-        <v>5.3842672781521266E-2</v>
-      </c>
-      <c r="AF59">
-        <v>2.6212752829787994E-3</v>
-      </c>
-      <c r="AG59">
-        <v>4.9458958371619254E-3</v>
-      </c>
-      <c r="AH59">
-        <v>2.0524206921003561E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.5775093948337317E-5</v>
       </c>
@@ -15056,38 +13286,8 @@
       <c r="J60">
         <v>1.6177432629229934E-2</v>
       </c>
-      <c r="Y60">
-        <v>4.3098358161030002E-5</v>
-      </c>
-      <c r="Z60">
-        <v>4.7729299998318462E-3</v>
-      </c>
-      <c r="AA60">
-        <v>3.7256386385608278E-3</v>
-      </c>
-      <c r="AB60">
-        <v>4.3197072919410754E-3</v>
-      </c>
-      <c r="AC60">
-        <v>7.1460890396784103E-3</v>
-      </c>
-      <c r="AD60">
-        <v>0.19579852146586985</v>
-      </c>
-      <c r="AE60">
-        <v>5.778383841986303E-2</v>
-      </c>
-      <c r="AF60">
-        <v>2.8131468885328271E-3</v>
-      </c>
-      <c r="AG60">
-        <v>5.3079245723128667E-3</v>
-      </c>
-      <c r="AH60">
-        <v>2.2026533883847739E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.6844773487014655E-5</v>
       </c>
@@ -15118,38 +13318,8 @@
       <c r="J61">
         <v>1.7274393999380272E-2</v>
       </c>
-      <c r="Y61">
-        <v>4.6020777008513354E-5</v>
-      </c>
-      <c r="Z61">
-        <v>5.0965734327698478E-3</v>
-      </c>
-      <c r="AA61">
-        <v>3.9782672082052124E-3</v>
-      </c>
-      <c r="AB61">
-        <v>4.6126185429546853E-3</v>
-      </c>
-      <c r="AC61">
-        <v>7.6306519368848705E-3</v>
-      </c>
-      <c r="AD61">
-        <v>0.20907525203883687</v>
-      </c>
-      <c r="AE61">
-        <v>6.1702052145016777E-2</v>
-      </c>
-      <c r="AF61">
-        <v>3.0039011037414514E-3</v>
-      </c>
-      <c r="AG61">
-        <v>5.667844983971917E-3</v>
-      </c>
-      <c r="AH61">
-        <v>2.3520111841652449E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.7916624229691797E-5</v>
       </c>
@@ -15180,38 +13350,8 @@
       <c r="J62">
         <v>1.8373581949387825E-2</v>
       </c>
-      <c r="Y62">
-        <v>4.894912769563773E-5</v>
-      </c>
-      <c r="Z62">
-        <v>5.4208737876089352E-3</v>
-      </c>
-      <c r="AA62">
-        <v>4.2314085558742675E-3</v>
-      </c>
-      <c r="AB62">
-        <v>4.9061243365923126E-3</v>
-      </c>
-      <c r="AC62">
-        <v>8.1161983855780398E-3</v>
-      </c>
-      <c r="AD62">
-        <v>0.22237893132820158</v>
-      </c>
-      <c r="AE62">
-        <v>6.5628218944904129E-2</v>
-      </c>
-      <c r="AF62">
-        <v>3.1950425062338026E-3</v>
-      </c>
-      <c r="AG62">
-        <v>6.0284959514742328E-3</v>
-      </c>
-      <c r="AH62">
-        <v>2.5016721419974089E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.1053478318989258E-5</v>
       </c>
@@ -15242,38 +13382,8 @@
       <c r="J63">
         <v>2.1590440490042204E-2</v>
       </c>
-      <c r="Y63">
-        <v>5.7519172443528616E-5</v>
-      </c>
-      <c r="Z63">
-        <v>6.3699638555943057E-3</v>
-      </c>
-      <c r="AA63">
-        <v>4.9722462863428024E-3</v>
-      </c>
-      <c r="AB63">
-        <v>5.7650917397450291E-3</v>
-      </c>
-      <c r="AC63">
-        <v>9.5371876170850644E-3</v>
-      </c>
-      <c r="AD63">
-        <v>0.26131317759957451</v>
-      </c>
-      <c r="AE63">
-        <v>7.71184497122306E-2</v>
-      </c>
-      <c r="AF63">
-        <v>3.7544326024188533E-3</v>
-      </c>
-      <c r="AG63">
-        <v>7.0839688985686001E-3</v>
-      </c>
-      <c r="AH63">
-        <v>2.9396665090222665E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.6087775606803415E-5</v>
       </c>
@@ -15304,38 +13414,8 @@
       <c r="J64">
         <v>2.67531359057302E-2</v>
       </c>
-      <c r="Y64">
-        <v>7.1273128414243167E-5</v>
-      </c>
-      <c r="Z64">
-        <v>7.8931464516391863E-3</v>
-      </c>
-      <c r="AA64">
-        <v>6.1612073508478605E-3</v>
-      </c>
-      <c r="AB64">
-        <v>7.1436376156167923E-3</v>
-      </c>
-      <c r="AC64">
-        <v>1.1817715187237718E-2</v>
-      </c>
-      <c r="AD64">
-        <v>0.32379825495009928</v>
-      </c>
-      <c r="AE64">
-        <v>9.5558975137264232E-2</v>
-      </c>
-      <c r="AF64">
-        <v>4.6521906631660191E-3</v>
-      </c>
-      <c r="AG64">
-        <v>8.7778840261633403E-3</v>
-      </c>
-      <c r="AH64">
-        <v>3.6425981058454293E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3.2771125253080445E-5</v>
       </c>
@@ -15366,38 +13446,8 @@
       <c r="J65">
         <v>3.3606942228172419E-2</v>
       </c>
-      <c r="Y65">
-        <v>8.953237921261954E-5</v>
-      </c>
-      <c r="Z65">
-        <v>9.9152681664479488E-3</v>
-      </c>
-      <c r="AA65">
-        <v>7.7396287383037464E-3</v>
-      </c>
-      <c r="AB65">
-        <v>8.973744890804056E-3</v>
-      </c>
-      <c r="AC65">
-        <v>1.484526049454365E-2</v>
-      </c>
-      <c r="AD65">
-        <v>0.40675116689256097</v>
-      </c>
-      <c r="AE65">
-        <v>0.12003994478021361</v>
-      </c>
-      <c r="AF65">
-        <v>5.8440215533004528E-3</v>
-      </c>
-      <c r="AG65">
-        <v>1.1026664028932917E-2</v>
-      </c>
-      <c r="AH65">
-        <v>4.5757844813017756E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.0356426073346646E-5</v>
       </c>
@@ -15428,38 +13478,8 @@
       <c r="J66">
         <v>4.1385703698257524E-2</v>
       </c>
-      <c r="Y66">
-        <v>1.1025580644428076E-4</v>
-      </c>
-      <c r="Z66">
-        <v>1.2210285233310714E-2</v>
-      </c>
-      <c r="AA66">
-        <v>9.5310659185602557E-3</v>
-      </c>
-      <c r="AB66">
-        <v>1.1050834217319547E-2</v>
-      </c>
-      <c r="AC66">
-        <v>1.8281388053079124E-2</v>
-      </c>
-      <c r="AD66">
-        <v>0.50089898562162227</v>
-      </c>
-      <c r="AE66">
-        <v>0.14782474266476209</v>
-      </c>
-      <c r="AF66">
-        <v>7.196695931722551E-3</v>
-      </c>
-      <c r="AG66">
-        <v>1.357892804359633E-2</v>
-      </c>
-      <c r="AH66">
-        <v>5.6349089853075442E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.6214536179344659E-5</v>
       </c>
@@ -15490,38 +13510,8 @@
       <c r="J67">
         <v>4.7393223012231714E-2</v>
       </c>
-      <c r="Y67">
-        <v>1.2626046089020006E-4</v>
-      </c>
-      <c r="Z67">
-        <v>1.3982721553424228E-2</v>
-      </c>
-      <c r="AA67">
-        <v>1.0914588668492924E-2</v>
-      </c>
-      <c r="AB67">
-        <v>1.2654965452591236E-2</v>
-      </c>
-      <c r="AC67">
-        <v>2.0935101340543501E-2</v>
-      </c>
-      <c r="AD67">
-        <v>0.57360912611872983</v>
-      </c>
-      <c r="AE67">
-        <v>0.16928287717219137</v>
-      </c>
-      <c r="AF67">
-        <v>8.2413631946460768E-3</v>
-      </c>
-      <c r="AG67">
-        <v>1.5550035580627416E-2</v>
-      </c>
-      <c r="AH67">
-        <v>6.4528683658833796E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5.1318180573970895E-5</v>
       </c>
@@ -15552,38 +13542,8 @@
       <c r="J68">
         <v>5.2627034210314311E-2</v>
       </c>
-      <c r="Y68">
-        <v>1.4020387668008309E-4</v>
-      </c>
-      <c r="Z68">
-        <v>1.5526885887364865E-2</v>
-      </c>
-      <c r="AA68">
-        <v>1.2119927591757973E-2</v>
-      </c>
-      <c r="AB68">
-        <v>1.4052500705258614E-2</v>
-      </c>
-      <c r="AC68">
-        <v>2.3247043024713233E-2</v>
-      </c>
-      <c r="AD68">
-        <v>0.63695493121047808</v>
-      </c>
-      <c r="AE68">
-        <v>0.18797741959566805</v>
-      </c>
-      <c r="AF68">
-        <v>9.1514878123466308E-3</v>
-      </c>
-      <c r="AG68">
-        <v>1.7267284275266009E-2</v>
-      </c>
-      <c r="AH68">
-        <v>7.1654827982125954E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5.6144632506649754E-5</v>
       </c>
@@ -15614,38 +13574,8 @@
       <c r="J69">
         <v>5.7576583242151202E-2</v>
       </c>
-      <c r="Y69">
-        <v>1.5338998858045074E-4</v>
-      </c>
-      <c r="Z69">
-        <v>1.6987182561202251E-2</v>
-      </c>
-      <c r="AA69">
-        <v>1.3259801361539241E-2</v>
-      </c>
-      <c r="AB69">
-        <v>1.5374132112087316E-2</v>
-      </c>
-      <c r="AC69">
-        <v>2.5433417024741695E-2</v>
-      </c>
-      <c r="AD69">
-        <v>0.69686025763449044</v>
-      </c>
-      <c r="AE69">
-        <v>0.2056566118421615</v>
-      </c>
-      <c r="AF69">
-        <v>1.0012181148407543E-2</v>
-      </c>
-      <c r="AG69">
-        <v>1.8891264639151781E-2</v>
-      </c>
-      <c r="AH69">
-        <v>7.8393932508670994E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.929068897733817E-5</v>
       </c>
@@ -15676,38 +13606,8 @@
       <c r="J70">
         <v>6.0802878867964517E-2</v>
       </c>
-      <c r="Y70">
-        <v>1.6198517470185239E-4</v>
-      </c>
-      <c r="Z70">
-        <v>1.7939056911953521E-2</v>
-      </c>
-      <c r="AA70">
-        <v>1.4002812438663539E-2</v>
-      </c>
-      <c r="AB70">
-        <v>1.6235619411104227E-2</v>
-      </c>
-      <c r="AC70">
-        <v>2.6858574918382349E-2</v>
-      </c>
-      <c r="AD70">
-        <v>0.73590872272929586</v>
-      </c>
-      <c r="AE70">
-        <v>0.21718055073960213</v>
-      </c>
-      <c r="AF70">
-        <v>1.0573212290323406E-2</v>
-      </c>
-      <c r="AG70">
-        <v>1.9949833957429029E-2</v>
-      </c>
-      <c r="AH70">
-        <v>8.2786725330004432E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.0522138537334993E-5</v>
       </c>
@@ -15738,38 +13638,8 @@
       <c r="J71">
         <v>6.2065736151628637E-2</v>
       </c>
-      <c r="Y71">
-        <v>1.6534955746672203E-4</v>
-      </c>
-      <c r="Z71">
-        <v>1.8311645662767776E-2</v>
-      </c>
-      <c r="AA71">
-        <v>1.4293646590091618E-2</v>
-      </c>
-      <c r="AB71">
-        <v>1.6572828283609016E-2</v>
-      </c>
-      <c r="AC71">
-        <v>2.7416419342791477E-2</v>
-      </c>
-      <c r="AD71">
-        <v>0.75119332286523288</v>
-      </c>
-      <c r="AE71">
-        <v>0.22169132466146316</v>
-      </c>
-      <c r="AF71">
-        <v>1.0792814690755088E-2</v>
-      </c>
-      <c r="AG71">
-        <v>2.036418593533024E-2</v>
-      </c>
-      <c r="AH71">
-        <v>8.4506180412069296E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6.0944600211619411E-5</v>
       </c>
@@ -15800,38 +13670,8 @@
       <c r="J72">
         <v>6.2498972574597023E-2</v>
       </c>
-      <c r="Y72">
-        <v>1.665037442251177E-4</v>
-      </c>
-      <c r="Z72">
-        <v>1.8439466137598219E-2</v>
-      </c>
-      <c r="AA72">
-        <v>1.4393420293004557E-2</v>
-      </c>
-      <c r="AB72">
-        <v>1.668851132048655E-2</v>
-      </c>
-      <c r="AC72">
-        <v>2.7607793717497268E-2</v>
-      </c>
-      <c r="AD72">
-        <v>0.75643686508892927</v>
-      </c>
-      <c r="AE72">
-        <v>0.22323879291777796</v>
-      </c>
-      <c r="AF72">
-        <v>1.0868151595145625E-2</v>
-      </c>
-      <c r="AG72">
-        <v>2.0506333722794354E-2</v>
-      </c>
-      <c r="AH72">
-        <v>8.5096057493862148E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6.1034535051104875E-5</v>
       </c>
@@ -15862,38 +13702,8 @@
       <c r="J73">
         <v>6.2591201173143651E-2</v>
       </c>
-      <c r="Y73">
-        <v>1.6674945077596254E-4</v>
-      </c>
-      <c r="Z73">
-        <v>1.8466676922828152E-2</v>
-      </c>
-      <c r="AA73">
-        <v>1.4414660401877258E-2</v>
-      </c>
-      <c r="AB73">
-        <v>1.671313825349862E-2</v>
-      </c>
-      <c r="AC73">
-        <v>2.7648534037195961E-2</v>
-      </c>
-      <c r="AD73">
-        <v>0.75755312523021212</v>
-      </c>
-      <c r="AE73">
-        <v>0.22356822234939738</v>
-      </c>
-      <c r="AF73">
-        <v>1.0884189529036714E-2</v>
-      </c>
-      <c r="AG73">
-        <v>2.0536594546975512E-2</v>
-      </c>
-      <c r="AH73">
-        <v>8.5221632200152456E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6.0989900208178239E-5</v>
       </c>
@@ -15924,38 +13734,8 @@
       <c r="J74">
         <v>6.2545427932950814E-2</v>
       </c>
-      <c r="Y74">
-        <v>1.6662750611729909E-4</v>
-      </c>
-      <c r="Z74">
-        <v>1.8453172155025184E-2</v>
-      </c>
-      <c r="AA74">
-        <v>1.4404118892839138E-2</v>
-      </c>
-      <c r="AB74">
-        <v>1.6700915856782867E-2</v>
-      </c>
-      <c r="AC74">
-        <v>2.7628314534043054E-2</v>
-      </c>
-      <c r="AD74">
-        <v>0.75699912306201478</v>
-      </c>
-      <c r="AE74">
-        <v>0.22340472585549281</v>
-      </c>
-      <c r="AF74">
-        <v>1.0876229869974751E-2</v>
-      </c>
-      <c r="AG74">
-        <v>2.0521576038665675E-2</v>
-      </c>
-      <c r="AH74">
-        <v>8.5159309219170962E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6.0892382818390837E-5</v>
       </c>
@@ -15986,38 +13766,8 @@
       <c r="J75">
         <v>6.244542339360349E-2</v>
       </c>
-      <c r="Y75">
-        <v>1.6636108365377845E-4</v>
-      </c>
-      <c r="Z75">
-        <v>1.8423667184928279E-2</v>
-      </c>
-      <c r="AA75">
-        <v>1.4381087996382148E-2</v>
-      </c>
-      <c r="AB75">
-        <v>1.6674212587621032E-2</v>
-      </c>
-      <c r="AC75">
-        <v>2.7584139332765649E-2</v>
-      </c>
-      <c r="AD75">
-        <v>0.75578874924109729</v>
-      </c>
-      <c r="AE75">
-        <v>0.22304752170107983</v>
-      </c>
-      <c r="AF75">
-        <v>1.0858839752200703E-2</v>
-      </c>
-      <c r="AG75">
-        <v>2.0488763875950482E-2</v>
-      </c>
-      <c r="AH75">
-        <v>8.5023147108349253E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6.0709634964414989E-5</v>
       </c>
@@ -16048,38 +13798,8 @@
       <c r="J76">
         <v>6.2258014614580519E-2</v>
       </c>
-      <c r="Y76">
-        <v>1.658618072317422E-4</v>
-      </c>
-      <c r="Z76">
-        <v>1.8368374790632382E-2</v>
-      </c>
-      <c r="AA76">
-        <v>1.4337928033714649E-2</v>
-      </c>
-      <c r="AB76">
-        <v>1.6624170588505759E-2</v>
-      </c>
-      <c r="AC76">
-        <v>2.7501354885294302E-2</v>
-      </c>
-      <c r="AD76">
-        <v>0.75352050540516713</v>
-      </c>
-      <c r="AE76">
-        <v>0.22237812014313663</v>
-      </c>
-      <c r="AF76">
-        <v>1.082625062414341E-2</v>
-      </c>
-      <c r="AG76">
-        <v>2.0427273793683292E-2</v>
-      </c>
-      <c r="AH76">
-        <v>8.4767978941935634E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6.0411675377524063E-5</v>
       </c>
@@ -16110,38 +13830,8 @@
       <c r="J77">
         <v>6.1952455664570638E-2</v>
       </c>
-      <c r="Y77">
-        <v>1.6504776650175395E-4</v>
-      </c>
-      <c r="Z77">
-        <v>1.8278223806069846E-2</v>
-      </c>
-      <c r="AA77">
-        <v>1.4267558262651102E-2</v>
-      </c>
-      <c r="AB77">
-        <v>1.6542580063313852E-2</v>
-      </c>
-      <c r="AC77">
-        <v>2.7366379731097349E-2</v>
-      </c>
-      <c r="AD77">
-        <v>0.74982226774262861</v>
-      </c>
-      <c r="AE77">
-        <v>0.22128670042285215</v>
-      </c>
-      <c r="AF77">
-        <v>1.0773115974833819E-2</v>
-      </c>
-      <c r="AG77">
-        <v>2.0327017844780922E-2</v>
-      </c>
-      <c r="AH77">
-        <v>8.4351942311145109E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5.9295915897038219E-5</v>
       </c>
@@ -16172,38 +13862,8 @@
       <c r="J78">
         <v>6.0808239098564913E-2</v>
       </c>
-      <c r="Y78">
-        <v>1.6199945491204E-4</v>
-      </c>
-      <c r="Z78">
-        <v>1.7940638374601209E-2</v>
-      </c>
-      <c r="AA78">
-        <v>1.4004046891786855E-2</v>
-      </c>
-      <c r="AB78">
-        <v>1.6237050702937836E-2</v>
-      </c>
-      <c r="AC78">
-        <v>2.686094270355701E-2</v>
-      </c>
-      <c r="AD78">
-        <v>0.73597359861228207</v>
-      </c>
-      <c r="AE78">
-        <v>0.21719969683688498</v>
-      </c>
-      <c r="AF78">
-        <v>1.0574144398426149E-2</v>
-      </c>
-      <c r="AG78">
-        <v>1.9951592685180774E-2</v>
-      </c>
-      <c r="AH78">
-        <v>8.2794023601840933E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.655048917267654E-5</v>
       </c>
@@ -16234,38 +13894,8 @@
       <c r="J79">
         <v>5.799279115148441E-2</v>
       </c>
-      <c r="Y79">
-        <v>1.5449880961262646E-4</v>
-      </c>
-      <c r="Z79">
-        <v>1.7109979006234847E-2</v>
-      </c>
-      <c r="AA79">
-        <v>1.3355653423125616E-2</v>
-      </c>
-      <c r="AB79">
-        <v>1.5485268185537041E-2</v>
-      </c>
-      <c r="AC79">
-        <v>2.5617269360726048E-2</v>
-      </c>
-      <c r="AD79">
-        <v>0.70189770054261891</v>
-      </c>
-      <c r="AE79">
-        <v>0.20714325630134003</v>
-      </c>
-      <c r="AF79">
-        <v>1.0084556908638367E-2</v>
-      </c>
-      <c r="AG79">
-        <v>1.9027825256634989E-2</v>
-      </c>
-      <c r="AH79">
-        <v>7.8960624259319295E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5.1474993469444293E-5</v>
       </c>
@@ -16296,38 +13926,8 @@
       <c r="J80">
         <v>5.2787846568086848E-2</v>
       </c>
-      <c r="Y80">
-        <v>1.4063229747779838E-4</v>
-      </c>
-      <c r="Z80">
-        <v>1.557433137172246E-2</v>
-      </c>
-      <c r="AA80">
-        <v>1.2156962438226311E-2</v>
-      </c>
-      <c r="AB80">
-        <v>1.409544091279495E-2</v>
-      </c>
-      <c r="AC80">
-        <v>2.331807898286934E-2</v>
-      </c>
-      <c r="AD80">
-        <v>0.63890127353851922</v>
-      </c>
-      <c r="AE80">
-        <v>0.18855182194432354</v>
-      </c>
-      <c r="AF80">
-        <v>9.1794520013668366E-3</v>
-      </c>
-      <c r="AG80">
-        <v>1.7320047892640633E-2</v>
-      </c>
-      <c r="AH80">
-        <v>7.1873783543777825E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.2780498264461483E-5</v>
       </c>
@@ -16358,38 +13958,8 @@
       <c r="J81">
         <v>4.3871601068414437E-2</v>
       </c>
-      <c r="Y81">
-        <v>1.168784948316213E-4</v>
-      </c>
-      <c r="Z81">
-        <v>1.294371521608109E-2</v>
-      </c>
-      <c r="AA81">
-        <v>1.0103564380214747E-2</v>
-      </c>
-      <c r="AB81">
-        <v>1.1714619951619659E-2</v>
-      </c>
-      <c r="AC81">
-        <v>1.9379488373308322E-2</v>
-      </c>
-      <c r="AD81">
-        <v>0.53098627083850936</v>
-      </c>
-      <c r="AE81">
-        <v>0.15670406828197828</v>
-      </c>
-      <c r="AF81">
-        <v>7.6289767894053267E-3</v>
-      </c>
-      <c r="AG81">
-        <v>1.4394567708907792E-2</v>
-      </c>
-      <c r="AH81">
-        <v>5.9733786542004626E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.4219376525559279E-5</v>
       </c>
@@ -16419,36 +13989,6 @@
       </c>
       <c r="J82">
         <v>3.509213068203848E-2</v>
-      </c>
-      <c r="Y82">
-        <v>9.3489075271157998E-5</v>
-      </c>
-      <c r="Z82">
-        <v>1.0353452684926675E-2</v>
-      </c>
-      <c r="AA82">
-        <v>8.0816654270716611E-3</v>
-      </c>
-      <c r="AB82">
-        <v>9.3703207592443927E-3</v>
-      </c>
-      <c r="AC82">
-        <v>1.5501315702763323E-2</v>
-      </c>
-      <c r="AD82">
-        <v>0.42472668315833306</v>
-      </c>
-      <c r="AE82">
-        <v>0.12534485882981256</v>
-      </c>
-      <c r="AF82">
-        <v>6.1022858510808775E-3</v>
-      </c>
-      <c r="AG82">
-        <v>1.151396436078825E-2</v>
-      </c>
-      <c r="AH82">
-        <v>4.7780016968064921E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16460,7 +14000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>

--- a/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
+++ b/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="1" r:id="rId1"/>
@@ -11361,7 +11361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -14000,8 +14000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15358,8 +15358,8 @@
         <v>6.5552330256535818E-6</v>
       </c>
       <c r="B43" s="1">
-        <f>$B$42</f>
-        <v>1.7952458769412671E-5</v>
+        <f>0.000001</f>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C43">
         <v>1.2794182888040367E-3</v>
@@ -15391,8 +15391,8 @@
         <v>3.3263018886410336E-6</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ref="B44:B82" si="0">$B$42</f>
-        <v>1.7952458769412671E-5</v>
+        <f>0.0000005</f>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C44">
         <v>1.3113820651910705E-3</v>
@@ -15424,8 +15424,8 @@
         <v>5.2897074419802254E-7</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <f t="shared" ref="B45:B82" si="0">0.0000005</f>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C45">
         <v>1.3433312222454802E-3</v>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C46">
         <v>1.3747767964893114E-3</v>
@@ -15493,7 +15493,7 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C47">
         <v>1.4067872085069581E-3</v>
@@ -15527,7 +15527,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C48">
         <v>1.4393917465881218E-3</v>
@@ -15561,7 +15561,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C49">
         <v>1.4715805135410889E-3</v>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C50">
         <v>1.5111287134369101E-3</v>
@@ -15629,7 +15629,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C51">
         <v>1.5581136764798967E-3</v>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C52">
         <v>1.6053644374336841E-3</v>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C53">
         <v>1.6528679921424751E-3</v>
@@ -15731,7 +15731,7 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C54">
         <v>1.773042629366205E-3</v>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C55">
         <v>1.9672559128773794E-3</v>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C56">
         <v>2.1641010367917319E-3</v>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C57">
         <v>2.3629088285517796E-3</v>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C58">
         <v>2.5620630445152143E-3</v>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C59">
         <v>2.7630169878613679E-3</v>
@@ -15935,7 +15935,7 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C60">
         <v>2.9652637755515046E-3</v>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C61">
         <v>3.1663327516144261E-3</v>
@@ -16003,7 +16003,7 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C62">
         <v>3.3678098515586385E-3</v>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C63">
         <v>3.9574481656407387E-3</v>
@@ -16071,7 +16071,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C64">
         <v>4.9037512071187219E-3</v>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C65">
         <v>6.1600286448539833E-3</v>
@@ -16139,7 +16139,7 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C66">
         <v>7.5858469520322528E-3</v>
@@ -16173,7 +16173,7 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C67">
         <v>8.68700310028701E-3</v>
@@ -16207,7 +16207,7 @@
       </c>
       <c r="B68" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C68">
         <v>9.6463414025655062E-3</v>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="B69" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C69">
         <v>1.0553575497480141E-2</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="B70" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C70">
         <v>1.1144943594489481E-2</v>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="B71" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C71">
         <v>1.1376420680054622E-2</v>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C72">
         <v>1.1455831319599274E-2</v>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C73">
         <v>1.1472736481784658E-2</v>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C74">
         <v>1.146434641556437E-2</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C75">
         <v>1.1446015952090115E-2</v>
@@ -16479,7 +16479,7 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C76">
         <v>1.1411664613630326E-2</v>
@@ -16513,7 +16513,7 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C77">
         <v>1.1355656784296345E-2</v>
@@ -16547,7 +16547,7 @@
       </c>
       <c r="B78" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C78">
         <v>1.1145926105002256E-2</v>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="B79" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C79">
         <v>1.0629864873237692E-2</v>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="B80" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C80">
         <v>9.6758177150368888E-3</v>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C81">
         <v>8.0415027776758255E-3</v>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="B82" s="1">
         <f t="shared" si="0"/>
-        <v>1.7952458769412671E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C82">
         <v>6.4322582144680836E-3</v>

--- a/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
+++ b/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
@@ -14001,7 +14001,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B82"/>
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15358,7 +15358,6 @@
         <v>6.5552330256535818E-6</v>
       </c>
       <c r="B43" s="1">
-        <f>0.000001</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C43">
@@ -15391,7 +15390,6 @@
         <v>3.3263018886410336E-6</v>
       </c>
       <c r="B44" s="1">
-        <f>0.0000005</f>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C44">
@@ -15424,7 +15422,6 @@
         <v>5.2897074419802254E-7</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ref="B45:B82" si="0">0.0000005</f>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C45">
@@ -15453,12 +15450,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <f>$A$45</f>
-        <v>5.2897074419802254E-7</v>
+      <c r="A46" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C46">
@@ -15487,12 +15482,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <f t="shared" ref="A47:A82" si="1">$A$45</f>
-        <v>5.2897074419802254E-7</v>
+      <c r="A47" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C47">
@@ -15521,12 +15514,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A48" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C48">
@@ -15555,12 +15546,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A49" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C49">
@@ -15589,12 +15578,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A50" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C50">
@@ -15623,12 +15610,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A51" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C51">
@@ -15657,12 +15642,10 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A52" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C52">
@@ -15691,12 +15674,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A53" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C53">
@@ -15725,12 +15706,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A54" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C54">
@@ -15759,12 +15738,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A55" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C55">
@@ -15793,12 +15770,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A56" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C56">
@@ -15827,12 +15802,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A57" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C57">
@@ -15861,12 +15834,10 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A58" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C58">
@@ -15895,12 +15866,10 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A59" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C59">
@@ -15929,12 +15898,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A60" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C60">
@@ -15963,12 +15930,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A61" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C61">
@@ -15997,12 +15962,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A62" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C62">
@@ -16031,12 +15994,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A63" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C63">
@@ -16065,12 +16026,10 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A64" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C64">
@@ -16099,12 +16058,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A65" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C65">
@@ -16133,12 +16090,10 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A66" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C66">
@@ -16167,12 +16122,10 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A67" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C67">
@@ -16201,12 +16154,10 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A68" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C68">
@@ -16235,12 +16186,10 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A69" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C69">
@@ -16269,12 +16218,10 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A70" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C70">
@@ -16303,12 +16250,10 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A71" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C71">
@@ -16337,12 +16282,10 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A72" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C72">
@@ -16371,12 +16314,10 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A73" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C73">
@@ -16405,12 +16346,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A74" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C74">
@@ -16439,12 +16378,10 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A75" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C75">
@@ -16473,12 +16410,10 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A76" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C76">
@@ -16507,12 +16442,10 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A77" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C77">
@@ -16541,12 +16474,10 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A78" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C78">
@@ -16575,12 +16506,10 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A79" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C79">
@@ -16609,12 +16538,10 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A80" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C80">
@@ -16643,12 +16570,10 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A81" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C81">
@@ -16677,12 +16602,10 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2897074419802254E-7</v>
+      <c r="A82" s="2">
+        <v>5.2897074419802297E-7</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C82">

--- a/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
+++ b/2019_5_31_import_to_R_DOTA_Tras_225227.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="227damin" sheetId="15" r:id="rId15"/>
     <sheet name="227dayplus" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,10 +72,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,6 +88,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -134,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,7 +174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,7 +386,7 @@
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +811,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,2594 +850,2594 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.0790817184740871E-4</v>
+        <v>1.5288602568954148E-4</v>
       </c>
       <c r="B2">
-        <v>2.1950159040732382E-4</v>
+        <v>9.7285811764575794E-5</v>
       </c>
       <c r="C2">
-        <v>3.192484522142141E-4</v>
+        <v>1.2723786023045877E-4</v>
       </c>
       <c r="D2">
-        <v>3.6294957422236166E-4</v>
+        <v>1.374412886016202E-4</v>
       </c>
       <c r="E2">
-        <v>2.9570367211122466E-4</v>
+        <v>1.1553903871471319E-4</v>
       </c>
       <c r="F2">
-        <v>2.410760000325561E-4</v>
+        <v>9.6100646304961987E-5</v>
       </c>
       <c r="G2">
-        <v>3.2836499204672655E-4</v>
+        <v>1.2806575565394603E-4</v>
       </c>
       <c r="H2">
-        <v>3.3403256498583443E-4</v>
+        <v>1.3604753159079355E-4</v>
       </c>
       <c r="I2">
-        <v>2.6214109786344448E-4</v>
+        <v>1.0378829441446372E-4</v>
       </c>
       <c r="J2">
-        <v>2.9409362485564346E-4</v>
+        <v>1.3893779562690838E-4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4.1324432055768218E-4</v>
+        <v>1.5627592171037441E-4</v>
       </c>
       <c r="B3">
-        <v>2.2462136610321392E-4</v>
+        <v>1.000471459499622E-4</v>
       </c>
       <c r="C3">
-        <v>3.3216069908783056E-4</v>
+        <v>1.332427508940589E-4</v>
       </c>
       <c r="D3">
-        <v>3.7133612326477685E-4</v>
+        <v>1.418112621703016E-4</v>
       </c>
       <c r="E3">
-        <v>3.0989128166304544E-4</v>
+        <v>1.2151848355786913E-4</v>
       </c>
       <c r="F3">
-        <v>2.3781638752178361E-4</v>
+        <v>9.5552040115525508E-5</v>
       </c>
       <c r="G3">
-        <v>3.3730155736806872E-4</v>
+        <v>1.3346989898648502E-4</v>
       </c>
       <c r="H3">
-        <v>3.4861053220168123E-4</v>
+        <v>1.4103365273643935E-4</v>
       </c>
       <c r="I3">
-        <v>2.765979790808347E-4</v>
+        <v>1.0905230836242175E-4</v>
       </c>
       <c r="J3">
-        <v>3.8957744835617467E-4</v>
+        <v>1.8142543672624648E-4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.1852484545100178E-4</v>
+        <v>1.5988386577091244E-4</v>
       </c>
       <c r="B4">
-        <v>2.303554242803437E-4</v>
+        <v>1.0317117898114421E-4</v>
       </c>
       <c r="C4">
-        <v>3.4748910739956437E-4</v>
+        <v>1.4045144345589756E-4</v>
       </c>
       <c r="D4">
-        <v>3.8083251546032595E-4</v>
+        <v>1.4685027645291196E-4</v>
       </c>
       <c r="E4">
-        <v>3.2693950143084525E-4</v>
+        <v>1.2872200720646503E-4</v>
       </c>
       <c r="F4">
-        <v>2.3483028378741306E-4</v>
+        <v>9.5114991292636204E-5</v>
       </c>
       <c r="G4">
-        <v>3.479638191308194E-4</v>
+        <v>1.3976909191481979E-4</v>
       </c>
       <c r="H4">
-        <v>3.6563004723918319E-4</v>
+        <v>1.469718345228292E-4</v>
       </c>
       <c r="I4">
-        <v>2.9383536814449394E-4</v>
+        <v>1.1530960783714268E-4</v>
       </c>
       <c r="J4">
-        <v>4.8042483973900329E-4</v>
+        <v>2.2222361013152082E-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.2147978911064358E-4</v>
+        <v>1.6276369438416696E-4</v>
       </c>
       <c r="B5">
-        <v>2.3555151916781751E-4</v>
+        <v>1.0611743015836764E-4</v>
       </c>
       <c r="C5">
-        <v>3.6310228270073524E-4</v>
+        <v>1.4798517170273192E-4</v>
       </c>
       <c r="D5">
-        <v>3.8925195166002494E-4</v>
+        <v>1.5164960081141395E-4</v>
       </c>
       <c r="E5">
-        <v>3.4470600800239228E-4</v>
+        <v>1.3629945788028999E-4</v>
       </c>
       <c r="F5">
-        <v>2.3159175545173135E-4</v>
+        <v>9.4524116303239288E-5</v>
       </c>
       <c r="G5">
-        <v>3.5865022565845434E-4</v>
+        <v>1.4613638951031688E-4</v>
       </c>
       <c r="H5">
-        <v>3.8316834962239562E-4</v>
+        <v>1.5315238467238559E-4</v>
       </c>
       <c r="I5">
-        <v>3.1197663382714072E-4</v>
+        <v>1.2184555979352726E-4</v>
       </c>
       <c r="J5">
-        <v>5.6298241712290041E-4</v>
+        <v>2.5954113566063443E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.4870565086981511E-4</v>
+        <v>1.8147297902480501E-4</v>
       </c>
       <c r="B6">
-        <v>2.8096786275175006E-4</v>
+        <v>1.2984506576259645E-4</v>
       </c>
       <c r="C6">
-        <v>4.3682677974169533E-4</v>
+        <v>1.8273192016362956E-4</v>
       </c>
       <c r="D6">
-        <v>4.3357814618452044E-4</v>
+        <v>1.7490955721140514E-4</v>
       </c>
       <c r="E6">
-        <v>4.1624163872562629E-4</v>
+        <v>1.6745720744172819E-4</v>
       </c>
       <c r="F6">
-        <v>2.3784325645955114E-4</v>
+        <v>9.9261796631354874E-5</v>
       </c>
       <c r="G6">
-        <v>4.1914947476094243E-4</v>
+        <v>1.7644852751292768E-4</v>
       </c>
       <c r="H6">
-        <v>4.6219984214551624E-4</v>
+        <v>1.8261656680186293E-4</v>
       </c>
       <c r="I6">
-        <v>3.9491681998200909E-4</v>
+        <v>1.5250683950408E-4</v>
       </c>
       <c r="J6">
-        <v>8.0782358921148835E-4</v>
+        <v>3.717120097812071E-4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.8983386582501581E-4</v>
+        <v>2.0564146091073921E-4</v>
       </c>
       <c r="B7">
-        <v>3.6012004113342893E-4</v>
+        <v>1.6991049978964799E-4</v>
       </c>
       <c r="C7">
-        <v>5.1052319318023562E-4</v>
+        <v>2.1595711663117799E-4</v>
       </c>
       <c r="D7">
-        <v>4.840406291381335E-4</v>
+        <v>1.9944064761260531E-4</v>
       </c>
       <c r="E7">
-        <v>4.7306796224385944E-4</v>
+        <v>1.9275718064189584E-4</v>
       </c>
       <c r="F7">
-        <v>2.6121247066100846E-4</v>
+        <v>1.1047484761968001E-4</v>
       </c>
       <c r="G7">
-        <v>4.8675463402775298E-4</v>
+        <v>2.0647914699811163E-4</v>
       </c>
       <c r="H7">
-        <v>5.3271505957347648E-4</v>
+        <v>2.0990237367523793E-4</v>
       </c>
       <c r="I7">
-        <v>4.7265094656611956E-4</v>
+        <v>1.8210204362854513E-4</v>
       </c>
       <c r="J7">
-        <v>9.7278899337026456E-4</v>
+        <v>4.4826413090008399E-4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.2912997305578952E-4</v>
+        <v>2.2839303718825936E-4</v>
       </c>
       <c r="B8">
-        <v>4.7743910068976747E-4</v>
+        <v>2.2851925280700341E-4</v>
       </c>
       <c r="C8">
-        <v>5.8257899990883134E-4</v>
+        <v>2.4716977756023472E-4</v>
       </c>
       <c r="D8">
-        <v>5.3616049487946146E-4</v>
+        <v>2.2427505190232382E-4</v>
       </c>
       <c r="E8">
-        <v>5.2029757217927951E-4</v>
+        <v>2.1408693442159411E-4</v>
       </c>
       <c r="F8">
-        <v>2.9407615310494701E-4</v>
+        <v>1.2573645956142349E-4</v>
       </c>
       <c r="G8">
-        <v>5.5996156195335569E-4</v>
+        <v>2.3720307255093969E-4</v>
       </c>
       <c r="H8">
-        <v>5.9814295655914382E-4</v>
+        <v>2.3575763062792511E-4</v>
       </c>
       <c r="I8">
-        <v>5.4803831222005541E-4</v>
+        <v>2.1134653876570461E-4</v>
       </c>
       <c r="J8">
-        <v>1.1168353964064433E-3</v>
+        <v>5.155617988122068E-4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5.6020538366347028E-4</v>
+        <v>2.464072308947762E-4</v>
       </c>
       <c r="B9">
-        <v>6.3759489877556093E-4</v>
+        <v>3.0758636350715585E-4</v>
       </c>
       <c r="C9">
-        <v>6.5305173478749645E-4</v>
+        <v>2.7646819337826862E-4</v>
       </c>
       <c r="D9">
-        <v>5.8846553228516162E-4</v>
+        <v>2.4910495102015162E-4</v>
       </c>
       <c r="E9">
-        <v>5.6143641389190849E-4</v>
+        <v>2.3270401696830857E-4</v>
       </c>
       <c r="F9">
-        <v>3.3393227495478035E-4</v>
+        <v>1.4416787414948194E-4</v>
       </c>
       <c r="G9">
-        <v>6.3765256602782254E-4</v>
+        <v>2.6860485456189513E-4</v>
       </c>
       <c r="H9">
-        <v>6.5990891236523725E-4</v>
+        <v>2.6060133227186292E-4</v>
       </c>
       <c r="I9">
-        <v>6.2231440892808769E-4</v>
+        <v>2.4052388707507656E-4</v>
       </c>
       <c r="J9">
-        <v>1.2528036928902957E-3</v>
+        <v>5.7938154002883959E-4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5.8082277762144861E-4</v>
+        <v>2.5823352532523337E-4</v>
       </c>
       <c r="B10">
-        <v>8.4229984965691635E-4</v>
+        <v>4.0711480264167511E-4</v>
       </c>
       <c r="C10">
-        <v>7.2196315651791717E-4</v>
+        <v>3.0392319383543126E-4</v>
       </c>
       <c r="D10">
-        <v>6.4053230230514996E-4</v>
+        <v>2.7383819136551202E-4</v>
       </c>
       <c r="E10">
-        <v>5.9840104094098338E-4</v>
+        <v>2.4928369938157733E-4</v>
       </c>
       <c r="F10">
-        <v>3.7922434255608576E-4</v>
+        <v>1.6512052720979377E-4</v>
       </c>
       <c r="G10">
-        <v>7.1873025429929169E-4</v>
+        <v>3.0044578328259405E-4</v>
       </c>
       <c r="H10">
-        <v>7.1869107943546996E-4</v>
+        <v>2.8465753916507951E-4</v>
       </c>
       <c r="I10">
-        <v>6.9579269078872915E-4</v>
+        <v>2.6965501557713696E-4</v>
       </c>
       <c r="J10">
-        <v>1.3842314816919863E-3</v>
+        <v>6.4130654626358386E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5.9207233290627863E-4</v>
+        <v>2.6431279595545335E-4</v>
       </c>
       <c r="B11">
-        <v>1.0859838248808338E-3</v>
+        <v>5.2340758269457058E-4</v>
       </c>
       <c r="C11">
-        <v>7.896540628399034E-4</v>
+        <v>3.2995232678970294E-4</v>
       </c>
       <c r="D11">
-        <v>6.9210507596998295E-4</v>
+        <v>2.9841548121579308E-4</v>
       </c>
       <c r="E11">
-        <v>6.327781022465248E-4</v>
+        <v>2.6446141258452076E-4</v>
       </c>
       <c r="F11">
-        <v>4.2780647662667842E-4</v>
+        <v>1.8760530555649125E-4</v>
       </c>
       <c r="G11">
-        <v>8.0154031718098092E-4</v>
+        <v>3.3231700580181302E-4</v>
       </c>
       <c r="H11">
-        <v>7.7520042096636634E-4</v>
+        <v>3.0815551475613041E-4</v>
       </c>
       <c r="I11">
-        <v>7.6856176889763704E-4</v>
+        <v>2.9866853608344053E-4</v>
       </c>
       <c r="J11">
-        <v>1.5126021886724596E-3</v>
+        <v>7.01993909867655E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5.9799337945076986E-4</v>
+        <v>2.6698843512115911E-4</v>
       </c>
       <c r="B12">
-        <v>1.3544012314371497E-3</v>
+        <v>6.4923972465304452E-4</v>
       </c>
       <c r="C12">
-        <v>8.5654068441857122E-4</v>
+        <v>3.5525858190821503E-4</v>
       </c>
       <c r="D12">
-        <v>7.4269074455630491E-4</v>
+        <v>3.2269498234861765E-4</v>
       </c>
       <c r="E12">
-        <v>6.6585667425136659E-4</v>
+        <v>2.7884087440378541E-4</v>
       </c>
       <c r="F12">
-        <v>4.7680163728237585E-4</v>
+        <v>2.1025751041108342E-4</v>
       </c>
       <c r="G12">
-        <v>8.8401444268338737E-4</v>
+        <v>3.6375118815814661E-4</v>
       </c>
       <c r="H12">
-        <v>8.3019211434286904E-4</v>
+        <v>3.3132457580482036E-4</v>
       </c>
       <c r="I12">
-        <v>8.4067054395496783E-4</v>
+        <v>3.2745999397302796E-4</v>
       </c>
       <c r="J12">
-        <v>1.6386145775867541E-3</v>
+        <v>7.6174488334718789E-4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6.0348902422004895E-4</v>
+        <v>2.691878631475234E-4</v>
       </c>
       <c r="B13">
-        <v>1.6312434052212013E-3</v>
+        <v>7.7740777268208957E-4</v>
       </c>
       <c r="C13">
-        <v>9.2302596247186139E-4</v>
+        <v>3.805399524600074E-4</v>
       </c>
       <c r="D13">
-        <v>7.9184263941263564E-4</v>
+        <v>3.4654090950722794E-4</v>
       </c>
       <c r="E13">
-        <v>6.9849591056404185E-4</v>
+        <v>2.9288307113078325E-4</v>
       </c>
       <c r="F13">
-        <v>5.2380991908091193E-4</v>
+        <v>2.3193027341247298E-4</v>
       </c>
       <c r="G13">
-        <v>9.645541443241407E-4</v>
+        <v>3.944318239442222E-4</v>
       </c>
       <c r="H13">
-        <v>8.8432385691201076E-4</v>
+        <v>3.5434780127857341E-4</v>
       </c>
       <c r="I13">
-        <v>9.1221570621630545E-4</v>
+        <v>3.5596800958035736E-4</v>
       </c>
       <c r="J13">
-        <v>1.7626355890031746E-3</v>
+        <v>8.2071144796881472E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6.1509314007066377E-4</v>
+        <v>2.7400567666879165E-4</v>
       </c>
       <c r="B14">
-        <v>2.0770540253922829E-3</v>
+        <v>9.8161661358180607E-4</v>
       </c>
       <c r="C14">
-        <v>1.0288127795500205E-3</v>
+        <v>4.2135893056040406E-4</v>
       </c>
       <c r="D14">
-        <v>8.6748886252276103E-4</v>
+        <v>3.8378474526195726E-4</v>
       </c>
       <c r="E14">
-        <v>7.5035993235603627E-4</v>
+        <v>3.1499660565436857E-4</v>
       </c>
       <c r="F14">
-        <v>5.9463667825691087E-4</v>
+        <v>2.6444285027445581E-4</v>
       </c>
       <c r="G14">
-        <v>1.089911507101457E-3</v>
+        <v>4.4233237749879815E-4</v>
       </c>
       <c r="H14">
-        <v>9.7001070963687389E-4</v>
+        <v>3.9113707963654671E-4</v>
       </c>
       <c r="I14">
-        <v>1.0263944492087745E-3</v>
+        <v>4.0130725192344353E-4</v>
       </c>
       <c r="J14">
-        <v>1.9580631228774191E-3</v>
+        <v>9.1390481597733062E-4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6.2942518137199693E-4</v>
+        <v>2.8008073205739077E-4</v>
       </c>
       <c r="B15">
-        <v>2.5229827230298495E-3</v>
+        <v>1.1836420430449816E-3</v>
       </c>
       <c r="C15">
-        <v>1.1338483645527836E-3</v>
+        <v>4.6247183843969386E-4</v>
       </c>
       <c r="D15">
-        <v>9.4002306462019462E-4</v>
+        <v>4.2006099153442974E-4</v>
       </c>
       <c r="E15">
-        <v>8.0176988726404612E-4</v>
+        <v>3.3671763915956322E-4</v>
       </c>
       <c r="F15">
-        <v>6.6174454331151267E-4</v>
+        <v>2.951125506887891E-4</v>
       </c>
       <c r="G15">
-        <v>1.2125912713771806E-3</v>
+        <v>4.8931616230226316E-4</v>
       </c>
       <c r="H15">
-        <v>1.0548565524118496E-3</v>
+        <v>4.2790579003553961E-4</v>
       </c>
       <c r="I15">
-        <v>1.1407868955077951E-3</v>
+        <v>4.4659417680632932E-4</v>
       </c>
       <c r="J15">
-        <v>2.1502590921939979E-3</v>
+        <v>1.0058579411888796E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6.4561641488740742E-4</v>
+        <v>2.8701366971055922E-4</v>
       </c>
       <c r="B16">
-        <v>2.9621578312046294E-3</v>
+        <v>1.3807246255519762E-3</v>
       </c>
       <c r="C16">
-        <v>1.2371574800312127E-3</v>
+        <v>5.0338865193333925E-4</v>
       </c>
       <c r="D16">
-        <v>1.0090716961530185E-3</v>
+        <v>4.5509533889545703E-4</v>
       </c>
       <c r="E16">
-        <v>8.5223939816705962E-4</v>
+        <v>3.5786955392573013E-4</v>
       </c>
       <c r="F16">
-        <v>7.2574190554171693E-4</v>
+        <v>3.2426051836605086E-4</v>
       </c>
       <c r="G16">
-        <v>1.3324847781769952E-3</v>
+        <v>5.352711573127063E-4</v>
       </c>
       <c r="H16">
-        <v>1.1382466899492376E-3</v>
+        <v>4.6432488564939107E-4</v>
       </c>
       <c r="I16">
-        <v>1.2548191607730822E-3</v>
+        <v>4.9163991080051356E-4</v>
       </c>
       <c r="J16">
-        <v>2.3375421723382831E-3</v>
+        <v>1.095730469218785E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6.6975385406352068E-4</v>
+        <v>2.9741576766513408E-4</v>
       </c>
       <c r="B17">
-        <v>3.5446221553144903E-3</v>
+        <v>1.63955350731984E-3</v>
       </c>
       <c r="C17">
-        <v>1.3757178347265395E-3</v>
+        <v>5.5895583116257396E-4</v>
       </c>
       <c r="D17">
-        <v>1.0984072999692558E-3</v>
+        <v>5.0109192195934736E-4</v>
       </c>
       <c r="E17">
-        <v>9.2025273280278957E-4</v>
+        <v>3.8611088978201624E-4</v>
       </c>
       <c r="F17">
-        <v>8.0978439358263374E-4</v>
+        <v>3.6241248775135845E-4</v>
       </c>
       <c r="G17">
-        <v>1.4931099523952302E-3</v>
+        <v>5.9685234502090609E-4</v>
       </c>
       <c r="H17">
-        <v>1.2505179952532061E-3</v>
+        <v>5.1368993415556248E-4</v>
       </c>
       <c r="I17">
-        <v>1.4109607407722243E-3</v>
+        <v>5.5319434555979792E-4</v>
       </c>
       <c r="J17">
-        <v>2.5860904593267855E-3</v>
+        <v>1.2153547408221505E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6.9277570322496835E-4</v>
+        <v>3.0737807390355322E-4</v>
       </c>
       <c r="B18">
-        <v>4.0452609132792233E-3</v>
+        <v>1.8599052117073112E-3</v>
       </c>
       <c r="C18">
-        <v>1.4983438587768746E-3</v>
+        <v>6.0876848263488202E-4</v>
       </c>
       <c r="D18">
-        <v>1.1746617200272581E-3</v>
+        <v>5.408717727620803E-4</v>
       </c>
       <c r="E18">
-        <v>9.812905930379214E-4</v>
+        <v>4.1120659378917392E-4</v>
       </c>
       <c r="F18">
-        <v>8.8314637676752171E-4</v>
+        <v>3.9561780028065085E-4</v>
       </c>
       <c r="G18">
-        <v>1.6354892041414233E-3</v>
+        <v>6.5143336250629851E-4</v>
       </c>
       <c r="H18">
-        <v>1.3506935942653106E-3</v>
+        <v>5.5794266177770042E-4</v>
       </c>
       <c r="I18">
-        <v>1.5525944521881602E-3</v>
+        <v>6.0892440876428322E-4</v>
       </c>
       <c r="J18">
-        <v>2.8032298750124631E-3</v>
+        <v>1.3201463440883411E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7.1614948939063123E-4</v>
+        <v>3.1751532711019054E-4</v>
       </c>
       <c r="B19">
-        <v>4.5109344741402595E-3</v>
+        <v>2.0631723887934213E-3</v>
       </c>
       <c r="C19">
-        <v>1.6179009854542991E-3</v>
+        <v>6.579104563270953E-4</v>
       </c>
       <c r="D19">
-        <v>1.2466452884551198E-3</v>
+        <v>5.787674054280067E-4</v>
       </c>
       <c r="E19">
-        <v>1.0422093369596816E-3</v>
+        <v>4.3602273791981336E-4</v>
       </c>
       <c r="F19">
-        <v>9.5440051649102583E-4</v>
+        <v>4.2779443436087545E-4</v>
       </c>
       <c r="G19">
-        <v>1.7747760186550597E-3</v>
+        <v>7.0481923224710694E-4</v>
       </c>
       <c r="H19">
-        <v>1.4495356487352078E-3</v>
+        <v>6.0167597552482973E-4</v>
       </c>
       <c r="I19">
-        <v>1.694258826553152E-3</v>
+        <v>6.6457624978857703E-4</v>
       </c>
       <c r="J19">
-        <v>3.0121234864797335E-3</v>
+        <v>1.421143941486095E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7.393363265350626E-4</v>
+        <v>3.2758406929678631E-4</v>
       </c>
       <c r="B20">
-        <v>4.9348415600646688E-3</v>
+        <v>2.2467259222557733E-3</v>
       </c>
       <c r="C20">
-        <v>1.7343120598164968E-3</v>
+        <v>7.0631725254336906E-4</v>
       </c>
       <c r="D20">
-        <v>1.3145695428137701E-3</v>
+        <v>6.1474021163708374E-4</v>
       </c>
       <c r="E20">
-        <v>1.1034141631016091E-3</v>
+        <v>4.6073141609773757E-4</v>
       </c>
       <c r="F20">
-        <v>1.0238867007739678E-3</v>
+        <v>4.5911269074304541E-4</v>
       </c>
       <c r="G20">
-        <v>1.9108523587686315E-3</v>
+        <v>7.5696201928728663E-4</v>
       </c>
       <c r="H20">
-        <v>1.5471742473544556E-3</v>
+        <v>6.4483869540424895E-4</v>
       </c>
       <c r="I20">
-        <v>1.8358506531761288E-3</v>
+        <v>7.2011320320239337E-4</v>
       </c>
       <c r="J20">
-        <v>3.2123512692096273E-3</v>
+        <v>1.5180743108993877E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7.6191276933969222E-4</v>
+        <v>3.3739370338526628E-4</v>
       </c>
       <c r="B21">
-        <v>5.3114213597195209E-3</v>
+        <v>2.4084510821734332E-3</v>
       </c>
       <c r="C21">
-        <v>1.8475476288345311E-3</v>
+        <v>7.5394717551661614E-4</v>
       </c>
       <c r="D21">
-        <v>1.3786314251005437E-3</v>
+        <v>6.4875510669498248E-4</v>
       </c>
       <c r="E21">
-        <v>1.1652875010202172E-3</v>
+        <v>4.8549341368693452E-4</v>
       </c>
       <c r="F21">
-        <v>1.091844498851971E-3</v>
+        <v>4.8969321541857493E-4</v>
       </c>
       <c r="G21">
-        <v>2.0435770821968864E-3</v>
+        <v>8.0780928304172996E-4</v>
       </c>
       <c r="H21">
-        <v>1.6437175289085984E-3</v>
+        <v>6.8737929741038571E-4</v>
       </c>
       <c r="I21">
-        <v>1.977236315755436E-3</v>
+        <v>7.7548349323908433E-4</v>
       </c>
       <c r="J21">
-        <v>3.4035895353307245E-3</v>
+        <v>1.6107184065739821E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7.8354865847688165E-4</v>
+        <v>3.4679610181619926E-4</v>
       </c>
       <c r="B22">
-        <v>5.6364717934408335E-3</v>
+        <v>2.5468021939529482E-3</v>
       </c>
       <c r="C22">
-        <v>1.9576178316547971E-3</v>
+        <v>8.0077387717690507E-4</v>
       </c>
       <c r="D22">
-        <v>1.4390241206379637E-3</v>
+        <v>6.8078484753423911E-4</v>
       </c>
       <c r="E22">
-        <v>1.2281810220124082E-3</v>
+        <v>5.1045616269637011E-4</v>
       </c>
       <c r="F22">
-        <v>1.1584507120632292E-3</v>
+        <v>5.1962545136812822E-4</v>
       </c>
       <c r="G22">
-        <v>2.1728253310179355E-3</v>
+        <v>8.5731707466613939E-4</v>
       </c>
       <c r="H22">
-        <v>1.7392559892420369E-3</v>
+        <v>7.2924803714879028E-4</v>
       </c>
       <c r="I22">
-        <v>2.1182654831422057E-3</v>
+        <v>8.3062703266842787E-4</v>
       </c>
       <c r="J22">
-        <v>3.5856263522990317E-3</v>
+        <v>1.6989190072475542E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8.0399173294827997E-4</v>
+        <v>3.5567842903192761E-4</v>
       </c>
       <c r="B23">
-        <v>5.9072286239612278E-3</v>
+        <v>2.6608376922115599E-3</v>
       </c>
       <c r="C23">
-        <v>2.0645661211051705E-3</v>
+        <v>8.4678120663695072E-4</v>
       </c>
       <c r="D23">
-        <v>1.495945922525095E-3</v>
+        <v>7.1081435526714788E-4</v>
       </c>
       <c r="E23">
-        <v>1.2924089033906736E-3</v>
+        <v>5.3575195722989203E-4</v>
       </c>
       <c r="F23">
-        <v>1.223841289288586E-3</v>
+        <v>5.4897843537248165E-4</v>
       </c>
       <c r="G23">
-        <v>2.298511984891193E-3</v>
+        <v>9.0545772427324492E-4</v>
       </c>
       <c r="H23">
-        <v>1.8338648501343134E-3</v>
+        <v>7.7039857617647463E-4</v>
       </c>
       <c r="I23">
-        <v>2.2587785470221142E-3</v>
+        <v>8.8547920485272679E-4</v>
       </c>
       <c r="J23">
-        <v>3.7583686262250117E-3</v>
+        <v>1.7825843890856609E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8.2305681621021873E-4</v>
+        <v>3.6395812248244709E-4</v>
       </c>
       <c r="B24">
-        <v>6.1224122751113094E-3</v>
+        <v>2.7502398544560955E-3</v>
       </c>
       <c r="C24">
-        <v>2.1684638836139032E-3</v>
+        <v>8.9195930860829691E-4</v>
       </c>
       <c r="D24">
-        <v>1.549608297896772E-3</v>
+        <v>7.3884550715703232E-4</v>
       </c>
       <c r="E24">
-        <v>1.3582403729140691E-3</v>
+        <v>5.6149582070717362E-4</v>
       </c>
       <c r="F24">
-        <v>1.288124754068037E-3</v>
+        <v>5.7780742795392409E-4</v>
       </c>
       <c r="G24">
-        <v>2.42060673539063E-3</v>
+        <v>9.522249186503267E-4</v>
       </c>
       <c r="H24">
-        <v>1.9276049793462932E-3</v>
+        <v>8.1078926038509285E-4</v>
       </c>
       <c r="I24">
-        <v>2.3986106106066913E-3</v>
+        <v>9.3997299730405517E-4</v>
       </c>
       <c r="J24">
-        <v>3.9218444341449733E-3</v>
+        <v>1.8616896613910887E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8.4061815251459341E-4</v>
+        <v>3.7157935159100601E-4</v>
       </c>
       <c r="B25">
-        <v>6.2822482089306391E-3</v>
+        <v>2.8153225217578751E-3</v>
       </c>
       <c r="C25">
-        <v>2.269405498180675E-3</v>
+        <v>9.3630143559820492E-4</v>
       </c>
       <c r="D25">
-        <v>1.6002438014022739E-3</v>
+        <v>7.6490269078226258E-4</v>
       </c>
       <c r="E25">
-        <v>1.4258904784088945E-3</v>
+        <v>5.8778270994326598E-4</v>
       </c>
       <c r="F25">
-        <v>1.3513907762303778E-3</v>
+        <v>6.0615815464529741E-4</v>
       </c>
       <c r="G25">
-        <v>2.5391444789636041E-3</v>
+        <v>9.9763728048912802E-4</v>
       </c>
       <c r="H25">
-        <v>2.0205226611613165E-3</v>
+        <v>8.5038414703553656E-4</v>
       </c>
       <c r="I25">
-        <v>2.5375934956099969E-3</v>
+        <v>9.940401984042369E-4</v>
       </c>
       <c r="J25">
-        <v>4.0762025203106341E-3</v>
+        <v>1.936276648761742E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8.5660393685469739E-4</v>
+        <v>3.7851050032740817E-4</v>
       </c>
       <c r="B26">
-        <v>6.3884661776715387E-3</v>
+        <v>2.8570295553684822E-3</v>
       </c>
       <c r="C26">
-        <v>2.3675035928309423E-3</v>
+        <v>9.7980119012453046E-4</v>
       </c>
       <c r="D26">
-        <v>1.6481141668967067E-3</v>
+        <v>7.890393054541141E-4</v>
       </c>
       <c r="E26">
-        <v>1.4955084352900104E-3</v>
+        <v>6.1468386871725859E-4</v>
       </c>
       <c r="F26">
-        <v>1.4137158381751958E-3</v>
+        <v>6.3406961552445055E-4</v>
       </c>
       <c r="G26">
-        <v>2.6542329101295237E-3</v>
+        <v>1.0417410560017858E-3</v>
       </c>
       <c r="H26">
-        <v>2.1126484008043575E-3</v>
+        <v>8.8915383558879786E-4</v>
       </c>
       <c r="I26">
-        <v>2.6755565804577304E-3</v>
+        <v>1.0476120488228117E-3</v>
       </c>
       <c r="J26">
-        <v>4.221710038475884E-3</v>
+        <v>2.0064528268321771E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8.7099237295042034E-4</v>
+        <v>3.8474235940903057E-4</v>
       </c>
       <c r="B27">
-        <v>6.4442833580174112E-3</v>
+        <v>2.8769264408656132E-3</v>
       </c>
       <c r="C27">
-        <v>2.462884369374016E-3</v>
+        <v>1.0224500445128893E-3</v>
       </c>
       <c r="D27">
-        <v>1.6935186829320583E-3</v>
+        <v>8.1134530227844435E-4</v>
       </c>
       <c r="E27">
-        <v>1.5671631313303226E-3</v>
+        <v>6.4224221245004519E-4</v>
       </c>
       <c r="F27">
-        <v>1.4751670940115029E-3</v>
+        <v>6.615760029993179E-4</v>
       </c>
       <c r="G27">
-        <v>2.7660582838286625E-3</v>
+        <v>1.0846122145347541E-3</v>
       </c>
       <c r="H27">
-        <v>2.2039948872335331E-3</v>
+        <v>9.2707612902630872E-4</v>
       </c>
       <c r="I27">
-        <v>2.8123269512569538E-3</v>
+        <v>1.100619576605561E-3</v>
       </c>
       <c r="J27">
-        <v>4.3587491899371705E-3</v>
+        <v>2.0723896234991009E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8.8380877834625272E-4</v>
+        <v>3.9028680292415002E-4</v>
       </c>
       <c r="B28">
-        <v>6.4543761556512223E-3</v>
+        <v>2.8771872245367857E-3</v>
       </c>
       <c r="C28">
-        <v>2.5556829322475995E-3</v>
+        <v>1.0642350598498631E-3</v>
       </c>
       <c r="D28">
-        <v>1.7368027513367139E-3</v>
+        <v>8.3195574232348328E-4</v>
       </c>
       <c r="E28">
-        <v>1.6408255584799834E-3</v>
+        <v>6.7046668178322828E-4</v>
       </c>
       <c r="F28">
-        <v>1.5358050669510002E-3</v>
+        <v>6.8870804567139256E-4</v>
       </c>
       <c r="G28">
-        <v>2.8748898264032699E-3</v>
+        <v>1.1263581004322047E-3</v>
       </c>
       <c r="H28">
-        <v>2.2945542199274377E-3</v>
+        <v>9.6413653366496225E-4</v>
       </c>
       <c r="I28">
-        <v>2.9477291746573386E-3</v>
+        <v>1.152993759369035E-3</v>
       </c>
       <c r="J28">
-        <v>4.4878131726603914E-3</v>
+        <v>2.1343202918779145E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8.9512337392639424E-4</v>
+        <v>3.9517578095284384E-4</v>
       </c>
       <c r="B29">
-        <v>6.4248452712759255E-3</v>
+        <v>2.8605787924898488E-3</v>
       </c>
       <c r="C29">
-        <v>2.6460385978381621E-3</v>
+        <v>1.1051367699409789E-3</v>
       </c>
       <c r="D29">
-        <v>1.778366300662852E-3</v>
+        <v>8.5106019935878312E-4</v>
       </c>
       <c r="E29">
-        <v>1.7163481748739939E-3</v>
+        <v>6.9932556997482687E-4</v>
       </c>
       <c r="F29">
-        <v>1.5956855779468986E-3</v>
+        <v>7.1549397205508214E-4</v>
       </c>
       <c r="G29">
-        <v>2.981082992231873E-3</v>
+        <v>1.1671186817461502E-3</v>
       </c>
       <c r="H29">
-        <v>2.3842945153474235E-3</v>
+        <v>1.0003285939373862E-3</v>
       </c>
       <c r="I29">
-        <v>3.0815849084500514E-3</v>
+        <v>1.204665609757507E-3</v>
       </c>
       <c r="J29">
-        <v>4.6095017201783365E-3</v>
+        <v>2.1925374999181976E-3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9.0504947171727028E-4</v>
+        <v>3.9946049656978456E-4</v>
       </c>
       <c r="B30">
-        <v>6.3631784282449097E-3</v>
+        <v>2.8304443585866848E-3</v>
       </c>
       <c r="C30">
-        <v>2.7340901904442496E-3</v>
+        <v>1.1451272250354691E-3</v>
       </c>
       <c r="D30">
-        <v>1.8186714584522503E-3</v>
+        <v>8.6891262555385753E-4</v>
       </c>
       <c r="E30">
-        <v>1.7934415341621804E-3</v>
+        <v>7.2873892393920123E-4</v>
       </c>
       <c r="F30">
-        <v>1.6548611532061549E-3</v>
+        <v>7.4196021635356555E-4</v>
       </c>
       <c r="G30">
-        <v>3.0850815904506653E-3</v>
+        <v>1.2070673805936437E-3</v>
       </c>
       <c r="H30">
-        <v>2.4731560455996662E-3</v>
+        <v>1.0356540549320244E-3</v>
       </c>
       <c r="I30">
-        <v>3.2137125161290736E-3</v>
+        <v>1.2555662538193825E-3</v>
       </c>
       <c r="J30">
-        <v>4.724516427528456E-3</v>
+        <v>2.2473907455023458E-3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9.1374182497784464E-4</v>
+        <v>4.032106598054989E-4</v>
       </c>
       <c r="B31">
-        <v>6.2782149759233368E-3</v>
+        <v>2.7906879032769559E-3</v>
       </c>
       <c r="C31">
-        <v>2.8199713546369467E-3</v>
+        <v>1.1841682099466388E-3</v>
       </c>
       <c r="D31">
-        <v>1.858248574144528E-3</v>
+        <v>8.8584103046238929E-4</v>
       </c>
       <c r="E31">
-        <v>1.8716489980701049E-3</v>
+        <v>7.585702538486787E-4</v>
       </c>
       <c r="F31">
-        <v>1.7133820712016022E-3</v>
+        <v>7.6813194560144309E-4</v>
       </c>
       <c r="G31">
-        <v>3.1874186940696186E-3</v>
+        <v>1.2464114299290945E-3</v>
       </c>
       <c r="H31">
-        <v>2.5610471224754012E-3</v>
+        <v>1.0701228501791983E-3</v>
       </c>
       <c r="I31">
-        <v>3.3439268244287107E-3</v>
+        <v>1.3056270561245941E-3</v>
       </c>
       <c r="J31">
-        <v>4.8336560095303387E-3</v>
+        <v>2.2992836832819025E-3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>9.2139493840135399E-4</v>
+        <v>4.0651372755645307E-4</v>
       </c>
       <c r="B32">
-        <v>6.1801164174282858E-3</v>
+        <v>2.7457612046618935E-3</v>
       </c>
       <c r="C32">
-        <v>2.9038059339581081E-3</v>
+        <v>1.2222096654146883E-3</v>
       </c>
       <c r="D32">
-        <v>1.8976993454622203E-3</v>
+        <v>9.0225600645175237E-4</v>
       </c>
       <c r="E32">
-        <v>1.9503210029996334E-3</v>
+        <v>7.886179707193347E-4</v>
       </c>
       <c r="F32">
-        <v>1.7712971562034887E-3</v>
+        <v>7.9403346102993187E-4</v>
       </c>
       <c r="G32">
-        <v>3.2887161691229801E-3</v>
+        <v>1.2853916740906723E-3</v>
       </c>
       <c r="H32">
-        <v>2.6478400223034137E-3</v>
+        <v>1.1037529265137905E-3</v>
       </c>
       <c r="I32">
-        <v>3.4720391471553787E-3</v>
+        <v>1.3547798351159291E-3</v>
       </c>
       <c r="J32">
-        <v>4.9378116022264938E-3</v>
+        <v>2.3486714350388193E-3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>9.2824116070348091E-4</v>
+        <v>4.0947405033998159E-4</v>
       </c>
       <c r="B33">
-        <v>6.0803467894623439E-3</v>
+        <v>2.7006550367791246E-3</v>
       </c>
       <c r="C33">
-        <v>2.9857034836907942E-3</v>
+        <v>1.2591883517021733E-3</v>
       </c>
       <c r="D33">
-        <v>1.9376954796404737E-3</v>
+        <v>9.1865679978323585E-4</v>
       </c>
       <c r="E33">
-        <v>2.0285911885103512E-3</v>
+        <v>8.1860720865519561E-4</v>
       </c>
       <c r="F33">
-        <v>1.8286543914645377E-3</v>
+        <v>8.196885097726367E-4</v>
       </c>
       <c r="G33">
-        <v>3.3896826135455245E-3</v>
+        <v>1.3242817126760615E-3</v>
       </c>
       <c r="H33">
-        <v>2.7333673459346754E-3</v>
+        <v>1.1365699423805653E-3</v>
       </c>
       <c r="I33">
-        <v>3.5978576875719927E-3</v>
+        <v>1.4029572042723573E-3</v>
       </c>
       <c r="J33">
-        <v>5.0379621945754426E-3</v>
+        <v>2.3960579458351529E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9.3447055246253217E-4</v>
+        <v>4.1217685397588072E-4</v>
       </c>
       <c r="B34">
-        <v>5.9879435309210458E-3</v>
+        <v>2.6592748187636542E-3</v>
       </c>
       <c r="C34">
-        <v>3.0657169637660006E-3</v>
+        <v>1.295044253281735E-3</v>
       </c>
       <c r="D34">
-        <v>1.9787469604304743E-3</v>
+        <v>9.3545399520505968E-4</v>
       </c>
       <c r="E34">
-        <v>2.1056853081779436E-3</v>
+        <v>8.48288659749949E-4</v>
       </c>
       <c r="F34">
-        <v>1.8854329018337251E-3</v>
+        <v>8.4508828949501587E-4</v>
       </c>
       <c r="G34">
-        <v>3.4908283390451002E-3</v>
+        <v>1.3632772936122983E-3</v>
       </c>
       <c r="H34">
-        <v>2.8174798324508516E-3</v>
+        <v>1.1685999552227759E-3</v>
       </c>
       <c r="I34">
-        <v>3.721248122705868E-3</v>
+        <v>1.4501146513927661E-3</v>
       </c>
       <c r="J34">
-        <v>5.1349805066572638E-3</v>
+        <v>2.4418786832092177E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9.4014299086331277E-4</v>
+        <v>4.1464872524221263E-4</v>
       </c>
       <c r="B35">
-        <v>5.905484390366247E-3</v>
+        <v>2.622697677808687E-3</v>
       </c>
       <c r="C35">
-        <v>3.1438196777484055E-3</v>
+        <v>1.3297466592512251E-3</v>
       </c>
       <c r="D35">
-        <v>2.0209580719251232E-3</v>
+        <v>9.5276264667234828E-4</v>
       </c>
       <c r="E35">
-        <v>2.181331300750048E-3</v>
+        <v>8.7757190964867925E-4</v>
       </c>
       <c r="F35">
-        <v>1.9414858874062862E-3</v>
+        <v>8.701644061550886E-4</v>
       </c>
       <c r="G35">
-        <v>3.5921716245085212E-3</v>
+        <v>1.4023830019894937E-3</v>
       </c>
       <c r="H35">
-        <v>2.9001304475124333E-3</v>
+        <v>1.1998647695217108E-3</v>
       </c>
       <c r="I35">
-        <v>3.8422026908335374E-3</v>
+        <v>1.4962550943313263E-3</v>
       </c>
       <c r="J35">
-        <v>5.2294114618828243E-3</v>
+        <v>2.4863712053322723E-3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>9.452525863677E-4</v>
+        <v>4.1688656663752021E-4</v>
       </c>
       <c r="B36">
-        <v>5.8322183554648955E-3</v>
+        <v>2.5905530517568356E-3</v>
       </c>
       <c r="C36">
-        <v>3.2199642070422671E-3</v>
+        <v>1.3632887688029885E-3</v>
       </c>
       <c r="D36">
-        <v>2.0642246113589044E-3</v>
+        <v>9.705374427747878E-4</v>
       </c>
       <c r="E36">
-        <v>2.2555613749960009E-3</v>
+        <v>9.0646396896640975E-4</v>
       </c>
       <c r="F36">
-        <v>1.9966216703038997E-3</v>
+        <v>8.9482682737476043E-4</v>
       </c>
       <c r="G36">
-        <v>3.6934908524065653E-3</v>
+        <v>1.4415107024490002E-3</v>
       </c>
       <c r="H36">
-        <v>2.9813433751765752E-3</v>
+        <v>1.2303887741665176E-3</v>
       </c>
       <c r="I36">
-        <v>3.9607872638744903E-3</v>
+        <v>1.541408827739186E-3</v>
       </c>
       <c r="J36">
-        <v>5.3216094863811061E-3</v>
+        <v>2.5296646418328911E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9.4980082414512594E-4</v>
+        <v>4.1889047657633422E-4</v>
       </c>
       <c r="B37">
-        <v>5.7675027086046566E-3</v>
+        <v>2.5625227763186689E-3</v>
       </c>
       <c r="C37">
-        <v>3.2941235808411368E-3</v>
+        <v>1.3956729280455704E-3</v>
       </c>
       <c r="D37">
-        <v>2.1084443506003492E-3</v>
+        <v>9.88734673142481E-4</v>
       </c>
       <c r="E37">
-        <v>2.3284236293745625E-3</v>
+        <v>9.3497699625755509E-4</v>
       </c>
       <c r="F37">
-        <v>2.0506723001776847E-3</v>
+        <v>9.189962065622385E-4</v>
       </c>
       <c r="G37">
-        <v>3.7945852957634481E-3</v>
+        <v>1.480580660035126E-3</v>
       </c>
       <c r="H37">
-        <v>3.0611575777592399E-3</v>
+        <v>1.2602028515544138E-3</v>
       </c>
       <c r="I37">
-        <v>4.0770788511993398E-3</v>
+        <v>1.5856104890442876E-3</v>
       </c>
       <c r="J37">
-        <v>5.411906236544829E-3</v>
+        <v>2.5718825640157106E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9.5379631087694054E-4</v>
+        <v>4.2066363769587039E-4</v>
       </c>
       <c r="B38">
-        <v>5.7107890185025241E-3</v>
+        <v>2.5383342032782256E-3</v>
       </c>
       <c r="C38">
-        <v>3.3662891047076334E-3</v>
+        <v>1.4269096690354072E-3</v>
       </c>
       <c r="D38">
-        <v>2.1535164744546551E-3</v>
+        <v>1.0073119441655312E-3</v>
       </c>
       <c r="E38">
-        <v>2.3999806386655778E-3</v>
+        <v>9.631278115499152E-4</v>
       </c>
       <c r="F38">
-        <v>2.1034906662689774E-3</v>
+        <v>9.4260260942146995E-4</v>
       </c>
       <c r="G38">
-        <v>3.8952722669883763E-3</v>
+        <v>1.5195203812162919E-3</v>
       </c>
       <c r="H38">
-        <v>3.1396248735687873E-3</v>
+        <v>1.2893434790533958E-3</v>
       </c>
       <c r="I38">
-        <v>4.1911639420274607E-3</v>
+        <v>1.6288984006784834E-3</v>
       </c>
       <c r="J38">
-        <v>5.5006122786701783E-3</v>
+        <v>2.6131429181220963E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>9.57254530841233E-4</v>
+        <v>4.2221221034772827E-4</v>
       </c>
       <c r="B39">
-        <v>5.6616114158197454E-3</v>
+        <v>2.5177544410483377E-3</v>
       </c>
       <c r="C39">
-        <v>3.4364683923878052E-3</v>
+        <v>1.4570168306736371E-3</v>
       </c>
       <c r="D39">
-        <v>2.1993411274166012E-3</v>
+        <v>1.0262279405834046E-3</v>
       </c>
       <c r="E39">
-        <v>2.4703081465040229E-3</v>
+        <v>9.9093745794500386E-4</v>
       </c>
       <c r="F39">
-        <v>2.1549481928433839E-3</v>
+        <v>9.6558450760257425E-4</v>
       </c>
       <c r="G39">
-        <v>3.9953848250651788E-3</v>
+        <v>1.5582636818022707E-3</v>
       </c>
       <c r="H39">
-        <v>3.2168082288469351E-3</v>
+        <v>1.3178519300864396E-3</v>
       </c>
       <c r="I39">
-        <v>4.3031370464207824E-3</v>
+        <v>1.6713139945888102E-3</v>
       </c>
       <c r="J39">
-        <v>5.5880186706557264E-3</v>
+        <v>2.6535580249446747E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9.6019761031107434E-4</v>
+        <v>4.2354523061251199E-4</v>
       </c>
       <c r="B40">
-        <v>5.6195767679204835E-3</v>
+        <v>2.5005855264214668E-3</v>
       </c>
       <c r="C40">
-        <v>3.5046835733536673E-3</v>
+        <v>1.4860187513038991E-3</v>
       </c>
       <c r="D40">
-        <v>2.2458190632976866E-3</v>
+        <v>1.0454422294051715E-3</v>
       </c>
       <c r="E40">
-        <v>2.5394938489397482E-3</v>
+        <v>1.0184308018847813E-3</v>
       </c>
       <c r="F40">
-        <v>2.2049329661543459E-3</v>
+        <v>9.8788796791151614E-4</v>
       </c>
       <c r="G40">
-        <v>4.0947699189225976E-3</v>
+        <v>1.5967499322806639E-3</v>
       </c>
       <c r="H40">
-        <v>3.2927802359158246E-3</v>
+        <v>1.3457735625061243E-3</v>
       </c>
       <c r="I40">
-        <v>4.4130994086765737E-3</v>
+        <v>1.712901308042288E-3</v>
       </c>
       <c r="J40">
-        <v>5.6743984264609401E-3</v>
+        <v>2.6932346288662695E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>9.6265408911221421E-4</v>
+        <v>4.246745121130386E-4</v>
       </c>
       <c r="B41">
-        <v>5.5843564420310346E-3</v>
+        <v>2.4866603731212248E-3</v>
       </c>
       <c r="C41">
-        <v>3.5709696536613119E-3</v>
+        <v>1.5139455247460147E-3</v>
       </c>
       <c r="D41">
-        <v>2.2928513928456109E-3</v>
+        <v>1.0649151031329406E-3</v>
       </c>
       <c r="E41">
-        <v>2.6076362566418735E-3</v>
+        <v>1.0456361646464423E-3</v>
       </c>
       <c r="F41">
-        <v>2.2533481853078741E-3</v>
+        <v>1.0094659866003257E-3</v>
       </c>
       <c r="G41">
-        <v>4.1932868745102048E-3</v>
+        <v>1.6349234430768191E-3</v>
       </c>
       <c r="H41">
-        <v>3.3676217542930641E-3</v>
+        <v>1.3731571839507135E-3</v>
       </c>
       <c r="I41">
-        <v>4.5211578714957276E-3</v>
+        <v>1.7537065416232645E-3</v>
       </c>
       <c r="J41">
-        <v>5.7600078543059109E-3</v>
+        <v>2.7322739829567424E-3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9.6465869801255853E-4</v>
+        <v>4.2561455084238656E-4</v>
       </c>
       <c r="B42">
-        <v>5.5556794049298787E-3</v>
+        <v>2.4758393719509857E-3</v>
       </c>
       <c r="C42">
-        <v>3.6353730115654937E-3</v>
+        <v>1.5408323129287569E-3</v>
       </c>
       <c r="D42">
-        <v>2.3403394246914867E-3</v>
+        <v>1.0846074595687023E-3</v>
       </c>
       <c r="E42">
-        <v>2.6748436251993147E-3</v>
+        <v>1.0725849790772298E-3</v>
       </c>
       <c r="F42">
-        <v>2.3001108596150781E-3</v>
+        <v>1.030277932629056E-3</v>
       </c>
       <c r="G42">
-        <v>4.2908061545533539E-3</v>
+        <v>1.6727329609084515E-3</v>
       </c>
       <c r="H42">
-        <v>3.4414206950991767E-3</v>
+        <v>1.4000544853986919E-3</v>
       </c>
       <c r="I42">
-        <v>4.6274238725531793E-3</v>
+        <v>1.7937776716820853E-3</v>
       </c>
       <c r="J42">
-        <v>5.8450877657993125E-3</v>
+        <v>2.7707719595031592E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>9.6625214047461059E-4</v>
+        <v>4.2638243217572831E-4</v>
       </c>
       <c r="B43">
-        <v>5.5333264545357648E-3</v>
+        <v>2.4680075407347564E-3</v>
       </c>
       <c r="C43">
-        <v>3.6979500125604798E-3</v>
+        <v>1.5667187094852957E-3</v>
       </c>
       <c r="D43">
-        <v>2.3881845949391685E-3</v>
+        <v>1.1044807156971391E-3</v>
       </c>
       <c r="E43">
-        <v>2.7412329445543715E-3</v>
+        <v>1.0993114667503074E-3</v>
       </c>
       <c r="F43">
-        <v>2.3451506961901466E-3</v>
+        <v>1.0502890738191811E-3</v>
       </c>
       <c r="G43">
-        <v>4.3872083360289938E-3</v>
+        <v>1.710131253903333E-3</v>
       </c>
       <c r="H43">
-        <v>3.5142709320753747E-3</v>
+        <v>1.4265195354204951E-3</v>
       </c>
       <c r="I43">
-        <v>4.7320125578847339E-3</v>
+        <v>1.8331641106596787E-3</v>
       </c>
       <c r="J43">
-        <v>5.9298645572605294E-3</v>
+        <v>2.8088191777442496E-3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>9.6748087718358895E-4</v>
+        <v>4.2699773919569947E-4</v>
       </c>
       <c r="B44">
-        <v>5.5171254168212228E-3</v>
+        <v>2.4630721410665076E-3</v>
       </c>
       <c r="C44">
-        <v>3.7587657310925405E-3</v>
+        <v>1.5916481496231038E-3</v>
       </c>
       <c r="D44">
-        <v>2.436288480422065E-3</v>
+        <v>1.1244967532408948E-3</v>
       </c>
       <c r="E44">
-        <v>2.8069289798916164E-3</v>
+        <v>1.1258523316366419E-3</v>
       </c>
       <c r="F44">
-        <v>2.3884091364601997E-3</v>
+        <v>1.0694701668559465E-3</v>
       </c>
       <c r="G44">
-        <v>4.4823832623772774E-3</v>
+        <v>1.7470747679956098E-3</v>
       </c>
       <c r="H44">
-        <v>3.5862713249183008E-3</v>
+        <v>1.452608328652506E-3</v>
       </c>
       <c r="I44">
-        <v>4.8350419986932782E-3</v>
+        <v>1.8719164096343485E-3</v>
       </c>
       <c r="J44">
-        <v>6.0145511668716206E-3</v>
+        <v>2.8465011425396129E-3</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9.6839691167020987E-4</v>
+        <v>4.2748246143141383E-4</v>
       </c>
       <c r="B45">
-        <v>5.5069471723736768E-3</v>
+        <v>2.4609606941215076E-3</v>
       </c>
       <c r="C45">
-        <v>3.8178927682899991E-3</v>
+        <v>1.6156673623437751E-3</v>
       </c>
       <c r="D45">
-        <v>2.4845528901729086E-3</v>
+        <v>1.1446178935122318E-3</v>
       </c>
       <c r="E45">
-        <v>2.8720633573921656E-3</v>
+        <v>1.1522464671217037E-3</v>
       </c>
       <c r="F45">
-        <v>2.4298385108977956E-3</v>
+        <v>1.0877970971041031E-3</v>
       </c>
       <c r="G45">
-        <v>4.5762293365226858E-3</v>
+        <v>1.7835233407872328E-3</v>
       </c>
       <c r="H45">
-        <v>3.6575248425990904E-3</v>
+        <v>1.478378382861298E-3</v>
       </c>
       <c r="I45">
-        <v>4.9366324999729682E-3</v>
+        <v>1.9100859981962608E-3</v>
       </c>
       <c r="J45">
-        <v>6.0993479126041543E-3</v>
+        <v>2.8838983893460174E-3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>9.6905694121184667E-4</v>
+        <v>4.2786057866126697E-4</v>
       </c>
       <c r="B46">
-        <v>5.5026726495521882E-3</v>
+        <v>2.4616044489983919E-3</v>
       </c>
       <c r="C46">
-        <v>3.8753596254836385E-3</v>
+        <v>1.6388048482824046E-3</v>
       </c>
       <c r="D46">
-        <v>2.5328499185634911E-3</v>
+        <v>1.1647936036169157E-3</v>
       </c>
       <c r="E46">
-        <v>2.9367363446969556E-3</v>
+        <v>1.1785195629529157E-3</v>
       </c>
       <c r="F46">
-        <v>2.4693590767000066E-3</v>
+        <v>1.1052315784124019E-3</v>
       </c>
       <c r="G46">
-        <v>4.6685722265879465E-3</v>
+        <v>1.8194086155504682E-3</v>
       </c>
       <c r="H46">
-        <v>3.7280847661603379E-3</v>
+        <v>1.5038680690444809E-3</v>
       </c>
       <c r="I46">
-        <v>5.0368258783090444E-3</v>
+        <v>1.9476944551889844E-3</v>
       </c>
       <c r="J46">
-        <v>6.1843534295099268E-3</v>
+        <v>2.9210448364825592E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9.6952404291898698E-4</v>
+        <v>4.2815894159201013E-4</v>
       </c>
       <c r="B47">
-        <v>5.5042802797593254E-3</v>
+        <v>2.4649821235486619E-3</v>
       </c>
       <c r="C47">
-        <v>3.9313033070592415E-3</v>
+        <v>1.6611342980598499E-3</v>
       </c>
       <c r="D47">
-        <v>2.5811132801814361E-3</v>
+        <v>1.1850007616413653E-3</v>
       </c>
       <c r="E47">
-        <v>3.0011289347140731E-3</v>
+        <v>1.2047295240077583E-3</v>
       </c>
       <c r="F47">
-        <v>2.5069874530197329E-3</v>
+        <v>1.1217789302793118E-3</v>
       </c>
       <c r="G47">
-        <v>4.7594106854931505E-3</v>
+        <v>1.8547295102051089E-3</v>
       </c>
       <c r="H47">
-        <v>3.7981150059899827E-3</v>
+        <v>1.5291579839298297E-3</v>
       </c>
       <c r="I47">
-        <v>5.1358288372126103E-3</v>
+        <v>1.984826172046253E-3</v>
       </c>
       <c r="J47">
-        <v>6.2698390136601539E-3</v>
+        <v>2.9580554058110963E-3</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>9.6986617969068963E-4</v>
+        <v>4.2840652563490934E-4</v>
       </c>
       <c r="B48">
-        <v>5.5117818868399638E-3</v>
+        <v>2.471087778255057E-3</v>
       </c>
       <c r="C48">
-        <v>3.9858611915905649E-3</v>
+        <v>1.6827295570266386E-3</v>
       </c>
       <c r="D48">
-        <v>2.6292760656586628E-3</v>
+        <v>1.2052160611385361E-3</v>
       </c>
       <c r="E48">
-        <v>3.0654246500542688E-3</v>
+        <v>1.2309348930880331E-3</v>
       </c>
       <c r="F48">
-        <v>2.5427440358589538E-3</v>
+        <v>1.1374464085471523E-3</v>
       </c>
       <c r="G48">
-        <v>4.8487419035325293E-3</v>
+        <v>1.889484393130739E-3</v>
       </c>
       <c r="H48">
-        <v>3.8677773860618559E-3</v>
+        <v>1.5543277345078184E-3</v>
       </c>
       <c r="I48">
-        <v>5.2338413893345155E-3</v>
+        <v>2.0215630516517125E-3</v>
       </c>
       <c r="J48">
-        <v>6.3560561936528634E-3</v>
+        <v>2.9950362143147695E-3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>9.7015470845626043E-4</v>
+        <v>4.2863368502388683E-4</v>
       </c>
       <c r="B49">
-        <v>5.5251642281672151E-3</v>
+        <v>2.4799014874844578E-3</v>
       </c>
       <c r="C49">
-        <v>4.0390752715110416E-3</v>
+        <v>1.703624779874273E-3</v>
       </c>
       <c r="D49">
-        <v>2.677213154178181E-3</v>
+        <v>1.2253905349896973E-3</v>
       </c>
       <c r="E49">
-        <v>3.1297367918677807E-3</v>
+        <v>1.2571654681028045E-3</v>
       </c>
       <c r="F49">
-        <v>2.5765757250522997E-3</v>
+        <v>1.152208518319037E-3</v>
       </c>
       <c r="G49">
-        <v>4.936412737958207E-3</v>
+        <v>1.9236132718912589E-3</v>
       </c>
       <c r="H49">
-        <v>3.9371311922110543E-3</v>
+        <v>1.5794174033413294E-3</v>
       </c>
       <c r="I49">
-        <v>5.3309072659951696E-3</v>
+        <v>2.0579275460954759E-3</v>
       </c>
       <c r="J49">
-        <v>6.4430712326898256E-3</v>
+        <v>3.0320076189018987E-3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9.7046573974723591E-4</v>
+        <v>4.2887436641699493E-4</v>
       </c>
       <c r="B50">
-        <v>5.5431035812899612E-3</v>
+        <v>2.4908498905758616E-3</v>
       </c>
       <c r="C50">
-        <v>4.0933633363252567E-3</v>
+        <v>1.7249237836095995E-3</v>
       </c>
       <c r="D50">
-        <v>2.725996202425386E-3</v>
+        <v>1.2459850756849134E-3</v>
       </c>
       <c r="E50">
-        <v>3.1952398749343757E-3</v>
+        <v>1.2838814053242156E-3</v>
       </c>
       <c r="F50">
-        <v>2.6107741033808258E-3</v>
+        <v>1.1671252886195935E-3</v>
       </c>
       <c r="G50">
-        <v>5.0254284431640326E-3</v>
+        <v>1.9582758840638852E-3</v>
       </c>
       <c r="H50">
-        <v>4.0079208661685821E-3</v>
+        <v>1.605118468452502E-3</v>
       </c>
       <c r="I50">
-        <v>5.4297404688957492E-3</v>
+        <v>2.0949781589777693E-3</v>
       </c>
       <c r="J50">
-        <v>6.5334025856995919E-3</v>
+        <v>3.0703956166286423E-3</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9.7083811157390844E-4</v>
+        <v>4.2914663221693081E-4</v>
       </c>
       <c r="B51">
-        <v>5.5642198123899032E-3</v>
+        <v>2.5033379763526532E-3</v>
       </c>
       <c r="C51">
-        <v>4.1509982079256597E-3</v>
+        <v>1.7476578289718049E-3</v>
       </c>
       <c r="D51">
-        <v>2.7767288707994304E-3</v>
+        <v>1.2674696182699285E-3</v>
       </c>
       <c r="E51">
-        <v>3.2630113130300621E-3</v>
+        <v>1.3115118664128996E-3</v>
       </c>
       <c r="F51">
-        <v>2.6475012240651128E-3</v>
+        <v>1.1831964436425E-3</v>
       </c>
       <c r="G51">
-        <v>5.1186869719137855E-3</v>
+        <v>1.9945909575979988E-3</v>
       </c>
       <c r="H51">
-        <v>4.0817696778414842E-3</v>
+        <v>1.6320641247415113E-3</v>
       </c>
       <c r="I51">
-        <v>5.5328776169444871E-3</v>
+        <v>2.1337003179187591E-3</v>
       </c>
       <c r="J51">
-        <v>6.6293126912525639E-3</v>
+        <v>3.1115016777440727E-3</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>9.7127158051339203E-4</v>
+        <v>4.2945039644189012E-4</v>
       </c>
       <c r="B52">
-        <v>5.5884170889622222E-3</v>
+        <v>2.5173195404343683E-3</v>
       </c>
       <c r="C52">
-        <v>4.211849938585018E-3</v>
+        <v>1.7717680007462832E-3</v>
       </c>
       <c r="D52">
-        <v>2.8293730262192594E-3</v>
+        <v>1.2898248650025053E-3</v>
       </c>
       <c r="E52">
-        <v>3.3330221153394591E-3</v>
+        <v>1.3400454484692214E-3</v>
       </c>
       <c r="F52">
-        <v>2.6866131539533553E-3</v>
+        <v>1.2003538623422847E-3</v>
       </c>
       <c r="G52">
-        <v>5.2160057154298405E-3</v>
+        <v>2.0324875372687385E-3</v>
       </c>
       <c r="H52">
-        <v>4.1585914419167693E-3</v>
+        <v>1.6602159577322189E-3</v>
       </c>
       <c r="I52">
-        <v>5.6401742430001647E-3</v>
+        <v>2.1740367428520271E-3</v>
       </c>
       <c r="J52">
-        <v>6.7305608892417757E-3</v>
+        <v>3.1551972145175927E-3</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>9.7176590450468228E-4</v>
+        <v>4.2978557365782943E-4</v>
       </c>
       <c r="B53">
-        <v>5.6156064428767097E-3</v>
+        <v>2.5327517732866628E-3</v>
       </c>
       <c r="C53">
-        <v>4.2758019516447544E-3</v>
+        <v>1.7972014985278659E-3</v>
       </c>
       <c r="D53">
-        <v>2.8838937190952649E-3</v>
+        <v>1.3130331330334043E-3</v>
       </c>
       <c r="E53">
-        <v>3.4052454895595087E-3</v>
+        <v>1.3694716126985979E-3</v>
       </c>
       <c r="F53">
-        <v>2.7279842686609205E-3</v>
+        <v>1.2185382121403889E-3</v>
       </c>
       <c r="G53">
-        <v>5.3172243629181683E-3</v>
+        <v>2.0719033176571718E-3</v>
       </c>
       <c r="H53">
-        <v>4.2383084174906537E-3</v>
+        <v>1.6895392908169078E-3</v>
       </c>
       <c r="I53">
-        <v>5.7515015918551465E-3</v>
+        <v>2.2159363441699421E-3</v>
       </c>
       <c r="J53">
-        <v>6.8369330705104177E-3</v>
+        <v>3.2013681137292656E-3</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>9.7434642690848779E-4</v>
+        <v>4.3143854175098535E-4</v>
       </c>
       <c r="B54">
-        <v>5.7526818517020413E-3</v>
+        <v>2.6082203022891235E-3</v>
       </c>
       <c r="C54">
-        <v>4.560636546388175E-3</v>
+        <v>1.9112746255473068E-3</v>
       </c>
       <c r="D54">
-        <v>3.1201377788872956E-3</v>
+        <v>1.4140896358655361E-3</v>
       </c>
       <c r="E54">
-        <v>3.7158060779948362E-3</v>
+        <v>1.4959220187147791E-3</v>
       </c>
       <c r="F54">
-        <v>2.9140156487068641E-3</v>
+        <v>1.3005822266382945E-3</v>
       </c>
       <c r="G54">
-        <v>5.7584626873476343E-3</v>
+        <v>2.243733903939E-3</v>
       </c>
       <c r="H54">
-        <v>4.5848047216399974E-3</v>
+        <v>1.8179557454919837E-3</v>
       </c>
       <c r="I54">
-        <v>6.2349586472707236E-3</v>
+        <v>2.3983086907833741E-3</v>
       </c>
       <c r="J54">
-        <v>7.3100755008102787E-3</v>
+        <v>3.4089005650093326E-3</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>9.7788144962064898E-4</v>
+        <v>4.3358732793701108E-4</v>
       </c>
       <c r="B55">
-        <v>5.9319271880493183E-3</v>
+        <v>2.7041688490871568E-3</v>
       </c>
       <c r="C55">
-        <v>4.888262767959119E-3</v>
+        <v>2.0434441045359044E-3</v>
       </c>
       <c r="D55">
-        <v>3.3842336340966159E-3</v>
+        <v>1.5276969924936973E-3</v>
       </c>
       <c r="E55">
-        <v>4.0600546702080041E-3</v>
+        <v>1.6359794839683956E-3</v>
       </c>
       <c r="F55">
-        <v>3.1293579725919793E-3</v>
+        <v>1.3958455555289613E-3</v>
       </c>
       <c r="G55">
-        <v>6.2532412697514526E-3</v>
+        <v>2.4364268837772816E-3</v>
       </c>
       <c r="H55">
-        <v>4.9730068718166053E-3</v>
+        <v>1.9630539266738745E-3</v>
       </c>
       <c r="I55">
-        <v>6.7755040856150878E-3</v>
+        <v>2.6027488589833235E-3</v>
       </c>
       <c r="J55">
-        <v>7.8529612488622801E-3</v>
+        <v>3.6495601445078528E-3</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>9.8235597519919123E-4</v>
+        <v>4.3622664129434684E-4</v>
       </c>
       <c r="B56">
-        <v>6.1499106882580848E-3</v>
+        <v>2.8189643315511921E-3</v>
       </c>
       <c r="C56">
-        <v>5.2550541474939323E-3</v>
+        <v>2.1920762323388914E-3</v>
       </c>
       <c r="D56">
-        <v>3.6749446433378351E-3</v>
+        <v>1.653230251329873E-3</v>
       </c>
       <c r="E56">
-        <v>4.4369896970525655E-3</v>
+        <v>1.789249904090285E-3</v>
       </c>
       <c r="F56">
-        <v>3.3706719206828381E-3</v>
+        <v>1.5027689478791498E-3</v>
       </c>
       <c r="G56">
-        <v>6.7971824788959512E-3</v>
+        <v>2.6482786085358779E-3</v>
       </c>
       <c r="H56">
-        <v>5.4004254406343271E-3</v>
+        <v>2.1237170221246496E-3</v>
       </c>
       <c r="I56">
-        <v>7.3693039203615966E-3</v>
+        <v>2.8277276538494251E-3</v>
       </c>
       <c r="J56">
-        <v>8.4592504589517566E-3</v>
+        <v>3.9200150848498387E-3</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9.8775517495712679E-4</v>
+        <v>4.3935122810704897E-4</v>
       </c>
       <c r="B57">
-        <v>6.4039583493688363E-3</v>
+        <v>2.9513396912636864E-3</v>
       </c>
       <c r="C57">
-        <v>5.6584603582452674E-3</v>
+        <v>2.3560247930331036E-3</v>
       </c>
       <c r="D57">
-        <v>3.9913455589459228E-3</v>
+        <v>1.7902224461360783E-3</v>
       </c>
       <c r="E57">
-        <v>4.8458383696129139E-3</v>
+        <v>1.9554290761820271E-3</v>
       </c>
       <c r="F57">
-        <v>3.6357694118337898E-3</v>
+        <v>1.6203357549070025E-3</v>
       </c>
       <c r="G57">
-        <v>7.3873923107477257E-3</v>
+        <v>2.8781621238646053E-3</v>
       </c>
       <c r="H57">
-        <v>5.8652878141074484E-3</v>
+        <v>2.2991476205645725E-3</v>
       </c>
       <c r="I57">
-        <v>8.0137212091033645E-3</v>
+        <v>3.0721905383261027E-3</v>
       </c>
       <c r="J57">
-        <v>9.124585500405645E-3</v>
+        <v>4.2179894821465285E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>9.9405969765645284E-4</v>
+        <v>4.4295340815167175E-4</v>
       </c>
       <c r="B58">
-        <v>6.6917148330290699E-3</v>
+        <v>3.1001767818287828E-3</v>
       </c>
       <c r="C58">
-        <v>6.0962986301336675E-3</v>
+        <v>2.5343222877454536E-3</v>
       </c>
       <c r="D58">
-        <v>4.332502951340465E-3</v>
+        <v>1.9382170275196947E-3</v>
       </c>
       <c r="E58">
-        <v>5.2857213958900917E-3</v>
+        <v>2.1341676744946565E-3</v>
       </c>
       <c r="F58">
-        <v>3.9229167126207621E-3</v>
+        <v>1.7477473328673875E-3</v>
       </c>
       <c r="G58">
-        <v>8.0213840044559091E-3</v>
+        <v>3.1251087316463621E-3</v>
       </c>
       <c r="H58">
-        <v>6.3659394293082445E-3</v>
+        <v>2.4886235035829454E-3</v>
       </c>
       <c r="I58">
-        <v>8.7063678781947023E-3</v>
+        <v>3.3351908600591264E-3</v>
       </c>
       <c r="J58">
-        <v>9.8453056244635542E-3</v>
+        <v>4.5416138589820035E-3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1.0012595530727347E-3</v>
+        <v>4.4703032405148953E-4</v>
       </c>
       <c r="B59">
-        <v>7.011711286119598E-3</v>
+        <v>3.2647896008713238E-3</v>
       </c>
       <c r="C59">
-        <v>6.567552885435422E-3</v>
+        <v>2.7265026245524055E-3</v>
       </c>
       <c r="D59">
-        <v>4.6980892177476141E-3</v>
+        <v>2.097036387923345E-3</v>
       </c>
       <c r="E59">
-        <v>5.7564123896713332E-3</v>
+        <v>2.3253793147571247E-3</v>
       </c>
       <c r="F59">
-        <v>4.2313298568858381E-3</v>
+        <v>1.8846391430778243E-3</v>
       </c>
       <c r="G59">
-        <v>8.6982953339365954E-3</v>
+        <v>3.3887819758993357E-3</v>
       </c>
       <c r="H59">
-        <v>6.9017775254079389E-3</v>
+        <v>2.6918482155970556E-3</v>
       </c>
       <c r="I59">
-        <v>9.4464240131536294E-3</v>
+        <v>3.616387573016207E-3</v>
       </c>
       <c r="J59">
-        <v>1.0619761558631896E-2</v>
+        <v>4.890004761088574E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1.0093447738866394E-3</v>
+        <v>4.5157906180404259E-4</v>
       </c>
       <c r="B60">
-        <v>7.3627749205902203E-3</v>
+        <v>3.444632828283202E-3</v>
       </c>
       <c r="C60">
-        <v>7.0715071057852828E-3</v>
+        <v>2.9322356997465672E-3</v>
       </c>
       <c r="D60">
-        <v>5.0878724440837388E-3</v>
+        <v>2.2665526198166123E-3</v>
       </c>
       <c r="E60">
-        <v>6.2577538673395773E-3</v>
+        <v>2.5290044462137093E-3</v>
       </c>
       <c r="F60">
-        <v>4.5604878942634109E-3</v>
+        <v>2.030769164930109E-3</v>
       </c>
       <c r="G60">
-        <v>9.4175961749293456E-3</v>
+        <v>3.6689747455921498E-3</v>
       </c>
       <c r="H60">
-        <v>7.4723967011373878E-3</v>
+        <v>2.9086161116028287E-3</v>
       </c>
       <c r="I60">
-        <v>1.0233367554189497E-2</v>
+        <v>3.9155596036067599E-3</v>
       </c>
       <c r="J60">
-        <v>1.1446820249484412E-2</v>
+        <v>5.262551496356775E-3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1.0182961375696832E-3</v>
+        <v>4.5659176476918608E-4</v>
       </c>
       <c r="B61">
-        <v>7.7435039062537262E-3</v>
+        <v>3.6390418920230162E-3</v>
       </c>
       <c r="C61">
-        <v>7.6070101228229289E-3</v>
+        <v>3.1510194610030618E-3</v>
       </c>
       <c r="D61">
-        <v>5.5012542735745438E-3</v>
+        <v>2.4464810204432295E-3</v>
       </c>
       <c r="E61">
-        <v>6.7891149119139894E-3</v>
+        <v>2.7447909137692014E-3</v>
       </c>
       <c r="F61">
-        <v>4.9095844549083842E-3</v>
+        <v>2.1857705584431763E-3</v>
       </c>
       <c r="G61">
-        <v>1.0178020100833823E-2</v>
+        <v>3.9651933856049903E-3</v>
       </c>
       <c r="H61">
-        <v>8.0768419987109624E-3</v>
+        <v>3.1385210657781E-3</v>
       </c>
       <c r="I61">
-        <v>1.1065889338871624E-2</v>
+        <v>4.2321912947676553E-3</v>
       </c>
       <c r="J61">
-        <v>1.232461732709531E-2</v>
+        <v>5.6583287773192738E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1.0281034132968228E-3</v>
+        <v>4.6206520408954556E-4</v>
       </c>
       <c r="B62">
-        <v>8.1531218053958708E-3</v>
+        <v>3.8476588173419436E-3</v>
       </c>
       <c r="C62">
-        <v>8.1737090742126754E-3</v>
+        <v>3.38268858367681E-3</v>
       </c>
       <c r="D62">
-        <v>5.9381180336227331E-3</v>
+        <v>2.6367545024967519E-3</v>
       </c>
       <c r="E62">
-        <v>7.3504159840866914E-3</v>
+        <v>2.9727092565464061E-3</v>
       </c>
       <c r="F62">
-        <v>5.278402618113574E-3</v>
+        <v>2.3495424786585E-3</v>
       </c>
       <c r="G62">
-        <v>1.0979419734836713E-2</v>
+        <v>4.2773799060392007E-3</v>
       </c>
       <c r="H62">
-        <v>8.7149434999554635E-3</v>
+        <v>3.3814670548593974E-3</v>
       </c>
       <c r="I62">
-        <v>1.1943816362837383E-2</v>
+        <v>4.5662027018269005E-3</v>
       </c>
       <c r="J62">
-        <v>1.3252634760030973E-2</v>
+        <v>6.0770506725728373E-3</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1.0892577612202923E-3</v>
+        <v>4.9603426542333046E-4</v>
       </c>
       <c r="B63">
-        <v>1.059603816572768E-2</v>
+        <v>5.0854934097948716E-3</v>
       </c>
       <c r="C63">
-        <v>1.1440847701001112E-2</v>
+        <v>4.7196767869725972E-3</v>
       </c>
       <c r="D63">
-        <v>8.4540894003810249E-3</v>
+        <v>3.7338123751630061E-3</v>
       </c>
       <c r="E63">
-        <v>1.0582684752136497E-2</v>
+        <v>4.2848957809203062E-3</v>
       </c>
       <c r="F63">
-        <v>7.3951012672229324E-3</v>
+        <v>3.2894988991746771E-3</v>
       </c>
       <c r="G63">
-        <v>1.5559533192927581E-2</v>
+        <v>6.0616518391390884E-3</v>
       </c>
       <c r="H63">
-        <v>1.2378503417287639E-2</v>
+        <v>4.7788600002204185E-3</v>
       </c>
       <c r="I63">
-        <v>1.6970752530964934E-2</v>
+        <v>6.4799685598307113E-3</v>
       </c>
       <c r="J63">
-        <v>1.8590413337338428E-2</v>
+        <v>8.4881170167958059E-3</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1.1694543080925136E-3</v>
+        <v>5.4052627699590749E-4</v>
       </c>
       <c r="B64">
-        <v>1.3657108469035988E-2</v>
+        <v>6.6293436613213685E-3</v>
       </c>
       <c r="C64">
-        <v>1.5415563836823345E-2</v>
+        <v>6.347671726035121E-3</v>
       </c>
       <c r="D64">
-        <v>1.1511483574141097E-2</v>
+        <v>5.0683142096554536E-3</v>
       </c>
       <c r="E64">
-        <v>1.4509679479477167E-2</v>
+        <v>5.8787926242316723E-3</v>
       </c>
       <c r="F64">
-        <v>9.9610147192893041E-3</v>
+        <v>4.4290057134329514E-3</v>
       </c>
       <c r="G64">
-        <v>2.1091641253289793E-2</v>
+        <v>8.2168668785919958E-3</v>
       </c>
       <c r="H64">
-        <v>1.6819146003710449E-2</v>
+        <v>6.4753322494677081E-3</v>
       </c>
       <c r="I64">
-        <v>2.3050841114068077E-2</v>
+        <v>8.7959331128643192E-3</v>
       </c>
       <c r="J64">
-        <v>2.5071814355737652E-2</v>
+        <v>1.1418655054024285E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1.3786125679067637E-3</v>
+        <v>6.5706357845603518E-4</v>
       </c>
       <c r="B65">
-        <v>2.1357921770610154E-2</v>
+        <v>1.0502218070645419E-2</v>
       </c>
       <c r="C65">
-        <v>2.523765561278014E-2</v>
+        <v>1.0372450278528622E-2</v>
       </c>
       <c r="D65">
-        <v>1.9067202141861767E-2</v>
+        <v>8.3679772465658393E-3</v>
       </c>
       <c r="E65">
-        <v>2.4216593476123961E-2</v>
+        <v>9.8182079412848372E-3</v>
       </c>
       <c r="F65">
-        <v>1.628586631473642E-2</v>
+        <v>7.2378072949558156E-3</v>
       </c>
       <c r="G65">
-        <v>3.4703738159339692E-2</v>
+        <v>1.3520025263849029E-2</v>
       </c>
       <c r="H65">
-        <v>2.7772457471301887E-2</v>
+        <v>1.0663426795791575E-2</v>
       </c>
       <c r="I65">
-        <v>3.8026352908663894E-2</v>
+        <v>1.4501998104815016E-2</v>
       </c>
       <c r="J65">
-        <v>4.1068403512764431E-2</v>
+        <v>1.8654631950425774E-2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1.6424251016548706E-3</v>
+        <v>8.0491887430303823E-4</v>
       </c>
       <c r="B66">
-        <v>3.0920183735587678E-2</v>
+        <v>1.5304445236930173E-2</v>
       </c>
       <c r="C66">
-        <v>3.7361623311270624E-2</v>
+        <v>1.5342180330198876E-2</v>
       </c>
       <c r="D66">
-        <v>2.8374867124388421E-2</v>
+        <v>1.2434514768051706E-2</v>
       </c>
       <c r="E66">
-        <v>3.6163037739928558E-2</v>
+        <v>1.4666134129180403E-2</v>
       </c>
       <c r="F66">
-        <v>2.4097855298000868E-2</v>
+        <v>1.070746128666532E-2</v>
       </c>
       <c r="G66">
-        <v>5.1494654330786233E-2</v>
+        <v>2.0061598634092341E-2</v>
       </c>
       <c r="H66">
-        <v>4.1272809511099379E-2</v>
+        <v>1.5827693554127446E-2</v>
       </c>
       <c r="I66">
-        <v>5.6488454161756629E-2</v>
+        <v>2.153723936658148E-2</v>
       </c>
       <c r="J66">
-        <v>6.0814338604683826E-2</v>
+        <v>2.7591241276413356E-2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1.9479421426486913E-3</v>
+        <v>9.7689335485677303E-4</v>
       </c>
       <c r="B67">
-        <v>4.1963899889813278E-2</v>
+        <v>2.0848313994575034E-2</v>
       </c>
       <c r="C67">
-        <v>5.1362622635777129E-2</v>
+        <v>2.1082436405505649E-2</v>
       </c>
       <c r="D67">
-        <v>3.9102669747305821E-2</v>
+        <v>1.7122727240321382E-2</v>
       </c>
       <c r="E67">
-        <v>4.9918709404233867E-2</v>
+        <v>2.0248044068191643E-2</v>
       </c>
       <c r="F67">
-        <v>3.3131157775524112E-2</v>
+        <v>1.4720024749266366E-2</v>
       </c>
       <c r="G67">
-        <v>7.0897413233318815E-2</v>
+        <v>2.7620644343697199E-2</v>
       </c>
       <c r="H67">
-        <v>5.6850222861922768E-2</v>
+        <v>2.1787467225925141E-2</v>
       </c>
       <c r="I67">
-        <v>7.7804783300318398E-2</v>
+        <v>2.9660141515214476E-2</v>
       </c>
       <c r="J67">
-        <v>8.362623916556905E-2</v>
+        <v>3.7919102383794041E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2.4602445230878719E-3</v>
+        <v>1.2662327370035684E-3</v>
       </c>
       <c r="B68">
-        <v>6.0496659949579396E-2</v>
+        <v>3.0150407980366327E-2</v>
       </c>
       <c r="C68">
-        <v>7.4886442438231476E-2</v>
+        <v>3.0728219799466272E-2</v>
       </c>
       <c r="D68">
-        <v>5.7097577748038204E-2</v>
+        <v>2.4988199577582595E-2</v>
       </c>
       <c r="E68">
-        <v>7.2973084523110354E-2</v>
+        <v>2.9603054514119147E-2</v>
       </c>
       <c r="F68">
-        <v>4.8327578778034744E-2</v>
+        <v>2.1470883429030477E-2</v>
       </c>
       <c r="G68">
-        <v>0.10352339055316652</v>
+        <v>4.0331149718806893E-2</v>
       </c>
       <c r="H68">
-        <v>8.3007633366460748E-2</v>
+        <v>3.1795839343726838E-2</v>
       </c>
       <c r="I68">
-        <v>0.11362167840934881</v>
+        <v>4.3308448154149949E-2</v>
       </c>
       <c r="J68">
-        <v>0.1219693825285261</v>
+        <v>5.5283181500564951E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3.3987736069620391E-3</v>
+        <v>1.7977138995707417E-3</v>
       </c>
       <c r="B69">
-        <v>9.4533421832056666E-2</v>
+        <v>4.7234223513978407E-2</v>
       </c>
       <c r="C69">
-        <v>0.11816676042217766</v>
+        <v>4.8476985206895105E-2</v>
       </c>
       <c r="D69">
-        <v>9.0154231886174621E-2</v>
+        <v>3.9439289765580671E-2</v>
       </c>
       <c r="E69">
-        <v>0.11528975300018303</v>
+        <v>4.6774017751570009E-2</v>
       </c>
       <c r="F69">
-        <v>7.6322296056971023E-2</v>
+        <v>3.390840928625357E-2</v>
       </c>
       <c r="G69">
-        <v>0.1636046265577161</v>
+        <v>6.3737510057219768E-2</v>
       </c>
       <c r="H69">
-        <v>0.13111020094561746</v>
+        <v>5.0201741965839042E-2</v>
       </c>
       <c r="I69">
-        <v>0.17953042482986897</v>
+        <v>6.8422805014395086E-2</v>
       </c>
       <c r="J69">
-        <v>0.19254523434383705</v>
+        <v>8.7251716163363954E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4.3923339376864276E-3</v>
+        <v>2.3611821074951155E-3</v>
       </c>
       <c r="B70">
-        <v>0.13065672926290484</v>
+        <v>6.5365993484830479E-2</v>
       </c>
       <c r="C70">
-        <v>0.16416799436528728</v>
+        <v>6.7342914542178681E-2</v>
       </c>
       <c r="D70">
-        <v>0.12525131523552682</v>
+        <v>5.4783897749356006E-2</v>
       </c>
       <c r="E70">
-        <v>0.16019321448171664</v>
+        <v>6.4994436615795403E-2</v>
       </c>
       <c r="F70">
-        <v>0.10610416861092815</v>
+        <v>4.7140789139461819E-2</v>
       </c>
       <c r="G70">
-        <v>0.22750640324673418</v>
+        <v>8.8632095119244164E-2</v>
       </c>
       <c r="H70">
-        <v>0.1822209473207837</v>
+        <v>6.9759115913555478E-2</v>
       </c>
       <c r="I70">
-        <v>0.24959360131016989</v>
+        <v>9.5119595169650351E-2</v>
       </c>
       <c r="J70">
-        <v>0.26758142472931634</v>
+        <v>0.12124602804552966</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5.4074050677298067E-3</v>
+        <v>2.9372287381967893E-3</v>
       </c>
       <c r="B71">
-        <v>0.1675816055598327</v>
+        <v>8.3900395622394014E-2</v>
       </c>
       <c r="C71">
-        <v>0.21121046660912435</v>
+        <v>8.6636251219598004E-2</v>
       </c>
       <c r="D71">
-        <v>0.1611320032538528</v>
+        <v>7.0471527242192564E-2</v>
       </c>
       <c r="E71">
-        <v>0.20609200296589</v>
+        <v>8.3618675174793725E-2</v>
       </c>
       <c r="F71">
-        <v>0.13656806385522641</v>
+        <v>6.0676444448507033E-2</v>
       </c>
       <c r="G71">
-        <v>0.29286739222330505</v>
+        <v>0.11409510277247092</v>
       </c>
       <c r="H71">
-        <v>0.23448414288212299</v>
+        <v>8.9757574251443178E-2</v>
       </c>
       <c r="I71">
-        <v>0.32124607495400875</v>
+        <v>0.12242178711848239</v>
       </c>
       <c r="J71">
-        <v>0.34432290067022753</v>
+        <v>0.15601443074205698</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>6.4299404304235773E-3</v>
+        <v>3.5177079727158099E-3</v>
       </c>
       <c r="B72">
-        <v>0.20477709815335293</v>
+        <v>0.10257072693600541</v>
       </c>
       <c r="C72">
-        <v>0.25860296114029208</v>
+        <v>0.10607323516530123</v>
       </c>
       <c r="D72">
-        <v>0.19727693992552831</v>
+        <v>8.6274797165033862E-2</v>
       </c>
       <c r="E72">
-        <v>0.25232700270020114</v>
+        <v>0.10237932442455328</v>
       </c>
       <c r="F72">
-        <v>0.16726063335768782</v>
+        <v>7.4313766014606722E-2</v>
       </c>
       <c r="G72">
-        <v>0.35871796686717461</v>
+        <v>0.13974882777788555</v>
       </c>
       <c r="H72">
-        <v>0.28713509933145409</v>
+        <v>0.10990443345417954</v>
       </c>
       <c r="I72">
-        <v>0.39343257490435651</v>
+        <v>0.14992741560665152</v>
       </c>
       <c r="J72">
-        <v>0.42163711348428412</v>
+        <v>0.19104270098989268</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7.4541830507812191E-3</v>
+        <v>4.0992691980790141E-3</v>
       </c>
       <c r="B73">
-        <v>0.24203045600800605</v>
+        <v>0.1212701336950163</v>
       </c>
       <c r="C73">
-        <v>0.30607040225110083</v>
+        <v>0.12554097852961557</v>
       </c>
       <c r="D73">
-        <v>0.23347840628766953</v>
+        <v>0.10210280782231146</v>
       </c>
       <c r="E73">
-        <v>0.29863389229385373</v>
+        <v>0.12116914130262857</v>
       </c>
       <c r="F73">
-        <v>0.19800220605054308</v>
+        <v>8.7972875104690693E-2</v>
       </c>
       <c r="G73">
-        <v>0.42467343797383239</v>
+        <v>0.16544341478537519</v>
       </c>
       <c r="H73">
-        <v>0.339869063773789</v>
+        <v>0.13008306151721544</v>
       </c>
       <c r="I73">
-        <v>0.46573344095479458</v>
+        <v>0.17747661074576937</v>
       </c>
       <c r="J73">
-        <v>0.49907399496563559</v>
+        <v>0.22612663673687744</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>8.4777963018075313E-3</v>
+        <v>4.6805431415828155E-3</v>
       </c>
       <c r="B74">
-        <v>0.27925721877098031</v>
+        <v>0.13995620231675732</v>
       </c>
       <c r="C74">
-        <v>0.35350421317051944</v>
+        <v>0.14499493394380644</v>
       </c>
       <c r="D74">
-        <v>0.26965408823034942</v>
+        <v>0.11791955060141561</v>
       </c>
       <c r="E74">
-        <v>0.34490770885925975</v>
+        <v>0.13994553761942516</v>
       </c>
       <c r="F74">
-        <v>0.22872209960221629</v>
+        <v>0.1016223548393773</v>
       </c>
       <c r="G74">
-        <v>0.49058234530482681</v>
+        <v>0.19111986106730741</v>
       </c>
       <c r="H74">
-        <v>0.3925656121071216</v>
+        <v>0.15024737388344261</v>
       </c>
       <c r="I74">
-        <v>0.53798312852362051</v>
+        <v>0.20500630273900236</v>
       </c>
       <c r="J74">
-        <v>0.57645610073237441</v>
+        <v>0.26118577473740479</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>9.4998519745860561E-3</v>
+        <v>5.2609789266894703E-3</v>
       </c>
       <c r="B75">
-        <v>0.31642460038463438</v>
+        <v>0.15861247002847567</v>
       </c>
       <c r="C75">
-        <v>0.4008624102013279</v>
+        <v>0.16441787899167085</v>
       </c>
       <c r="D75">
-        <v>0.30577207416499719</v>
+        <v>0.13371106885169526</v>
       </c>
       <c r="E75">
-        <v>0.39110770472089107</v>
+        <v>0.15869197979887756</v>
       </c>
       <c r="F75">
-        <v>0.25939304412206882</v>
+        <v>0.11525008617951614</v>
       </c>
       <c r="G75">
-        <v>0.55638622261411275</v>
+        <v>0.21675539016652537</v>
       </c>
       <c r="H75">
-        <v>0.4451781458594557</v>
+        <v>0.17037953864646205</v>
       </c>
       <c r="I75">
-        <v>0.61011765314419641</v>
+        <v>0.2324921131050752</v>
       </c>
       <c r="J75">
-        <v>0.6537148707344177</v>
+        <v>0.29618903767369109</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1.1537979603953041E-2</v>
+        <v>6.4185398207628969E-3</v>
       </c>
       <c r="B76">
-        <v>0.39053634022454481</v>
+        <v>0.19581306739068696</v>
       </c>
       <c r="C76">
-        <v>0.49529463849100402</v>
+        <v>0.20314722512646752</v>
       </c>
       <c r="D76">
-        <v>0.37779131397442278</v>
+        <v>0.16519934657548191</v>
       </c>
       <c r="E76">
-        <v>0.48323045738921372</v>
+        <v>0.19607236962078659</v>
       </c>
       <c r="F76">
-        <v>0.32055090543937492</v>
+        <v>0.14242378184040061</v>
       </c>
       <c r="G76">
-        <v>0.68759914511083675</v>
+        <v>0.26787263168360653</v>
       </c>
       <c r="H76">
-        <v>0.55008751530036171</v>
+        <v>0.21052306711907778</v>
       </c>
       <c r="I76">
-        <v>0.75395387392362845</v>
+        <v>0.2872988107333645</v>
       </c>
       <c r="J76">
-        <v>0.80776883855903192</v>
+        <v>0.36598553682579688</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1.4174719296515188E-2</v>
+        <v>7.9161857005500304E-3</v>
       </c>
       <c r="B77">
-        <v>0.48640877402807325</v>
+        <v>0.24393651666255478</v>
       </c>
       <c r="C77">
-        <v>0.61745405266660247</v>
+        <v>0.25324828006928657</v>
       </c>
       <c r="D77">
-        <v>0.47095683618645801</v>
+        <v>0.20593321005971127</v>
       </c>
       <c r="E77">
-        <v>0.60240228140029439</v>
+        <v>0.24442838493485552</v>
       </c>
       <c r="F77">
-        <v>0.39966593716209492</v>
+        <v>0.1775762177397609</v>
       </c>
       <c r="G77">
-        <v>0.85733880286490538</v>
+        <v>0.33399891645317409</v>
       </c>
       <c r="H77">
-        <v>0.68580036726522331</v>
+        <v>0.26245353661987908</v>
       </c>
       <c r="I77">
-        <v>0.94002327931616914</v>
+        <v>0.358197848472041</v>
       </c>
       <c r="J77">
-        <v>1.0070561263230582</v>
+        <v>0.45627568183709077</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2.8708749788576626E-2</v>
+        <v>1.6172051608289037E-2</v>
       </c>
       <c r="B78">
-        <v>1.0148263291421484</v>
+        <v>0.50917732061955578</v>
       </c>
       <c r="C78">
-        <v>1.2907567505745137</v>
+        <v>0.52938889346887252</v>
       </c>
       <c r="D78">
-        <v>0.98445469484380188</v>
+        <v>0.43044493362815811</v>
       </c>
       <c r="E78">
-        <v>1.2592383586739211</v>
+        <v>0.51095090985194214</v>
       </c>
       <c r="F78">
-        <v>0.83572209126678298</v>
+        <v>0.37132493628550212</v>
       </c>
       <c r="G78">
-        <v>1.7928882264825099</v>
+        <v>0.69846534946554983</v>
       </c>
       <c r="H78">
-        <v>1.4338051788150961</v>
+        <v>0.54867728820392958</v>
       </c>
       <c r="I78">
-        <v>1.9655769255348781</v>
+        <v>0.74897013383405708</v>
       </c>
       <c r="J78">
-        <v>2.1054624129866508</v>
+        <v>0.95392540217402433</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5.6432078952192474E-2</v>
+        <v>3.1920540439874218E-2</v>
       </c>
       <c r="B79">
-        <v>2.0227295939615884</v>
+        <v>1.0150974961711052</v>
       </c>
       <c r="C79">
-        <v>2.5750137308555989</v>
+        <v>1.0560992599844699</v>
       </c>
       <c r="D79">
-        <v>1.9639000653713694</v>
+        <v>0.85867840340284329</v>
       </c>
       <c r="E79">
-        <v>2.5120869206958516</v>
+        <v>1.0193157420498948</v>
       </c>
       <c r="F79">
-        <v>1.66745522004156</v>
+        <v>0.74088107347200027</v>
       </c>
       <c r="G79">
-        <v>3.5773543826108707</v>
+        <v>1.3936483064966938</v>
       </c>
       <c r="H79">
-        <v>2.8605489074734196</v>
+        <v>1.094620227497096</v>
       </c>
       <c r="I79">
-        <v>3.9217170578328666</v>
+        <v>1.4943288514277482</v>
       </c>
       <c r="J79">
-        <v>4.2005616082336452</v>
+        <v>1.9031420460942827</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.1069028158504199</v>
+        <v>6.0591167986283161E-2</v>
       </c>
       <c r="B80">
-        <v>3.8576143384554218</v>
+        <v>1.9361236191233839</v>
       </c>
       <c r="C80">
-        <v>4.9129995076698556</v>
+        <v>2.014973819142218</v>
       </c>
       <c r="D80">
-        <v>3.7469772699419188</v>
+        <v>1.6382760842353652</v>
       </c>
       <c r="E80">
-        <v>4.7928937711112471</v>
+        <v>1.9447923136235479</v>
       </c>
       <c r="F80">
-        <v>3.181622754189176</v>
+        <v>1.4136568541185437</v>
       </c>
       <c r="G80">
-        <v>6.8259693840728595</v>
+        <v>2.6592266842201031</v>
       </c>
       <c r="H80">
-        <v>5.4579313604887698</v>
+        <v>2.0885076262581128</v>
       </c>
       <c r="I80">
-        <v>7.4828639908745522</v>
+        <v>2.8512520430843034</v>
       </c>
       <c r="J80">
-        <v>8.0146830765020294</v>
+        <v>3.6311879487535363</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.19079476757463229</v>
+        <v>0.10824731037875962</v>
       </c>
       <c r="B81">
-        <v>6.9075334818947276</v>
+        <v>3.4670400600325704</v>
       </c>
       <c r="C81">
-        <v>8.7991659635782629</v>
+        <v>3.6088013712516478</v>
       </c>
       <c r="D81">
-        <v>6.710782648953951</v>
+        <v>2.9341121786518904</v>
       </c>
       <c r="E81">
-        <v>8.5840182348462655</v>
+        <v>3.4831062092254172</v>
       </c>
       <c r="F81">
-        <v>5.6984503320471571</v>
+        <v>2.5319351161213621</v>
       </c>
       <c r="G81">
-        <v>12.225770688154938</v>
+        <v>4.7628529284429169</v>
       </c>
       <c r="H81">
-        <v>9.7752632548583485</v>
+        <v>3.7405330193076365</v>
       </c>
       <c r="I81">
-        <v>13.402151393234305</v>
+        <v>5.1067103282163124</v>
       </c>
       <c r="J81">
-        <v>14.354461126289575</v>
+        <v>6.503521086056911</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.23921012554876747</v>
+        <v>0.13575043092646416</v>
       </c>
       <c r="B82">
-        <v>8.6676884904480449</v>
+        <v>4.3505553660106493</v>
       </c>
       <c r="C82">
-        <v>11.0419320902857</v>
+        <v>4.5286236398825457</v>
       </c>
       <c r="D82">
-        <v>8.4212400845187378</v>
+        <v>3.6819590173348198</v>
       </c>
       <c r="E82">
-        <v>10.771934173556939</v>
+        <v>4.37089069721537</v>
       </c>
       <c r="F82">
-        <v>7.1509500389956564</v>
+        <v>3.1773106126951576</v>
       </c>
       <c r="G82">
-        <v>15.342078646933398</v>
+        <v>5.9768878230623805</v>
       </c>
       <c r="H82">
-        <v>12.266861553713873</v>
+        <v>4.6939421525605223</v>
       </c>
       <c r="I82">
-        <v>16.81826272836269</v>
+        <v>6.4083698169507404</v>
       </c>
       <c r="J82">
-        <v>18.013244048274075</v>
+        <v>8.1611884912170467</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
@@ -6083,8 +6088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8723,7 +8728,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14000,8 +14005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15358,7 +15363,7 @@
         <v>6.5552330256535818E-6</v>
       </c>
       <c r="B43" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>-1.2470506867171442E-6</v>
       </c>
       <c r="C43">
         <v>1.2794182888040367E-3</v>
@@ -15390,7 +15395,7 @@
         <v>3.3263018886410336E-6</v>
       </c>
       <c r="B44" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-1.8437534554471383E-5</v>
       </c>
       <c r="C44">
         <v>1.3113820651910705E-3</v>
@@ -15422,7 +15427,7 @@
         <v>5.2897074419802254E-7</v>
       </c>
       <c r="B45" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-3.3412263790553391E-5</v>
       </c>
       <c r="C45">
         <v>1.3433312222454802E-3</v>
@@ -15451,10 +15456,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-1.7968261048360549E-6</v>
       </c>
       <c r="B46" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-4.5954250676000005E-5</v>
       </c>
       <c r="C46">
         <v>1.3747767964893114E-3</v>
@@ -15483,10 +15488,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-3.6160627876936592E-6</v>
       </c>
       <c r="B47" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.5913141921068117E-5</v>
       </c>
       <c r="C47">
         <v>1.4067872085069581E-3</v>
@@ -15515,10 +15520,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.8932826440167106E-6</v>
       </c>
       <c r="B48" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-6.310865939352987E-5</v>
       </c>
       <c r="C48">
         <v>1.4393917465881218E-3</v>
@@ -15547,10 +15552,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-5.5925526895183472E-6</v>
       </c>
       <c r="B49" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-6.7330365482155371E-5</v>
       </c>
       <c r="C49">
         <v>1.4715805135410889E-3</v>
@@ -15579,10 +15584,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-5.8850655439177211E-6</v>
       </c>
       <c r="B50" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-6.9763026140368871E-5</v>
       </c>
       <c r="C50">
         <v>1.5111287134369101E-3</v>
@@ -15611,10 +15616,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-6.0680476980041422E-6</v>
       </c>
       <c r="B51" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-7.1932141964736396E-5</v>
       </c>
       <c r="C51">
         <v>1.5581136764798967E-3</v>
@@ -15643,10 +15648,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-6.2520649976162806E-6</v>
       </c>
       <c r="B52" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-7.4113528660826731E-5</v>
       </c>
       <c r="C52">
         <v>1.6053644374336841E-3</v>
@@ -15675,10 +15680,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-6.4370667982865078E-6</v>
       </c>
       <c r="B53" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-7.6306585876563488E-5</v>
       </c>
       <c r="C53">
         <v>1.6528679921424751E-3</v>
@@ -15707,10 +15712,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-6.905084916458355E-6</v>
       </c>
       <c r="B54" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-8.1854588692935375E-5</v>
       </c>
       <c r="C54">
         <v>1.773042629366205E-3</v>
@@ -15739,10 +15744,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-7.6614453064103102E-6</v>
       </c>
       <c r="B55" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-9.0820672292512609E-5</v>
       </c>
       <c r="C55">
         <v>1.9672559128773794E-3</v>
@@ -15771,10 +15776,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-8.428055354869915E-6</v>
       </c>
       <c r="B56" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-9.9908257885408875E-5</v>
       </c>
       <c r="C56">
         <v>2.1641010367917319E-3</v>
@@ -15803,10 +15808,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-9.2023089804848924E-6</v>
       </c>
       <c r="B57" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-1.0908645233710491E-4</v>
       </c>
       <c r="C57">
         <v>2.3629088285517796E-3</v>
@@ -15835,10 +15840,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-9.9779117493758945E-6</v>
       </c>
       <c r="B58" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-1.1828063986771055E-4</v>
       </c>
       <c r="C58">
         <v>2.5620630445152143E-3</v>
@@ -15867,10 +15872,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-1.0760523526509742E-5</v>
       </c>
       <c r="B59" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-1.2755791391988762E-4</v>
       </c>
       <c r="C59">
         <v>2.7630169878613679E-3</v>
@@ -15899,10 +15904,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-1.1548170264355248E-5</v>
       </c>
       <c r="B60" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-1.3689487364474274E-4</v>
       </c>
       <c r="C60">
         <v>2.9652637755515046E-3</v>
@@ -15931,10 +15936,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-1.2331230034483904E-5</v>
       </c>
       <c r="B61" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-1.461774583169586E-4</v>
       </c>
       <c r="C61">
         <v>3.1663327516144261E-3</v>
@@ -15963,10 +15968,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-1.3115879236254003E-5</v>
       </c>
       <c r="B62" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-1.5547888450594659E-4</v>
       </c>
       <c r="C62">
         <v>3.3678098515586385E-3</v>
@@ -15995,10 +16000,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-1.5412215805549945E-5</v>
       </c>
       <c r="B63" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-1.8270022756752821E-4</v>
       </c>
       <c r="C63">
         <v>3.9574481656407387E-3</v>
@@ -16027,10 +16032,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-1.9097577200636113E-5</v>
       </c>
       <c r="B64" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-2.2638741531819323E-4</v>
       </c>
       <c r="C64">
         <v>4.9037512071187219E-3</v>
@@ -16059,10 +16064,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-2.3990128706458379E-5</v>
       </c>
       <c r="B65" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-2.8438493396036656E-4</v>
       </c>
       <c r="C65">
         <v>6.1600286448539833E-3</v>
@@ -16091,10 +16096,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-2.9542954297587122E-5</v>
       </c>
       <c r="B66" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-3.5020950532256448E-4</v>
       </c>
       <c r="C66">
         <v>7.5858469520322528E-3</v>
@@ -16123,10 +16128,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-3.3831388531510366E-5</v>
       </c>
       <c r="B67" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-4.0104566803474356E-4</v>
       </c>
       <c r="C67">
         <v>8.68700310028701E-3</v>
@@ -16155,10 +16160,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-3.7567515532140883E-5</v>
       </c>
       <c r="B68" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-4.4533464386069716E-4</v>
       </c>
       <c r="C68">
         <v>9.6463414025655062E-3</v>
@@ -16187,10 +16192,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.1100723567150812E-5</v>
       </c>
       <c r="B69" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-4.8721816795508992E-4</v>
       </c>
       <c r="C69">
         <v>1.0553575497480141E-2</v>
@@ -16219,10 +16224,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.3403796747175557E-5</v>
       </c>
       <c r="B70" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.145193684705715E-4</v>
       </c>
       <c r="C70">
         <v>1.1144943594489481E-2</v>
@@ -16251,10 +16256,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.4305280392051567E-5</v>
       </c>
       <c r="B71" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.2520577911685539E-4</v>
       </c>
       <c r="C71">
         <v>1.1376420680054622E-2</v>
@@ -16283,10 +16288,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.4614543801878382E-5</v>
       </c>
       <c r="B72" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.2887186425779401E-4</v>
       </c>
       <c r="C72">
         <v>1.1455831319599274E-2</v>
@@ -16315,10 +16320,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.4680380673752299E-5</v>
       </c>
       <c r="B73" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.2965231086102456E-4</v>
       </c>
       <c r="C73">
         <v>1.1472736481784658E-2</v>
@@ -16347,10 +16352,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.4647705700942149E-5</v>
       </c>
       <c r="B74" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.2926497363168037E-4</v>
       </c>
       <c r="C74">
         <v>1.146434641556437E-2</v>
@@ -16379,10 +16384,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.457631801699627E-5</v>
       </c>
       <c r="B75" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.2841872632584312E-4</v>
       </c>
       <c r="C75">
         <v>1.1446015952090115E-2</v>
@@ -16411,10 +16416,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.4442537302911763E-5</v>
       </c>
       <c r="B76" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.2683285657059448E-4</v>
       </c>
       <c r="C76">
         <v>1.1411664613630326E-2</v>
@@ -16443,10 +16448,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.4224415746705375E-5</v>
       </c>
       <c r="B77" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.2424718956079689E-4</v>
       </c>
       <c r="C77">
         <v>1.1355656784296345E-2</v>
@@ -16475,10 +16480,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.3407623117963071E-5</v>
       </c>
       <c r="B78" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-5.145647272186229E-4</v>
       </c>
       <c r="C78">
         <v>1.1145926105002256E-2</v>
@@ -16507,10 +16512,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-4.1397831267272936E-5</v>
       </c>
       <c r="B79" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-4.90740156299221E-4</v>
       </c>
       <c r="C79">
         <v>1.0629864873237692E-2</v>
@@ -16539,10 +16544,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-3.7682310538909402E-5</v>
       </c>
       <c r="B80" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-4.4669545233397788E-4</v>
       </c>
       <c r="C80">
         <v>9.6758177150368888E-3</v>
@@ -16571,10 +16576,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-3.1317498302697992E-5</v>
       </c>
       <c r="B81" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-3.7124538995153517E-4</v>
       </c>
       <c r="C81">
         <v>8.0415027776758255E-3</v>
@@ -16603,10 +16608,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>5.2897074419802297E-7</v>
+        <v>-2.5050322220039166E-5</v>
       </c>
       <c r="B82" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>-2.9695273074187008E-4</v>
       </c>
       <c r="C82">
         <v>6.4322582144680836E-3</v>
@@ -16642,8 +16647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21920,7 +21925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
@@ -24559,7 +24564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
@@ -27198,8 +27203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="G63" workbookViewId="0">
-      <selection activeCell="U79" sqref="U79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29837,8 +29842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31960,12 +31965,11 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="3">
         <v>3.6772985453372064E-6</v>
       </c>
-      <c r="B67" s="2">
-        <f>0.00000001</f>
-        <v>1E-8</v>
+      <c r="B67" s="4">
+        <v>-8.9348382307144803E-6</v>
       </c>
       <c r="C67">
         <v>3.0424785583827258E-3</v>
@@ -31993,13 +31997,11 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f>0.00000001</f>
-        <v>1E-8</v>
-      </c>
-      <c r="B68" s="2">
-        <f t="shared" ref="B68:B82" si="0">0.00000001</f>
-        <v>1E-8</v>
+      <c r="A68" s="3">
+        <v>-1.9578287844839259E-6</v>
+      </c>
+      <c r="B68" s="4">
+        <v>-7.5735034809819041E-5</v>
       </c>
       <c r="C68">
         <v>4.4894297687675519E-3</v>
@@ -32027,13 +32029,11 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <f t="shared" ref="A69:A82" si="1">0.00000001</f>
-        <v>1E-8</v>
-      </c>
-      <c r="B69" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A69" s="3">
+        <v>-1.2233009676271629E-5</v>
+      </c>
+      <c r="B69" s="4">
+        <v>-1.9753957679859152E-4</v>
       </c>
       <c r="C69">
         <v>7.1278236431375867E-3</v>
@@ -32061,13 +32061,11 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B70" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A70" s="3">
+        <v>-2.3083958863065519E-5</v>
+      </c>
+      <c r="B70" s="4">
+        <v>-3.261694189162344E-4</v>
       </c>
       <c r="C70">
         <v>9.9140595417599574E-3</v>
@@ -32095,13 +32093,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B71" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A71" s="3">
+        <v>-3.4160278961078411E-5</v>
+      </c>
+      <c r="B71" s="4">
+        <v>-4.5747086369544825E-4</v>
       </c>
       <c r="C71">
         <v>1.2758164711773613E-2</v>
@@ -32129,13 +32125,11 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B72" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A72" s="3">
+        <v>-4.5313914911548003E-5</v>
+      </c>
+      <c r="B72" s="4">
+        <v>-5.8968882975989675E-4</v>
       </c>
       <c r="C72">
         <v>1.5622122541673431E-2</v>
@@ -32163,13 +32157,11 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B73" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A73" s="3">
+        <v>-5.6484010079986077E-5</v>
+      </c>
+      <c r="B73" s="4">
+        <v>-7.2210190747515291E-4</v>
       </c>
       <c r="C73">
         <v>1.8490306662119593E-2</v>
@@ -32197,13 +32189,11 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B74" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A74" s="3">
+        <v>-6.7645936505221618E-5</v>
+      </c>
+      <c r="B74" s="4">
+        <v>-8.5441815088307298E-4</v>
       </c>
       <c r="C74">
         <v>2.1356393266010687E-2</v>
@@ -32231,13 +32221,11 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B75" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A75" s="3">
+        <v>-7.8790016009470682E-5</v>
+      </c>
+      <c r="B75" s="4">
+        <v>-9.8652283246453381E-4</v>
       </c>
       <c r="C75">
         <v>2.4217897254033217E-2</v>
@@ -32265,13 +32253,11 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B76" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A76" s="3">
+        <v>-1.0101128466092656E-4</v>
+      </c>
+      <c r="B76" s="4">
+        <v>-1.2499392607498311E-3</v>
       </c>
       <c r="C76">
         <v>2.9923729560848378E-2</v>
@@ -32299,13 +32285,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B77" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A77" s="3">
+        <v>-1.2975715489628505E-4</v>
+      </c>
+      <c r="B77" s="4">
+        <v>-1.5906999339643491E-3</v>
       </c>
       <c r="C77">
         <v>3.7304906470641004E-2</v>
@@ -32333,13 +32317,11 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B78" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A78" s="3">
+        <v>-2.8819497927685023E-4</v>
+      </c>
+      <c r="B78" s="4">
+        <v>-3.4688611883123225E-3</v>
       </c>
       <c r="C78">
         <v>7.7987536753899245E-2</v>
@@ -32367,13 +32349,11 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B79" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A79" s="3">
+        <v>-5.9039914752794269E-4</v>
+      </c>
+      <c r="B79" s="4">
+        <v>-7.0512643292966349E-3</v>
       </c>
       <c r="C79">
         <v>0.15558555032853438</v>
@@ -32401,13 +32381,11 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B80" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A80" s="3">
+        <v>-1.1405608813960201E-3</v>
+      </c>
+      <c r="B80" s="4">
+        <v>-1.3573017933372712E-2</v>
       </c>
       <c r="C80">
         <v>0.29685248896807293</v>
@@ -32435,13 +32413,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B81" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A81" s="3">
+        <v>-2.0550318318348013E-3</v>
+      </c>
+      <c r="B81" s="4">
+        <v>-2.441338331995754E-2</v>
       </c>
       <c r="C81">
         <v>0.53166437007620704</v>
@@ -32469,13 +32445,11 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
-      </c>
-      <c r="B82" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-8</v>
+      <c r="A82" s="3">
+        <v>-2.5827870103021424E-3</v>
+      </c>
+      <c r="B82" s="4">
+        <v>-3.066952406068111E-2</v>
       </c>
       <c r="C82">
         <v>0.66717789968697772</v>
@@ -32512,7 +32486,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37789,8 +37763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37799,7 +37773,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="3">
         <v>0</v>
       </c>
       <c r="B1">
@@ -37831,2627 +37805,2595 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.021218938000153E-4</v>
+      <c r="A2" s="3">
+        <v>1.4589189037524742E-4</v>
       </c>
       <c r="B2">
-        <v>2.3828498728983099E-5</v>
+        <v>4.7595525723105431E-5</v>
       </c>
       <c r="C2">
-        <v>6.3121755263003919E-5</v>
+        <v>9.8411491545973226E-5</v>
       </c>
       <c r="D2">
-        <v>8.7932719422369358E-5</v>
+        <v>1.2677301571735591E-4</v>
       </c>
       <c r="E2">
-        <v>6.4171812835383196E-5</v>
+        <v>9.5664515542869663E-5</v>
       </c>
       <c r="F2">
-        <v>4.8832752204751743E-5</v>
+        <v>7.3765364077820879E-5</v>
       </c>
       <c r="G2">
-        <v>7.2140962546608821E-5</v>
+        <v>1.0662394378907493E-4</v>
       </c>
       <c r="H2">
-        <v>6.0737441577233544E-5</v>
+        <v>9.6592779832241791E-5</v>
       </c>
       <c r="I2">
-        <v>5.4507737502455683E-5</v>
+        <v>8.1753789975050207E-5</v>
       </c>
       <c r="J2">
-        <v>8.3099331184992962E-6</v>
+        <v>6.4716974329507613E-5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9.9962232657307919E-5</v>
+      <c r="A3" s="3">
+        <v>1.4449278877769669E-4</v>
       </c>
       <c r="B3">
-        <v>2.3044294835461274E-5</v>
+        <v>4.7909201741677351E-5</v>
       </c>
       <c r="C3">
-        <v>6.4505871385118894E-5</v>
+        <v>1.0023926287439185E-4</v>
       </c>
       <c r="D3">
-        <v>8.7307002768814403E-5</v>
+        <v>1.2715696797351781E-4</v>
       </c>
       <c r="E3">
-        <v>6.6488717546921502E-5</v>
+        <v>9.9227027816091692E-5</v>
       </c>
       <c r="F3">
-        <v>4.6566451575643945E-5</v>
+        <v>7.1173399558471464E-5</v>
       </c>
       <c r="G3">
-        <v>7.0486174367231187E-5</v>
+        <v>1.0545843787990305E-4</v>
       </c>
       <c r="H3">
-        <v>6.556906714163605E-5</v>
+        <v>1.0265962187818407E-4</v>
       </c>
       <c r="I3">
-        <v>5.8403415325531829E-5</v>
+        <v>8.7277580276900178E-5</v>
       </c>
       <c r="J3">
-        <v>1.7506066907908906E-5</v>
+        <v>8.5004382789452074E-5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9.6932033059271181E-5</v>
+      <c r="A4" s="3">
+        <v>1.4249256094291888E-4</v>
       </c>
       <c r="B4">
-        <v>2.2023318317375323E-5</v>
+        <v>4.8245542917543899E-5</v>
       </c>
       <c r="C4">
-        <v>6.5794950240563252E-5</v>
+        <v>1.0223918841918278E-4</v>
       </c>
       <c r="D4">
-        <v>8.6362539911371387E-5</v>
+        <v>1.2743787104663523E-4</v>
       </c>
       <c r="E4">
-        <v>6.9181724355473742E-5</v>
+        <v>1.0345876491999528E-4</v>
       </c>
       <c r="F4">
-        <v>4.4319796217439427E-5</v>
+        <v>6.8684005376683184E-5</v>
       </c>
       <c r="G4">
-        <v>6.8672840460602544E-5</v>
+        <v>1.0446289046882932E-4</v>
       </c>
       <c r="H4">
-        <v>7.0935046324972854E-5</v>
+        <v>1.095490770712778E-4</v>
       </c>
       <c r="I4">
-        <v>6.3072596031136266E-5</v>
+        <v>9.3908599849499088E-5</v>
       </c>
       <c r="J4">
-        <v>2.5825402522861618E-5</v>
+        <v>1.0357746691688242E-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>9.2931068417462907E-5</v>
+      <c r="A5" s="3">
+        <v>1.3938372704715732E-4</v>
       </c>
       <c r="B5">
-        <v>2.0753947194738153E-5</v>
+        <v>4.8444521954979671E-5</v>
       </c>
       <c r="C5">
-        <v>6.65589104855883E-5</v>
+        <v>1.0386588958453051E-4</v>
       </c>
       <c r="D5">
-        <v>8.479161487310055E-5</v>
+        <v>1.2703257439715756E-4</v>
       </c>
       <c r="E5">
-        <v>7.1806111156664016E-5</v>
+        <v>1.077091218767583E-4</v>
       </c>
       <c r="F5">
-        <v>4.2127896300280907E-5</v>
+        <v>6.624948334317013E-5</v>
       </c>
       <c r="G5">
-        <v>6.6698515702119182E-5</v>
+        <v>1.0340357186961637E-4</v>
       </c>
       <c r="H5">
-        <v>7.6311660422324638E-5</v>
+        <v>1.1655657988339154E-4</v>
       </c>
       <c r="I5">
-        <v>6.8062325555506476E-5</v>
+        <v>1.009979389876602E-4</v>
       </c>
       <c r="J5">
-        <v>3.3060597072697882E-5</v>
+        <v>1.1995958595708001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8.4538111509088824E-5</v>
+      <c r="A6" s="3">
+        <v>1.3519321636412692E-4</v>
       </c>
       <c r="B6">
-        <v>1.9296616051724458E-5</v>
+        <v>5.5165485410441671E-5</v>
       </c>
       <c r="C6">
-        <v>7.2156031110543075E-5</v>
+        <v>1.1578761438636749E-4</v>
       </c>
       <c r="D6">
-        <v>8.16837733322764E-5</v>
+        <v>1.291224051541199E-4</v>
       </c>
       <c r="E6">
-        <v>8.1844750081311947E-5</v>
+        <v>1.2452961951652344E-4</v>
       </c>
       <c r="F6">
-        <v>3.8612015417214945E-5</v>
+        <v>6.3733929457699832E-5</v>
       </c>
       <c r="G6">
-        <v>6.5273545553438413E-5</v>
+        <v>1.0776484415238048E-4</v>
       </c>
       <c r="H6">
-        <v>9.6781210995563246E-5</v>
+        <v>1.4496214777514225E-4</v>
       </c>
       <c r="I6">
-        <v>8.9333109496625207E-5</v>
+        <v>1.3157318928288034E-4</v>
       </c>
       <c r="J6">
-        <v>5.232383107382931E-5</v>
+        <v>1.6748603239222473E-4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8.5031341669818583E-5</v>
+      <c r="A7" s="3">
+        <v>1.4014749668105764E-4</v>
       </c>
       <c r="B7">
-        <v>2.2552732935722758E-5</v>
+        <v>6.9010963063044343E-5</v>
       </c>
       <c r="C7">
-        <v>8.1921584884122841E-5</v>
+        <v>1.3264155902410253E-4</v>
       </c>
       <c r="D7">
-        <v>8.2736486996135166E-5</v>
+        <v>1.352249525809845E-4</v>
       </c>
       <c r="E7">
-        <v>8.9568716713625589E-5</v>
+        <v>1.3768247325929634E-4</v>
       </c>
       <c r="F7">
-        <v>3.9519550714000606E-5</v>
+        <v>6.7211156296420228E-5</v>
       </c>
       <c r="G7">
-        <v>7.069746006793155E-5</v>
+        <v>1.1983730888322614E-4</v>
       </c>
       <c r="H7">
-        <v>1.127177498662038E-4</v>
+        <v>1.6815114144657836E-4</v>
       </c>
       <c r="I7">
-        <v>1.0784345530827579E-4</v>
+        <v>1.5827720097912575E-4</v>
       </c>
       <c r="J7">
-        <v>6.4193556440954037E-5</v>
+        <v>1.9926367801899363E-4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8.763236280175674E-5</v>
+      <c r="A8" s="3">
+        <v>1.4661744504432142E-4</v>
       </c>
       <c r="B8">
-        <v>2.9472407070164067E-5</v>
+        <v>8.9876730557060001E-5</v>
       </c>
       <c r="C8">
-        <v>9.4164811574646816E-5</v>
+        <v>1.5189997995051086E-4</v>
       </c>
       <c r="D8">
-        <v>8.4867078167242602E-5</v>
+        <v>1.4217067955320497E-4</v>
       </c>
       <c r="E8">
-        <v>9.5621879912338004E-5</v>
+        <v>1.4820472360826527E-4</v>
       </c>
       <c r="F8">
-        <v>4.196485545300068E-5</v>
+        <v>7.296751569953743E-5</v>
       </c>
       <c r="G8">
-        <v>8.0671253611778131E-5</v>
+        <v>1.3705955893981596E-4</v>
       </c>
       <c r="H8">
-        <v>1.2618365144716011E-4</v>
+        <v>1.8836032649032191E-4</v>
       </c>
       <c r="I8">
-        <v>1.2493935949922416E-4</v>
+        <v>1.8303834774449488E-4</v>
       </c>
       <c r="J8">
-        <v>7.4323912110852179E-5</v>
+        <v>2.2681822066039666E-4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9.0083369609309384E-5</v>
+      <c r="A9" s="3">
+        <v>1.5202067105958602E-4</v>
       </c>
       <c r="B9">
-        <v>4.0295812357431194E-5</v>
+        <v>1.1861988102623002E-4</v>
       </c>
       <c r="C9">
-        <v>1.0785667333104576E-4</v>
+        <v>1.7258514198987496E-4</v>
       </c>
       <c r="D9">
-        <v>8.7084975821288691E-5</v>
+        <v>1.4904163268918705E-4</v>
       </c>
       <c r="E9">
-        <v>1.0054843566994616E-4</v>
+        <v>1.5701169940312909E-4</v>
       </c>
       <c r="F9">
-        <v>4.5137800843851803E-5</v>
+        <v>7.9969636876942195E-5</v>
       </c>
       <c r="G9">
-        <v>9.4408927104610375E-5</v>
+        <v>1.5855717800316308E-4</v>
       </c>
       <c r="H9">
-        <v>1.377740434497571E-4</v>
+        <v>2.0639066977493303E-4</v>
       </c>
       <c r="I9">
-        <v>1.4113322409472768E-4</v>
+        <v>2.0674002912218211E-4</v>
       </c>
       <c r="J9">
-        <v>8.3846917244546372E-5</v>
+        <v>2.5251955991896475E-4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9.1722445716773088E-5</v>
+      <c r="A10" s="3">
+        <v>1.5561865315160886E-4</v>
       </c>
       <c r="B10">
-        <v>5.5680305077366265E-5</v>
+        <v>1.5601696251334743E-4</v>
       </c>
       <c r="C10">
-        <v>1.2251287351213282E-4</v>
+        <v>1.9427551214370816E-4</v>
       </c>
       <c r="D10">
-        <v>8.9207458900734769E-5</v>
+        <v>1.5572642754914764E-4</v>
       </c>
       <c r="E10">
-        <v>1.0475373290940322E-4</v>
+        <v>1.6472056340267177E-4</v>
       </c>
       <c r="F10">
-        <v>4.871387180590046E-5</v>
+        <v>8.7802530293030445E-5</v>
       </c>
       <c r="G10">
-        <v>1.1131649763965842E-4</v>
+        <v>1.8365675158824835E-4</v>
       </c>
       <c r="H10">
-        <v>1.4777522928734643E-4</v>
+        <v>2.2265994341742144E-4</v>
       </c>
       <c r="I10">
-        <v>1.5658253449528644E-4</v>
+        <v>2.2969723163741596E-4</v>
       </c>
       <c r="J10">
-        <v>9.3066640572752061E-5</v>
+        <v>2.7700752237208045E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9.2540542614782863E-5</v>
+      <c r="A11" s="3">
+        <v>1.5757152374374267E-4</v>
       </c>
       <c r="B11">
-        <v>7.5916016890677939E-5</v>
+        <v>2.0173978121166934E-4</v>
       </c>
       <c r="C11">
-        <v>1.3777195784118697E-4</v>
+        <v>2.1665206466608158E-4</v>
       </c>
       <c r="D11">
-        <v>9.1270307793076913E-5</v>
+        <v>1.6231305369062069E-4</v>
       </c>
       <c r="E11">
-        <v>1.0861537292686444E-4</v>
+        <v>1.7187285285299314E-4</v>
       </c>
       <c r="F11">
-        <v>5.2456421237894203E-5</v>
+        <v>9.6099015968288936E-5</v>
       </c>
       <c r="G11">
-        <v>1.3042176018977287E-4</v>
+        <v>2.1124113659623493E-4</v>
       </c>
       <c r="H11">
-        <v>1.565983426304094E-4</v>
+        <v>2.3766178504427065E-4</v>
       </c>
       <c r="I11">
-        <v>1.7142411467529369E-4</v>
+        <v>2.5211176454861519E-4</v>
       </c>
       <c r="J11">
-        <v>1.0210010700209535E-4</v>
+        <v>3.0054724656002117E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9.2916143331127853E-5</v>
+      <c r="A12" s="3">
+        <v>1.5863540978936042E-4</v>
       </c>
       <c r="B12">
-        <v>1.0030205158218254E-4</v>
+        <v>2.5364495765457931E-4</v>
       </c>
       <c r="C12">
-        <v>1.532650345737161E-4</v>
+        <v>2.3933842365625005E-4</v>
       </c>
       <c r="D12">
-        <v>9.3338321875276466E-5</v>
+        <v>1.6886695660492246E-4</v>
       </c>
       <c r="E12">
-        <v>1.1245316746713123E-4</v>
+        <v>1.7890756232476047E-4</v>
       </c>
       <c r="F12">
-        <v>5.6148732493377645E-5</v>
+        <v>1.0444337288263291E-4</v>
       </c>
       <c r="G12">
-        <v>1.5027746557650848E-4</v>
+        <v>2.3965774733631406E-4</v>
       </c>
       <c r="H12">
-        <v>1.6480813358673999E-4</v>
+        <v>2.5197749702382126E-4</v>
       </c>
       <c r="I12">
-        <v>1.8582523142244648E-4</v>
+        <v>2.7416193291452708E-4</v>
       </c>
       <c r="J12">
-        <v>1.1100134032045747E-4</v>
+        <v>3.2326354726732609E-4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9.3357347632314883E-5</v>
+      <c r="A13" s="3">
+        <v>1.5974742003838885E-4</v>
       </c>
       <c r="B13">
-        <v>1.273798627128481E-4</v>
+        <v>3.0866238266478161E-4</v>
       </c>
       <c r="C13">
-        <v>1.68688900527344E-4</v>
+        <v>2.620134940049091E-4</v>
       </c>
       <c r="D13">
-        <v>9.5450240989870518E-5</v>
+        <v>1.7539999626321376E-4</v>
       </c>
       <c r="E13">
-        <v>1.1646256607353318E-4</v>
+        <v>1.8609151986620796E-4</v>
       </c>
       <c r="F13">
-        <v>5.9645212817857225E-5</v>
+        <v>1.1250846752400921E-4</v>
       </c>
       <c r="G13">
-        <v>1.6959995471128419E-4</v>
+        <v>2.674374488505722E-4</v>
       </c>
       <c r="H13">
-        <v>1.7291739311628727E-4</v>
+        <v>2.6609890856527275E-4</v>
       </c>
       <c r="I13">
-        <v>1.9995566289438181E-4</v>
+        <v>2.9600290947502016E-4</v>
       </c>
       <c r="J13">
-        <v>1.1979253736928641E-4</v>
+        <v>3.4522137071392694E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9.4557877966359847E-5</v>
+      <c r="A14" s="3">
+        <v>1.622974630581393E-4</v>
       </c>
       <c r="B14">
-        <v>1.7435315122848219E-4</v>
+        <v>3.9987853526319856E-4</v>
       </c>
       <c r="C14">
-        <v>1.9296900011420034E-4</v>
+        <v>2.9805760238058612E-4</v>
       </c>
       <c r="D14">
-        <v>9.8890734294791607E-5</v>
+        <v>1.8572929381501107E-4</v>
       </c>
       <c r="E14">
-        <v>1.2326836011400388E-4</v>
+        <v>1.9797684954143084E-4</v>
       </c>
       <c r="F14">
-        <v>6.4878060263397501E-5</v>
+        <v>1.2483290510407731E-4</v>
       </c>
       <c r="G14">
-        <v>1.9897321761261919E-4</v>
+        <v>3.1012714511071521E-4</v>
       </c>
       <c r="H14">
-        <v>1.8603291555819142E-4</v>
+        <v>2.8864218724508633E-4</v>
       </c>
       <c r="I14">
-        <v>2.2231663964784358E-4</v>
+        <v>3.3085258287744588E-4</v>
       </c>
       <c r="J14">
-        <v>1.3371518140149047E-4</v>
+        <v>3.7899838541849895E-4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9.6239103121709601E-5</v>
+      <c r="A15" s="3">
+        <v>1.6559767838311533E-4</v>
       </c>
       <c r="B15">
-        <v>2.2487844405879383E-4</v>
+        <v>4.939366463145951E-4</v>
       </c>
       <c r="C15">
-        <v>2.1665769474257541E-4</v>
+        <v>3.3382041670228029E-4</v>
       </c>
       <c r="D15">
-        <v>1.0233654317895656E-4</v>
+        <v>1.9583152990315005E-4</v>
       </c>
       <c r="E15">
-        <v>1.3041301030910506E-4</v>
+        <v>2.1020502153871849E-4</v>
       </c>
       <c r="F15">
-        <v>6.980529368675524E-5</v>
+        <v>1.3667460735757719E-4</v>
       </c>
       <c r="G15">
-        <v>2.2710494935929831E-4</v>
+        <v>3.5143687420755883E-4</v>
       </c>
       <c r="H15">
-        <v>1.9923841868203757E-4</v>
+        <v>3.1107575714341438E-4</v>
       </c>
       <c r="I15">
-        <v>2.4454505823653797E-4</v>
+        <v>3.6575753540922144E-4</v>
       </c>
       <c r="J15">
-        <v>1.4745077293072797E-4</v>
+        <v>4.1120048394827774E-4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9.8256620854741467E-5</v>
+      <c r="A16" s="3">
+        <v>1.6941693810873054E-4</v>
       </c>
       <c r="B16">
-        <v>2.7768042734670873E-4</v>
+        <v>5.8903364264120954E-4</v>
       </c>
       <c r="C16">
-        <v>2.3944222632598554E-4</v>
+        <v>3.6897037962783545E-4</v>
       </c>
       <c r="D16">
-        <v>1.0567760888146138E-4</v>
+        <v>2.0553093849260827E-4</v>
       </c>
       <c r="E16">
-        <v>1.3773807729905693E-4</v>
+        <v>2.2257423654050286E-4</v>
       </c>
       <c r="F16">
-        <v>7.4474763211166919E-5</v>
+        <v>1.480925382659234E-4</v>
       </c>
       <c r="G16">
-        <v>2.5422529312974602E-4</v>
+        <v>3.9154232385729454E-4</v>
       </c>
       <c r="H16">
-        <v>2.1233681750758355E-4</v>
+        <v>3.3315252896224849E-4</v>
       </c>
       <c r="I16">
-        <v>2.6657110850133417E-4</v>
+        <v>4.0054836474495817E-4</v>
       </c>
       <c r="J16">
-        <v>1.6084937095960604E-4</v>
+        <v>4.4152853545177862E-4</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.0138975169380197E-4</v>
+      <c r="A17" s="3">
+        <v>1.7520784548030158E-4</v>
       </c>
       <c r="B17">
-        <v>3.5189122127258728E-4</v>
+        <v>7.1858820345955545E-4</v>
       </c>
       <c r="C17">
-        <v>2.6898211938527816E-4</v>
+        <v>4.1595454848142327E-4</v>
       </c>
       <c r="D17">
-        <v>1.1007213865725339E-4</v>
+        <v>2.181680740371966E-4</v>
       </c>
       <c r="E17">
-        <v>1.480629705292934E-4</v>
+        <v>2.3979224833718034E-4</v>
       </c>
       <c r="F17">
-        <v>8.0593214282965333E-5</v>
+        <v>1.6327111207731102E-4</v>
       </c>
       <c r="G17">
-        <v>2.9020116682990072E-4</v>
+        <v>4.4502342018421187E-4</v>
       </c>
       <c r="H17">
-        <v>2.3010400315894811E-4</v>
+        <v>3.6288512392043323E-4</v>
       </c>
       <c r="I17">
-        <v>2.9660658874657356E-4</v>
+        <v>4.4822837916269121E-4</v>
       </c>
       <c r="J17">
-        <v>1.7860969713836899E-4</v>
+        <v>4.8008778425252227E-4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.0446787073721985E-4</v>
+      <c r="A18" s="3">
+        <v>1.8080039505640385E-4</v>
       </c>
       <c r="B18">
-        <v>4.1915883463140608E-4</v>
+        <v>8.3283426605755865E-4</v>
       </c>
       <c r="C18">
-        <v>2.9398507636965108E-4</v>
+        <v>4.5720704474947442E-4</v>
       </c>
       <c r="D18">
-        <v>1.1391476930682623E-4</v>
+        <v>2.2905694663955689E-4</v>
       </c>
       <c r="E18">
-        <v>1.5774946813627399E-4</v>
+        <v>2.5576457973359502E-4</v>
       </c>
       <c r="F18">
-        <v>8.5950400215899824E-5</v>
+        <v>1.7669128728580927E-4</v>
       </c>
       <c r="G18">
-        <v>3.2188752419281814E-4</v>
+        <v>4.9227982339172804E-4</v>
       </c>
       <c r="H18">
-        <v>2.4607649014595645E-4</v>
+        <v>3.8943419505695846E-4</v>
       </c>
       <c r="I18">
-        <v>3.2381832248118956E-4</v>
+        <v>4.9157746039410347E-4</v>
       </c>
       <c r="J18">
-        <v>1.9401398252553482E-4</v>
+        <v>5.1214760082147202E-4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.0765694912466436E-4</v>
+      <c r="A19" s="3">
+        <v>1.8652678905059427E-4</v>
       </c>
       <c r="B19">
-        <v>4.8448885923814433E-4</v>
+        <v>9.4139889046995784E-4</v>
       </c>
       <c r="C19">
-        <v>3.1724870008361078E-4</v>
+        <v>4.9690635833272946E-4</v>
       </c>
       <c r="D19">
-        <v>1.1767256581184942E-4</v>
+        <v>2.3947692668988029E-4</v>
       </c>
       <c r="E19">
-        <v>1.678097691186397E-4</v>
+        <v>2.7219460959896296E-4</v>
       </c>
       <c r="F19">
-        <v>9.1206873809883968E-5</v>
+        <v>1.8988723763001318E-4</v>
       </c>
       <c r="G19">
-        <v>3.5280405938843738E-4</v>
+        <v>5.3843451639536274E-4</v>
       </c>
       <c r="H19">
-        <v>2.6196808481020195E-4</v>
+        <v>4.1568535459341296E-4</v>
       </c>
       <c r="I19">
-        <v>3.5109742993946394E-4</v>
+        <v>5.3509471835811947E-4</v>
       </c>
       <c r="J19">
-        <v>2.0866716846168601E-4</v>
+        <v>5.4154470364173562E-4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1.1087223298003888E-4</v>
+      <c r="A20" s="3">
+        <v>1.9224519494538225E-4</v>
       </c>
       <c r="B20">
-        <v>5.4631826750207546E-4</v>
+        <v>1.0421761437865134E-3</v>
       </c>
       <c r="C20">
-        <v>3.3884228903228574E-4</v>
+        <v>5.3483413269389622E-4</v>
       </c>
       <c r="D20">
-        <v>1.2138955854847663E-4</v>
+        <v>2.49494902410626E-4</v>
       </c>
       <c r="E20">
-        <v>1.7830383319424151E-4</v>
+        <v>2.8918330462102457E-4</v>
       </c>
       <c r="F20">
-        <v>9.6410511613447361E-5</v>
+        <v>2.0291147732918471E-4</v>
       </c>
       <c r="G20">
-        <v>3.8300698576551866E-4</v>
+        <v>5.8350048608417869E-4</v>
       </c>
       <c r="H20">
-        <v>2.7782538342989953E-4</v>
+        <v>4.4171415883935444E-4</v>
       </c>
       <c r="I20">
-        <v>3.7850357230297642E-4</v>
+        <v>5.7880526707785717E-4</v>
       </c>
       <c r="J20">
-        <v>2.2248172793577168E-4</v>
+        <v>5.6837645902997646E-4</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1.1404739403909531E-4</v>
+      <c r="A21" s="3">
+        <v>1.9784410049899872E-4</v>
       </c>
       <c r="B21">
-        <v>6.0329665794816808E-4</v>
+        <v>1.1333697560663816E-3</v>
       </c>
       <c r="C21">
-        <v>3.588909350198602E-4</v>
+        <v>5.7079495604060769E-4</v>
       </c>
       <c r="D21">
-        <v>1.2511174203658587E-4</v>
+        <v>2.5918055984355885E-4</v>
       </c>
       <c r="E21">
-        <v>1.8929427327403969E-4</v>
+        <v>3.0683125696815772E-4</v>
       </c>
       <c r="F21">
-        <v>1.0159782233494887E-4</v>
+        <v>2.1579982463055703E-4</v>
       </c>
       <c r="G21">
-        <v>4.1252160185440117E-4</v>
+        <v>6.2746585616123794E-4</v>
       </c>
       <c r="H21">
-        <v>2.9369953471482084E-4</v>
+        <v>4.6759525237732771E-4</v>
       </c>
       <c r="I21">
-        <v>4.0608469254462692E-4</v>
+        <v>6.2272056713358185E-4</v>
       </c>
       <c r="J21">
-        <v>2.353851135586839E-4</v>
+        <v>5.9277735391879093E-4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1.1713046936778789E-4</v>
+      <c r="A22" s="3">
+        <v>2.0323618675500063E-4</v>
       </c>
       <c r="B22">
-        <v>6.5430849767562286E-4</v>
+        <v>1.2135306714022881E-3</v>
       </c>
       <c r="C22">
-        <v>3.7753948847256684E-4</v>
+        <v>6.0462413822811667E-4</v>
       </c>
       <c r="D22">
-        <v>1.2888470067261857E-4</v>
+        <v>2.6860427936342132E-4</v>
       </c>
       <c r="E22">
-        <v>2.0084217079668716E-4</v>
+        <v>3.2523379783125367E-4</v>
       </c>
       <c r="F22">
-        <v>1.0679694784789347E-4</v>
+        <v>2.2857726583778315E-4</v>
       </c>
       <c r="G22">
-        <v>4.4135860406861044E-4</v>
+        <v>6.7031291934002257E-4</v>
       </c>
       <c r="H22">
-        <v>3.0964277022010802E-4</v>
+        <v>4.9340016302943279E-4</v>
       </c>
       <c r="I22">
-        <v>4.3387915504005E-4</v>
+        <v>6.6684138532616696E-4</v>
       </c>
       <c r="J22">
-        <v>2.473233391357705E-4</v>
+        <v>6.1491583274962084E-4</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1.2008108331680227E-4</v>
+      <c r="A23" s="3">
+        <v>2.0835407876953474E-4</v>
       </c>
       <c r="B23">
-        <v>6.9849026664915205E-4</v>
+        <v>1.2815850170572543E-3</v>
       </c>
       <c r="C23">
-        <v>3.9492449291716282E-4</v>
+        <v>6.3619486093679936E-4</v>
       </c>
       <c r="D23">
-        <v>1.3275242962865059E-4</v>
+        <v>2.778362793206841E-4</v>
       </c>
       <c r="E23">
-        <v>2.1300402757089395E-4</v>
+        <v>3.4447723372881412E-4</v>
       </c>
       <c r="F23">
-        <v>1.1202959100193991E-4</v>
+        <v>2.412615106356881E-4</v>
       </c>
       <c r="G23">
-        <v>4.6952381738855908E-4</v>
+        <v>7.1202932124086408E-4</v>
       </c>
       <c r="H23">
-        <v>3.257062222524404E-4</v>
+        <v>5.1919589878768704E-4</v>
       </c>
       <c r="I23">
-        <v>4.619166072461107E-4</v>
+        <v>7.1115913189359788E-4</v>
       </c>
       <c r="J23">
-        <v>2.5826334974067143E-4</v>
+        <v>6.349893941717847E-4</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1.2286852548523271E-4</v>
+      <c r="A24" s="3">
+        <v>2.1314736271337134E-4</v>
       </c>
       <c r="B24">
-        <v>7.3524195091818748E-4</v>
+        <v>1.3368530796207491E-3</v>
       </c>
       <c r="C24">
-        <v>4.1115621871667593E-4</v>
+        <v>6.6542479992726339E-4</v>
       </c>
       <c r="D24">
-        <v>1.3675666200327807E-4</v>
+        <v>2.8694624640779315E-4</v>
       </c>
       <c r="E24">
-        <v>2.2582887717748356E-4</v>
+        <v>3.6463509642771464E-4</v>
       </c>
       <c r="F24">
-        <v>1.1731233638044439E-4</v>
+        <v>2.53865247946579E-4</v>
       </c>
       <c r="G24">
-        <v>4.9702434091834628E-4</v>
+        <v>7.5261500846096217E-4</v>
       </c>
       <c r="H24">
-        <v>3.4193831328645284E-4</v>
+        <v>5.4504377760044643E-4</v>
       </c>
       <c r="I24">
-        <v>4.9021808626306597E-4</v>
+        <v>7.5565622718425356E-4</v>
       </c>
       <c r="J24">
-        <v>2.6819441058683138E-4</v>
+        <v>6.5321876589065494E-4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1.2547041388491772E-4</v>
+      <c r="A25" s="3">
+        <v>2.1758047513091843E-4</v>
       </c>
       <c r="B25">
-        <v>7.6423301125271904E-4</v>
+        <v>1.3790601362316324E-3</v>
       </c>
       <c r="C25">
-        <v>4.2631037612656257E-4</v>
+        <v>6.9228220213242767E-4</v>
       </c>
       <c r="D25">
-        <v>1.4093633479148396E-4</v>
+        <v>2.960030642904937E-4</v>
       </c>
       <c r="E25">
-        <v>2.3935501163909175E-4</v>
+        <v>3.8576380132512844E-4</v>
       </c>
       <c r="F25">
-        <v>1.2265760063600296E-4</v>
+        <v>2.6639762919972355E-4</v>
       </c>
       <c r="G25">
-        <v>5.2387264750265088E-4</v>
+        <v>7.920867541848179E-4</v>
       </c>
       <c r="H25">
-        <v>3.5838335407757573E-4</v>
+        <v>5.7099822156761221E-4</v>
       </c>
       <c r="I25">
-        <v>5.1879563760578171E-4</v>
+        <v>8.0030585014119579E-4</v>
       </c>
       <c r="J25">
-        <v>2.7712865795344723E-4</v>
+        <v>6.698416556488487E-4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1.2787176513760044E-4</v>
+      <c r="A26" s="3">
+        <v>2.2163120118978683E-4</v>
       </c>
       <c r="B26">
-        <v>7.8540339908467639E-4</v>
+        <v>1.4083402177932972E-3</v>
       </c>
       <c r="C26">
-        <v>4.4042850399272828E-4</v>
+        <v>7.1679132906038066E-4</v>
       </c>
       <c r="D26">
-        <v>1.4532697296596508E-4</v>
+        <v>3.0507440780369572E-4</v>
       </c>
       <c r="E26">
-        <v>2.5360597287470892E-4</v>
+        <v>4.0789733339480379E-4</v>
       </c>
       <c r="F26">
-        <v>1.2807434185700711E-4</v>
+        <v>2.7886527037144506E-4</v>
       </c>
       <c r="G26">
-        <v>5.5008946692313072E-4</v>
+        <v>8.3048121605552936E-4</v>
       </c>
       <c r="H26">
-        <v>3.7508015511310733E-4</v>
+        <v>5.971053776133179E-4</v>
       </c>
       <c r="I26">
-        <v>5.4765159361877514E-4</v>
+        <v>8.450712739071555E-4</v>
       </c>
       <c r="J26">
-        <v>2.8510093020770334E-4</v>
+        <v>6.8510642205358316E-4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1.3006435013201598E-4</v>
+      <c r="A27" s="3">
+        <v>2.2528959996146911E-4</v>
       </c>
       <c r="B27">
-        <v>7.9896048499654274E-4</v>
+        <v>1.4252340602094065E-3</v>
       </c>
       <c r="C27">
-        <v>4.5352609676624627E-4</v>
+        <v>7.3903713646920172E-4</v>
       </c>
       <c r="D27">
-        <v>1.4995983740200391E-4</v>
+        <v>3.1422603271143835E-4</v>
       </c>
       <c r="E27">
-        <v>2.6858556073646578E-4</v>
+        <v>4.3104070016259239E-4</v>
       </c>
       <c r="F27">
-        <v>1.3356860362036241E-4</v>
+        <v>2.912729423757629E-4</v>
       </c>
       <c r="G27">
-        <v>5.7570591564635922E-4</v>
+        <v>8.6785704638027753E-4</v>
       </c>
       <c r="H27">
-        <v>3.9206054311510645E-4</v>
+        <v>6.2340149124204508E-4</v>
       </c>
       <c r="I27">
-        <v>5.7677760190577338E-4</v>
+        <v>8.8990492237558732E-4</v>
       </c>
       <c r="J27">
-        <v>2.9216799679755408E-4</v>
+        <v>6.9926593482983661E-4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1.3204624861997471E-4</v>
+      <c r="A28" s="3">
+        <v>2.2855722590972642E-4</v>
       </c>
       <c r="B28">
-        <v>8.0537295422472739E-4</v>
+        <v>1.4306826220298842E-3</v>
       </c>
       <c r="C28">
-        <v>4.6560739157558851E-4</v>
+        <v>7.5916904243084928E-4</v>
       </c>
       <c r="D28">
-        <v>1.5486071124068849E-4</v>
+        <v>3.2352061191462465E-4</v>
       </c>
       <c r="E28">
-        <v>2.8427168856919694E-4</v>
+        <v>4.5516198733611915E-4</v>
       </c>
       <c r="F28">
-        <v>1.3914394058511407E-4</v>
+        <v>3.0362405308289963E-4</v>
       </c>
       <c r="G28">
-        <v>6.0076513538210869E-4</v>
+        <v>9.0429634284318111E-4</v>
       </c>
       <c r="H28">
-        <v>4.0934772567272076E-4</v>
+        <v>6.4991099882069365E-4</v>
       </c>
       <c r="I28">
-        <v>6.0615346799615312E-4</v>
+        <v>9.3474724909304229E-4</v>
       </c>
       <c r="J28">
-        <v>2.9840731030223995E-4</v>
+        <v>7.1257185790873977E-4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1.3382153797915342E-4</v>
+      <c r="A29" s="3">
+        <v>2.3144654815662432E-4</v>
       </c>
       <c r="B29">
-        <v>8.0536283951206577E-4</v>
+        <v>1.4260176132375217E-3</v>
       </c>
       <c r="C29">
-        <v>4.7668511697116346E-4</v>
+        <v>7.7740364133943747E-4</v>
       </c>
       <c r="D29">
-        <v>1.600482126848768E-4</v>
+        <v>3.3301597297351798E-4</v>
       </c>
       <c r="E29">
-        <v>3.0060901325877111E-4</v>
+        <v>4.8018297010499547E-4</v>
       </c>
       <c r="F29">
-        <v>1.4480175603108595E-4</v>
+        <v>3.1592098618542187E-4</v>
       </c>
       <c r="G29">
-        <v>6.2532358485402578E-4</v>
+        <v>9.3990559743735999E-4</v>
       </c>
       <c r="H29">
-        <v>4.2695448307505555E-4</v>
+        <v>6.7664433408017781E-4</v>
       </c>
       <c r="I29">
-        <v>6.3574586611000778E-4</v>
+        <v>9.7952552809864291E-4</v>
       </c>
       <c r="J29">
-        <v>3.0391541248565694E-4</v>
+        <v>7.2526956792024681E-4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1.3540006480565394E-4</v>
+      <c r="A30" s="3">
+        <v>2.339804897054275E-4</v>
       </c>
       <c r="B30">
-        <v>7.9989692597778525E-4</v>
+        <v>1.4129504992073287E-3</v>
       </c>
       <c r="C30">
-        <v>4.8680257626117045E-4</v>
+        <v>7.9402625440963754E-4</v>
       </c>
       <c r="D30">
-        <v>1.6553153491329046E-4</v>
+        <v>3.427625953128751E-4</v>
       </c>
       <c r="E30">
-        <v>3.1750041028600484E-4</v>
+        <v>5.059684059120739E-4</v>
       </c>
       <c r="F30">
-        <v>1.5054157192191962E-4</v>
+        <v>3.2816533952355743E-4</v>
       </c>
       <c r="G30">
-        <v>6.4945205433353205E-4</v>
+        <v>9.7481622512792204E-4</v>
       </c>
       <c r="H30">
-        <v>4.4488119766532763E-4</v>
+        <v>7.0359547543551951E-4</v>
       </c>
       <c r="I30">
-        <v>6.655069708480369E-4</v>
+        <v>1.0241526469121833E-3</v>
       </c>
       <c r="J30">
-        <v>3.0880612637216307E-4</v>
+        <v>7.3759390346182113E-4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1.3679725617985765E-4</v>
+      <c r="A31" s="3">
+        <v>2.3619202190809177E-4</v>
       </c>
       <c r="B31">
-        <v>7.9017878679129281E-4</v>
+        <v>1.3935614281363462E-3</v>
       </c>
       <c r="C31">
-        <v>4.9605462583859178E-4</v>
+        <v>8.0939127195562351E-4</v>
       </c>
       <c r="D31">
-        <v>1.7130753875916195E-4</v>
+        <v>3.528002430639758E-4</v>
       </c>
       <c r="E31">
-        <v>3.3479758140850951E-4</v>
+        <v>5.3231439079507684E-4</v>
       </c>
       <c r="F31">
-        <v>1.5636124588409806E-4</v>
+        <v>3.4035809146320926E-4</v>
       </c>
       <c r="G31">
-        <v>6.732364197798873E-4</v>
+        <v>1.0091847074408971E-3</v>
       </c>
       <c r="H31">
-        <v>4.6311376267951565E-4</v>
+        <v>7.3073929664976432E-4</v>
       </c>
       <c r="I31">
-        <v>6.9537306716182102E-4</v>
+        <v>1.0685259994461535E-3</v>
       </c>
       <c r="J31">
-        <v>3.1320866121664083E-4</v>
+        <v>7.4976591931931393E-4</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1.3803393240485623E-4</v>
+      <c r="A32" s="3">
+        <v>2.3812375792753307E-4</v>
       </c>
       <c r="B32">
-        <v>7.7764269214564076E-4</v>
+        <v>1.3702894978098062E-3</v>
       </c>
       <c r="C32">
-        <v>5.0460384075821138E-4</v>
+        <v>8.2392134143896242E-4</v>
       </c>
       <c r="D32">
-        <v>1.7735717519071239E-4</v>
+        <v>3.6315365767760949E-4</v>
       </c>
       <c r="E32">
-        <v>3.5229139358707257E-4</v>
+        <v>5.5893652226760568E-4</v>
       </c>
       <c r="F32">
-        <v>1.6225714543706998E-4</v>
+        <v>3.5249971495534627E-4</v>
       </c>
       <c r="G32">
-        <v>6.9677811250779464E-4</v>
+        <v>1.0431923574530388E-3</v>
       </c>
       <c r="H32">
-        <v>4.8162144708767537E-4</v>
+        <v>7.5802882664452855E-4</v>
       </c>
       <c r="I32">
-        <v>7.2526320442357645E-4</v>
+        <v>1.1125265877784713E-3</v>
       </c>
       <c r="J32">
-        <v>3.1726574604687614E-4</v>
+        <v>7.6199079109622861E-4</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1.3913608617044035E-4</v>
+      <c r="A33" s="3">
+        <v>2.3982749474284656E-4</v>
       </c>
       <c r="B33">
-        <v>7.6395056252102542E-4</v>
+        <v>1.3459257554899709E-3</v>
       </c>
       <c r="C33">
-        <v>5.1268859175312249E-4</v>
+        <v>8.3810558354800865E-4</v>
       </c>
       <c r="D33">
-        <v>1.8364130820131537E-4</v>
+        <v>3.7382733223883033E-4</v>
       </c>
       <c r="E33">
-        <v>3.6970295965877765E-4</v>
+        <v>5.8545908243381149E-4</v>
       </c>
       <c r="F33">
-        <v>1.6822428705367425E-4</v>
+        <v>3.6459025301652898E-4</v>
       </c>
       <c r="G33">
-        <v>7.2019424667264299E-4</v>
+        <v>1.0770446949745836E-3</v>
       </c>
       <c r="H33">
-        <v>5.0035483085514342E-4</v>
+        <v>7.8539257516458175E-4</v>
       </c>
       <c r="I33">
-        <v>7.550779722777937E-4</v>
+        <v>1.1560184536091721E-3</v>
       </c>
       <c r="J33">
-        <v>3.2113189110340992E-4</v>
+        <v>7.7445697906065392E-4</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1.4012548081118558E-4</v>
+      <c r="A34" s="3">
+        <v>2.4134600870870024E-4</v>
       </c>
       <c r="B34">
-        <v>7.5045127177783457E-4</v>
+        <v>1.3227045121382149E-3</v>
       </c>
       <c r="C34">
-        <v>5.2054987758647271E-4</v>
+        <v>8.5233698076535281E-4</v>
       </c>
       <c r="D34">
-        <v>1.9011343341291279E-4</v>
+        <v>3.8480347888114581E-4</v>
       </c>
       <c r="E34">
-        <v>3.8677772795383083E-4</v>
+        <v>6.1154155568516396E-4</v>
       </c>
       <c r="F34">
-        <v>1.7425061265025554E-4</v>
+        <v>3.7661522968077495E-4</v>
       </c>
       <c r="G34">
-        <v>7.4356867297535969E-4</v>
+        <v>1.110888667988776E-3</v>
       </c>
       <c r="H34">
-        <v>5.1925813428066762E-4</v>
+        <v>8.1275654665521446E-4</v>
       </c>
       <c r="I34">
-        <v>7.8472634003364883E-4</v>
+        <v>1.1988893960874186E-3</v>
       </c>
       <c r="J34">
-        <v>3.2495582126872017E-4</v>
+        <v>7.8730885295801966E-4</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1.410092229253617E-4</v>
+      <c r="A35" s="3">
+        <v>2.4269304613923587E-4</v>
       </c>
       <c r="B35">
-        <v>7.3757734703590371E-4</v>
+        <v>1.3013063790069939E-3</v>
       </c>
       <c r="C35">
-        <v>5.2832376057428978E-4</v>
+        <v>8.6673517796824159E-4</v>
       </c>
       <c r="D35">
-        <v>1.9674368824803038E-4</v>
+        <v>3.9605306400983519E-4</v>
       </c>
       <c r="E35">
-        <v>4.0341375519175519E-4</v>
+        <v>6.3704812373677883E-4</v>
       </c>
       <c r="F35">
-        <v>1.803129112580404E-4</v>
+        <v>3.8853438122074053E-4</v>
       </c>
       <c r="G35">
-        <v>7.6690077099464816E-4</v>
+        <v>1.1447274914341686E-3</v>
       </c>
       <c r="H35">
-        <v>5.3829119598502377E-4</v>
+        <v>8.4007922043669264E-4</v>
       </c>
       <c r="I35">
-        <v>8.1416118073057665E-4</v>
+        <v>1.2411006041882651E-3</v>
       </c>
       <c r="J35">
-        <v>3.2885747346910897E-4</v>
+        <v>8.0061949861785265E-4</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1.4178711354915932E-4</v>
+      <c r="A36" s="3">
+        <v>2.4386783334440448E-4</v>
       </c>
       <c r="B36">
-        <v>7.252771318852785E-4</v>
+        <v>1.2816007779637561E-3</v>
       </c>
       <c r="C36">
-        <v>5.3607141319296568E-4</v>
+        <v>8.8127850164964293E-4</v>
       </c>
       <c r="D36">
-        <v>2.0351464985033865E-4</v>
+        <v>4.0754625974039814E-4</v>
       </c>
       <c r="E36">
-        <v>4.196036058388596E-4</v>
+        <v>6.6196731622559873E-4</v>
       </c>
       <c r="F36">
-        <v>1.8638470898056279E-4</v>
+        <v>4.0029906134083639E-4</v>
       </c>
       <c r="G36">
-        <v>7.9014846156491092E-4</v>
+        <v>1.1784943033806121E-3</v>
       </c>
       <c r="H36">
-        <v>5.5742710626821221E-4</v>
+        <v>8.6734292647206422E-4</v>
       </c>
       <c r="I36">
-        <v>8.4336252662658637E-4</v>
+        <v>1.2826566581135798E-3</v>
       </c>
       <c r="J36">
-        <v>3.3293498484147173E-4</v>
+        <v>8.1441862383988418E-4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1.4246013910858979E-4</v>
+      <c r="A37" s="3">
+        <v>2.4487162254279858E-4</v>
       </c>
       <c r="B37">
-        <v>7.1350972984996072E-4</v>
+        <v>1.2634783342520073E-3</v>
       </c>
       <c r="C37">
-        <v>5.4384232379214013E-4</v>
+        <v>8.9595114319262472E-4</v>
       </c>
       <c r="D37">
-        <v>2.1040790359495778E-4</v>
+        <v>4.1925243686594289E-4</v>
       </c>
       <c r="E37">
-        <v>4.3534612394378446E-4</v>
+        <v>6.8629356077613217E-4</v>
       </c>
       <c r="F37">
-        <v>1.9244226693717378E-4</v>
+        <v>4.118664768762949E-4</v>
       </c>
       <c r="G37">
-        <v>8.1327326445057233E-4</v>
+        <v>1.2121282160907913E-3</v>
       </c>
       <c r="H37">
-        <v>5.7664110009931525E-4</v>
+        <v>8.9453335797987077E-4</v>
       </c>
       <c r="I37">
-        <v>8.723126682596633E-4</v>
+        <v>1.3235665360353381E-3</v>
       </c>
       <c r="J37">
-        <v>3.3727826264543274E-4</v>
+        <v>8.2872268674916226E-4</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1.4303043331912008E-4</v>
+      <c r="A38" s="3">
+        <v>2.4570762467997432E-4</v>
       </c>
       <c r="B38">
-        <v>7.0224353551881177E-4</v>
+        <v>1.2468481111033056E-3</v>
       </c>
       <c r="C38">
-        <v>5.5167787636832685E-4</v>
+        <v>9.1074216355703356E-4</v>
       </c>
       <c r="D38">
-        <v>2.1740403259435395E-4</v>
+        <v>4.3114011734321397E-4</v>
       </c>
       <c r="E38">
-        <v>4.5064602020690805E-4</v>
+        <v>7.1002666295396516E-4</v>
       </c>
       <c r="F38">
-        <v>1.9846415790954148E-4</v>
+        <v>4.2319894565731169E-4</v>
       </c>
       <c r="G38">
-        <v>8.3623984355680385E-4</v>
+        <v>1.2455735415714219E-3</v>
       </c>
       <c r="H38">
-        <v>5.9591035586140464E-4</v>
+        <v>9.216391507877172E-4</v>
       </c>
       <c r="I38">
-        <v>9.0099603893869671E-4</v>
+        <v>1.3638429244738565E-3</v>
       </c>
       <c r="J38">
-        <v>3.4196972504030743E-4</v>
+        <v>8.4353916452539366E-4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1.4350123900777254E-4</v>
+      <c r="A39" s="3">
+        <v>2.4638094339612303E-4</v>
       </c>
       <c r="B39">
-        <v>6.9145501669250979E-4</v>
+        <v>1.2316353175567485E-3</v>
       </c>
       <c r="C39">
-        <v>5.5961386597004202E-4</v>
+        <v>9.2564464580964772E-4</v>
       </c>
       <c r="D39">
-        <v>2.2448262756908006E-4</v>
+        <v>4.4317695834572947E-4</v>
       </c>
       <c r="E39">
-        <v>4.6551340667096407E-4</v>
+        <v>7.3317132680689688E-4</v>
       </c>
       <c r="F39">
-        <v>2.044309416911475E-4</v>
+        <v>4.3426330806132157E-4</v>
       </c>
       <c r="G39">
-        <v>8.5901563831796411E-4</v>
+        <v>1.2787791678784803E-3</v>
       </c>
       <c r="H39">
-        <v>6.1521382799108876E-4</v>
+        <v>9.4865151770162724E-4</v>
       </c>
       <c r="I39">
-        <v>9.293991173234973E-4</v>
+        <v>1.4035016242611228E-3</v>
       </c>
       <c r="J39">
-        <v>3.4708509128993841E-4</v>
+        <v>8.588700609580759E-4</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1.4387687008599921E-4</v>
+        <v>2.4689851015599769E-4</v>
       </c>
       <c r="B40">
-        <v>6.8112770324590824E-4</v>
+        <v>1.2177794079118265E-3</v>
       </c>
       <c r="C40">
-        <v>5.6768224658965041E-4</v>
+        <v>9.4065497820605291E-4</v>
       </c>
       <c r="D40">
-        <v>2.3162231825637027E-4</v>
+        <v>4.553297680326334E-4</v>
       </c>
       <c r="E40">
-        <v>4.7996327651401359E-4</v>
+        <v>7.5573671476691711E-4</v>
       </c>
       <c r="F40">
-        <v>2.1032491254325327E-4</v>
+        <v>4.4503045210858122E-4</v>
       </c>
       <c r="G40">
-        <v>8.8157056249700289E-4</v>
+        <v>1.3116980532094618E-3</v>
       </c>
       <c r="H40">
-        <v>6.3453210901452564E-4</v>
+        <v>9.7556392898590235E-4</v>
       </c>
       <c r="I40">
-        <v>9.5751034826192783E-4</v>
+        <v>1.442561038144151E-3</v>
       </c>
       <c r="J40">
-        <v>3.5269416092822937E-4</v>
+        <v>8.7471476058886258E-4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1.4416267384362145E-4</v>
+        <v>2.4726902048140275E-4</v>
       </c>
       <c r="B41">
-        <v>6.7125134863487313E-4</v>
+        <v>1.2052325080795419E-3</v>
       </c>
       <c r="C41">
-        <v>5.7591233005293424E-4</v>
+        <v>9.5577225227502262E-4</v>
       </c>
       <c r="D41">
-        <v>2.3880082726334426E-4</v>
+        <v>4.6756455299010982E-4</v>
       </c>
       <c r="E41">
-        <v>4.9401492977024298E-4</v>
+        <v>7.7773604557622152E-4</v>
       </c>
       <c r="F41">
-        <v>2.1612990003139741E-4</v>
+        <v>4.5547492371896182E-4</v>
       </c>
       <c r="G41">
-        <v>9.038767562551714E-4</v>
+        <v>1.3442868128235885E-3</v>
       </c>
       <c r="H41">
-        <v>6.5384731739476969E-4</v>
+        <v>1.0023718318531098E-3</v>
       </c>
       <c r="I41">
-        <v>9.8532008125759899E-4</v>
+        <v>1.4810417285941008E-3</v>
       </c>
       <c r="J41">
-        <v>3.5886154165331577E-4</v>
+        <v>8.9107233386377194E-4</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1.4436499368139933E-4</v>
+        <v>2.4750287116119188E-4</v>
       </c>
       <c r="B42">
-        <v>6.6182123761105219E-4</v>
+        <v>1.1939581173136709E-3</v>
       </c>
       <c r="C42">
-        <v>5.843315934563856E-4</v>
+        <v>9.7099776183684375E-4</v>
       </c>
       <c r="D42">
-        <v>2.4599504690575152E-4</v>
+        <v>4.7984659697363917E-4</v>
       </c>
       <c r="E42">
-        <v>5.076913489957313E-4</v>
+        <v>7.9918622875670164E-4</v>
       </c>
       <c r="F42">
-        <v>2.2183110986984805E-4</v>
+        <v>4.6557460176947346E-4</v>
       </c>
       <c r="G42">
-        <v>9.2590838066372615E-4</v>
+        <v>1.3765053796004592E-3</v>
       </c>
       <c r="H42">
-        <v>6.7314300820174751E-4</v>
+        <v>1.0290724031884206E-3</v>
       </c>
       <c r="I42">
-        <v>1.0128205251732547E-3</v>
+        <v>1.5189660362425056E-3</v>
       </c>
       <c r="J42">
-        <v>3.6564730003457691E-4</v>
+        <v>9.0794338991018002E-4</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1.444911323540145E-4</v>
+        <v>2.4761209825949573E-4</v>
       </c>
       <c r="B43">
-        <v>6.5283761946271037E-4</v>
+        <v>1.1839300443051988E-3</v>
       </c>
       <c r="C43">
-        <v>5.9296620767171717E-4</v>
+        <v>9.8633459023288943E-4</v>
       </c>
       <c r="D43">
-        <v>2.5318113913478041E-4</v>
+        <v>4.9214057016801378E-4</v>
       </c>
       <c r="E43">
-        <v>5.210185317838195E-4</v>
+        <v>8.2010753405200405E-4</v>
       </c>
       <c r="F43">
-        <v>2.2741499512074433E-4</v>
+        <v>4.75310423188058E-4</v>
       </c>
       <c r="G43">
-        <v>9.4764144631576195E-4</v>
+        <v>1.4083167233834618E-3</v>
       </c>
       <c r="H43">
-        <v>6.9240410402285238E-4</v>
+        <v>1.0556643308042293E-3</v>
       </c>
       <c r="I43">
-        <v>1.0400057170806686E-3</v>
+        <v>1.5563577509067994E-3</v>
       </c>
       <c r="J43">
-        <v>3.7310751886175208E-4</v>
+        <v>9.25331563293894E-4</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1.4454931575409884E-4</v>
+        <v>2.4761031569715797E-4</v>
       </c>
       <c r="B44">
-        <v>6.4430525048617528E-4</v>
+        <v>1.1751315450480712E-3</v>
       </c>
       <c r="C44">
-        <v>6.0184136695369799E-4</v>
+        <v>1.0017872742333048E-3</v>
       </c>
       <c r="D44">
-        <v>2.603346581444584E-4</v>
+        <v>5.0441066768538588E-4</v>
       </c>
       <c r="E44">
-        <v>5.3402478946241885E-4</v>
+        <v>8.4052329418547506E-4</v>
       </c>
       <c r="F44">
-        <v>2.3286915070442921E-4</v>
+        <v>4.8466614725100574E-4</v>
       </c>
       <c r="G44">
-        <v>9.6905366953873543E-4</v>
+        <v>1.439686617484074E-3</v>
       </c>
       <c r="H44">
-        <v>7.1161684373443387E-4</v>
+        <v>1.0821476193491435E-3</v>
       </c>
       <c r="I44">
-        <v>1.0668715024366618E-3</v>
+        <v>1.5932418283851634E-3</v>
       </c>
       <c r="J44">
-        <v>3.8129475122516509E-4</v>
+        <v>9.4324470968228558E-4</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1.445486572307429E-4</v>
+        <v>2.4751265414415873E-4</v>
       </c>
       <c r="B45">
-        <v>6.3623303278943256E-4</v>
+        <v>1.1675546367303519E-3</v>
       </c>
       <c r="C45">
-        <v>6.1098147649886003E-4</v>
+        <v>1.0173615341602452E-3</v>
       </c>
       <c r="D45">
-        <v>2.674306946882553E-4</v>
+        <v>5.1662077546487783E-4</v>
       </c>
       <c r="E45">
-        <v>5.4674002323947457E-4</v>
+        <v>8.6045963920432234E-4</v>
       </c>
       <c r="F45">
-        <v>2.3818222603460957E-4</v>
+        <v>4.9362815105152326E-4</v>
       </c>
       <c r="G45">
-        <v>9.9012435109644944E-4</v>
+        <v>1.4705834431687423E-3</v>
       </c>
       <c r="H45">
-        <v>7.3076874678572031E-4</v>
+        <v>1.1085234176509513E-3</v>
       </c>
       <c r="I45">
-        <v>1.0934155230152413E-3</v>
+        <v>1.629644147192607E-3</v>
       </c>
       <c r="J45">
-        <v>3.9025836510691615E-4</v>
+        <v>9.6169587369166333E-4</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1.4449909200032628E-4</v>
+        <v>2.4733567690727996E-4</v>
       </c>
       <c r="B46">
-        <v>6.2863385279047471E-4</v>
+        <v>1.1611964548289726E-3</v>
       </c>
       <c r="C46">
-        <v>6.2040205835629065E-4</v>
+        <v>1.0330504440378317E-3</v>
       </c>
       <c r="D46">
-        <v>2.7444055741730929E-4</v>
+        <v>5.2872797252112266E-4</v>
       </c>
       <c r="E46">
-        <v>5.5918792005576871E-4</v>
+        <v>8.7993413407421459E-4</v>
       </c>
       <c r="F46">
-        <v>2.4333982359900846E-4</v>
+        <v>5.0217690687665852E-4</v>
       </c>
       <c r="G46">
-        <v>1.0108165827970848E-3</v>
+        <v>1.5009518641143336E-3</v>
       </c>
       <c r="H46">
-        <v>7.498361647958968E-4</v>
+        <v>1.1347760174965451E-3</v>
       </c>
       <c r="I46">
-        <v>1.1196178247013535E-3</v>
+        <v>1.6655635395952943E-3</v>
       </c>
       <c r="J46">
-        <v>4.0003789086517048E-4</v>
+        <v>9.8068830940780424E-4</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1.4441143488302653E-4</v>
+        <v>2.4709738749226548E-4</v>
       </c>
       <c r="B47">
-        <v>6.2152408592131838E-4</v>
+        <v>1.1560682116088777E-3</v>
       </c>
       <c r="C47">
-        <v>6.3013461919963413E-4</v>
+        <v>1.0488756513912321E-3</v>
       </c>
       <c r="D47">
-        <v>2.8134246790792689E-4</v>
+        <v>5.4070296149227425E-4</v>
       </c>
       <c r="E47">
-        <v>5.7140659971173036E-4</v>
+        <v>8.9898921371297689E-4</v>
       </c>
       <c r="F47">
-        <v>2.4833670552395511E-4</v>
+        <v>5.1031230210153039E-4</v>
       </c>
       <c r="G47">
-        <v>1.0311311526320158E-3</v>
+        <v>1.5307925322724011E-3</v>
       </c>
       <c r="H47">
-        <v>7.6882203692827604E-4</v>
+        <v>1.1609269181831793E-3</v>
       </c>
       <c r="I47">
-        <v>1.145499887268171E-3</v>
+        <v>1.7010561508934211E-3</v>
       </c>
       <c r="J47">
-        <v>4.106840536800331E-4</v>
+        <v>1.0002641562231577E-3</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1.4429728116640113E-4</v>
+        <v>2.4681712193901632E-4</v>
       </c>
       <c r="B48">
-        <v>6.1492356742192192E-4</v>
+        <v>1.1521886756739211E-3</v>
       </c>
       <c r="C48">
-        <v>6.4020928464999919E-4</v>
+        <v>1.0648583932324931E-3</v>
       </c>
       <c r="D48">
-        <v>2.88114606962794E-4</v>
+        <v>5.5251647229274589E-4</v>
       </c>
       <c r="E48">
-        <v>5.8343326329143906E-4</v>
+        <v>9.1766895173920075E-4</v>
       </c>
       <c r="F48">
-        <v>2.5316812305262767E-4</v>
+        <v>5.1803543716003216E-4</v>
       </c>
       <c r="G48">
-        <v>1.0510682874546688E-3</v>
+        <v>1.5601055001435847E-3</v>
       </c>
       <c r="H48">
-        <v>7.8772954315987854E-4</v>
+        <v>1.1869970044469872E-3</v>
       </c>
       <c r="I48">
-        <v>1.1710831347342544E-3</v>
+        <v>1.7361759483385828E-3</v>
       </c>
       <c r="J48">
-        <v>4.2224413524241926E-4</v>
+        <v>1.0204712719977076E-3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1.4416891540158569E-4</v>
+        <v>2.465154394326689E-4</v>
       </c>
       <c r="B49">
-        <v>6.0885589710649765E-4</v>
+        <v>1.1495778467741893E-3</v>
       </c>
       <c r="C49">
-        <v>6.5063934489455926E-4</v>
+        <v>1.080993820257548E-3</v>
       </c>
       <c r="D49">
-        <v>2.9472853820598435E-4</v>
+        <v>5.6412657505478046E-4</v>
       </c>
       <c r="E49">
-        <v>5.9528987841445048E-4</v>
+        <v>9.3599745249331847E-4</v>
       </c>
       <c r="F49">
-        <v>2.5782228905401157E-4</v>
+        <v>5.2533321506883157E-4</v>
       </c>
       <c r="G49">
-        <v>1.0705950485779257E-3</v>
+        <v>1.5888420009921658E-3</v>
       </c>
       <c r="H49">
-        <v>8.0653876140882486E-4</v>
+        <v>1.2129727720678505E-3</v>
       </c>
       <c r="I49">
-        <v>1.1963528835812153E-3</v>
+        <v>1.7709229481490667E-3</v>
       </c>
       <c r="J49">
-        <v>4.3474899040294324E-4</v>
+        <v>1.0413344181083467E-3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1.4403732941905168E-4</v>
+        <v>2.4621034876985709E-4</v>
       </c>
       <c r="B50">
-        <v>6.0310800446637691E-4</v>
+        <v>1.1478973424039007E-3</v>
       </c>
       <c r="C50">
-        <v>6.6150326968573091E-4</v>
+        <v>1.0976464491668906E-3</v>
       </c>
       <c r="D50">
-        <v>3.013633467334169E-4</v>
+        <v>5.758329316546437E-4</v>
       </c>
       <c r="E50">
-        <v>6.0727975745129359E-4</v>
+        <v>9.5449853033555772E-4</v>
       </c>
       <c r="F50">
-        <v>2.6248099347339746E-4</v>
+        <v>5.3267467263844051E-4</v>
       </c>
       <c r="G50">
-        <v>1.0903830804808606E-3</v>
+        <v>1.6179849813277418E-3</v>
       </c>
       <c r="H50">
-        <v>8.2558793201226437E-4</v>
+        <v>1.2393754485721426E-3</v>
       </c>
       <c r="I50">
-        <v>1.2219330104880513E-3</v>
+        <v>1.8062181277789839E-3</v>
       </c>
       <c r="J50">
-        <v>4.478416658790427E-4</v>
+        <v>1.0629306075285148E-3</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1.4390705315581555E-4</v>
+        <v>2.4590921042538338E-4</v>
       </c>
       <c r="B51">
-        <v>5.9745607222007411E-4</v>
+        <v>1.1467927167908704E-3</v>
       </c>
       <c r="C51">
-        <v>6.728610969660325E-4</v>
+        <v>1.115157067982609E-3</v>
       </c>
       <c r="D51">
-        <v>3.0821071978669726E-4</v>
+        <v>5.8795084499286383E-4</v>
       </c>
       <c r="E51">
-        <v>6.1968872738991086E-4</v>
+        <v>9.7366908155322796E-4</v>
       </c>
       <c r="F51">
-        <v>2.6732463997878941E-4</v>
+        <v>5.4050592712776783E-4</v>
       </c>
       <c r="G51">
-        <v>1.111080932841014E-3</v>
+        <v>1.6484829305909753E-3</v>
       </c>
       <c r="H51">
-        <v>8.4520939346156463E-4</v>
+        <v>1.2667076019465067E-3</v>
       </c>
       <c r="I51">
-        <v>1.2484223786080517E-3</v>
+        <v>1.8429316634980856E-3</v>
       </c>
       <c r="J51">
-        <v>4.6115215588509936E-4</v>
+        <v>1.085293781090467E-3</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1.4377787514261982E-4</v>
+        <v>2.4561193679779951E-4</v>
       </c>
       <c r="B52">
-        <v>5.9189628671138831E-4</v>
+        <v>1.1462503042949815E-3</v>
       </c>
       <c r="C52">
-        <v>6.8469935659362397E-4</v>
+        <v>1.1334973192247291E-3</v>
       </c>
       <c r="D52">
-        <v>3.1526859282269529E-4</v>
+        <v>6.0047421041296628E-4</v>
       </c>
       <c r="E52">
-        <v>6.3251150281324893E-4</v>
+        <v>9.9349996912664038E-4</v>
       </c>
       <c r="F52">
-        <v>2.7234936335007672E-4</v>
+        <v>5.4880211635004086E-4</v>
       </c>
       <c r="G52">
-        <v>1.132650640802752E-3</v>
+        <v>1.6802787602142174E-3</v>
       </c>
       <c r="H52">
-        <v>8.6539158489259103E-4</v>
+        <v>1.2949482400712979E-3</v>
       </c>
       <c r="I52">
-        <v>1.2757948332701998E-3</v>
+        <v>1.8810179640297508E-3</v>
       </c>
       <c r="J52">
-        <v>4.7469045465493181E-4</v>
+        <v>1.1084076029070236E-3</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1.4364958233006625E-4</v>
+        <v>2.4531844410544937E-4</v>
       </c>
       <c r="B53">
-        <v>5.8642503831841919E-4</v>
+        <v>1.1462573733899805E-3</v>
       </c>
       <c r="C53">
-        <v>6.9700581200159292E-4</v>
+        <v>1.1526416574057434E-3</v>
       </c>
       <c r="D53">
-        <v>3.2253504000637271E-4</v>
+        <v>6.1339741259930196E-4</v>
       </c>
       <c r="E53">
-        <v>6.457432048025465E-4</v>
+        <v>1.0139827418754585E-3</v>
       </c>
       <c r="F53">
-        <v>2.7755148714434538E-4</v>
+        <v>5.5754138499603749E-4</v>
       </c>
       <c r="G53">
-        <v>1.1550588596084745E-3</v>
+        <v>1.7133223363677151E-3</v>
       </c>
       <c r="H53">
-        <v>8.8612416159713288E-4</v>
+        <v>1.3240784443660533E-3</v>
       </c>
       <c r="I53">
-        <v>1.3040271496242062E-3</v>
+        <v>1.9204364935699301E-3</v>
       </c>
       <c r="J53">
-        <v>4.8846495343445625E-4</v>
+        <v>1.1322572807978856E-3</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1.4314075892287662E-4</v>
+        <v>2.441803553843722E-4</v>
       </c>
       <c r="B54">
-        <v>5.6535254811209204E-4</v>
+        <v>1.1515468262675048E-3</v>
       </c>
       <c r="C54">
-        <v>7.5070284976428076E-4</v>
+        <v>1.2368246663882275E-3</v>
       </c>
       <c r="D54">
-        <v>3.5365371476934635E-4</v>
+        <v>6.6899226565866204E-4</v>
       </c>
       <c r="E54">
-        <v>7.0267578043631317E-4</v>
+        <v>1.1022871100541144E-3</v>
       </c>
       <c r="F54">
-        <v>3.0006627409121265E-4</v>
+        <v>5.965697965404352E-4</v>
       </c>
       <c r="G54">
-        <v>1.2525282693751183E-3</v>
+        <v>1.8571495286111004E-3</v>
       </c>
       <c r="H54">
-        <v>9.7438617095508976E-4</v>
+        <v>1.4491748005607641E-3</v>
       </c>
       <c r="I54">
-        <v>1.4251677747039548E-3</v>
+        <v>2.0907555543118461E-3</v>
       </c>
       <c r="J54">
-        <v>5.4605415854059669E-4</v>
+        <v>1.2347616026299234E-3</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1.4262879419813407E-4</v>
+        <v>2.4309703767090568E-4</v>
       </c>
       <c r="B55">
-        <v>5.4545132734033861E-4</v>
+        <v>1.1648018036260633E-3</v>
       </c>
       <c r="C55">
-        <v>8.111511847458025E-4</v>
+        <v>1.3323625521152232E-3</v>
       </c>
       <c r="D55">
-        <v>3.8798292370384902E-4</v>
+        <v>7.3063074305130561E-4</v>
       </c>
       <c r="E55">
-        <v>7.6583983896022837E-4</v>
+        <v>1.2004806391597591E-3</v>
       </c>
       <c r="F55">
-        <v>3.2517718832445733E-4</v>
+        <v>6.4147598150171385E-4</v>
       </c>
       <c r="G55">
-        <v>1.3615689859622065E-3</v>
+        <v>2.0181679936285878E-3</v>
       </c>
       <c r="H55">
-        <v>1.0708560223548526E-3</v>
+        <v>1.5873814252518536E-3</v>
       </c>
       <c r="I55">
-        <v>1.558744901158379E-3</v>
+        <v>2.2800736060977762E-3</v>
       </c>
       <c r="J55">
-        <v>6.0782410984946034E-4</v>
+        <v>1.3481490731263089E-3</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1.4209977495497641E-4</v>
+        <v>2.4206479731408623E-4</v>
       </c>
       <c r="B56">
-        <v>5.2655716389342474E-4</v>
+        <v>1.1855097208109562E-3</v>
       </c>
       <c r="C56">
-        <v>8.7794319679757504E-4</v>
+        <v>1.4384419226551729E-3</v>
       </c>
       <c r="D56">
-        <v>4.2544696704772196E-4</v>
+        <v>7.9810953049039984E-4</v>
       </c>
       <c r="E56">
-        <v>8.3505346080451086E-4</v>
+        <v>1.3082456330484153E-3</v>
       </c>
       <c r="F56">
-        <v>3.5274254334053242E-4</v>
+        <v>6.9165498637662522E-4</v>
       </c>
       <c r="G56">
-        <v>1.481268742759429E-3</v>
+        <v>2.19500689691876E-3</v>
       </c>
       <c r="H56">
-        <v>1.1752330022062106E-3</v>
+        <v>1.7380992265075418E-3</v>
       </c>
       <c r="I56">
-        <v>1.7040914101128519E-3</v>
+        <v>2.4872033010926919E-3</v>
       </c>
       <c r="J56">
-        <v>6.7394133948675615E-4</v>
+        <v>1.4719356902900922E-3</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1.415399822860466E-4</v>
+        <v>2.4108073800405556E-4</v>
       </c>
       <c r="B57">
-        <v>5.0852815966328277E-4</v>
+        <v>1.2132545992139861E-3</v>
       </c>
       <c r="C57">
-        <v>9.5078369074361722E-4</v>
+        <v>1.5544847836209651E-3</v>
       </c>
       <c r="D57">
-        <v>4.6598614858464778E-4</v>
+        <v>8.7127448514679969E-4</v>
       </c>
       <c r="E57">
-        <v>9.1017596408267767E-4</v>
+        <v>1.4253364783208522E-3</v>
       </c>
       <c r="F57">
-        <v>3.8265713683519027E-4</v>
+        <v>7.4670321140144836E-4</v>
       </c>
       <c r="G57">
-        <v>1.6110241841701823E-3</v>
+        <v>2.3867596908059546E-3</v>
       </c>
       <c r="H57">
-        <v>1.2873188409898665E-3</v>
+        <v>1.9009047178769767E-3</v>
       </c>
       <c r="I57">
-        <v>1.860759653231967E-3</v>
+        <v>2.7113351520339749E-3</v>
       </c>
       <c r="J57">
-        <v>7.4449574157818728E-4</v>
+        <v>1.6057735592281894E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1.4093611453299044E-4</v>
+        <v>2.4014256948366876E-4</v>
       </c>
       <c r="B58">
-        <v>4.9123898475807474E-4</v>
+        <v>1.2476557323266629E-3</v>
       </c>
       <c r="C58">
-        <v>1.0293972885427377E-3</v>
+        <v>1.679976169017245E-3</v>
       </c>
       <c r="D58">
-        <v>5.0952624963710987E-4</v>
+        <v>9.4995641435597624E-4</v>
       </c>
       <c r="E58">
-        <v>9.910461431915053E-4</v>
+        <v>1.5514812940859448E-3</v>
       </c>
       <c r="F58">
-        <v>4.1481782970419423E-4</v>
+        <v>8.0629290743671866E-4</v>
       </c>
       <c r="G58">
-        <v>1.7503117409801011E-3</v>
+        <v>2.592642142336211E-3</v>
       </c>
       <c r="H58">
-        <v>1.4068986381622945E-3</v>
+        <v>2.0753696405461249E-3</v>
       </c>
       <c r="I58">
-        <v>2.0283162229328888E-3</v>
+        <v>2.9517209143788189E-3</v>
       </c>
       <c r="J58">
-        <v>8.1949032955684425E-4</v>
+        <v>1.7493056601220972E-3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1.4027568530279637E-4</v>
+        <v>2.392489355654865E-4</v>
       </c>
       <c r="B59">
-        <v>4.7457962177489387E-4</v>
+        <v>1.2884440424998918E-3</v>
       </c>
       <c r="C59">
-        <v>1.1136758699384734E-3</v>
+        <v>1.8146967352796538E-3</v>
       </c>
       <c r="D59">
-        <v>5.5605365081365518E-4</v>
+        <v>1.034109753535499E-3</v>
       </c>
       <c r="E59">
-        <v>1.0776225674864371E-3</v>
+        <v>1.6866002452288545E-3</v>
       </c>
       <c r="F59">
-        <v>4.4919068994887367E-4</v>
+        <v>8.7027729613562321E-4</v>
       </c>
       <c r="G59">
-        <v>1.8989568247667402E-3</v>
+        <v>2.8123894121616969E-3</v>
       </c>
       <c r="H59">
-        <v>1.5339659909765313E-3</v>
+        <v>2.2613887195915613E-3</v>
       </c>
       <c r="I59">
-        <v>2.2066710237802628E-3</v>
+        <v>3.2081364052466204E-3</v>
       </c>
       <c r="J59">
-        <v>8.9899621875243782E-4</v>
+        <v>1.9024415106743318E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1.3954701755858367E-4</v>
+        <v>2.3839912446669986E-4</v>
       </c>
       <c r="B60">
-        <v>4.5845122136100778E-4</v>
+        <v>1.3353856343372328E-3</v>
       </c>
       <c r="C60">
-        <v>1.203544229477274E-3</v>
+        <v>1.9584934819786596E-3</v>
       </c>
       <c r="D60">
-        <v>6.0555948764759112E-4</v>
+        <v>1.1237035234997533E-3</v>
       </c>
       <c r="E60">
-        <v>1.1698759590538983E-3</v>
+        <v>1.8306360342693251E-3</v>
       </c>
       <c r="F60">
-        <v>4.857533453759401E-4</v>
+        <v>9.3855791364568907E-4</v>
       </c>
       <c r="G60">
-        <v>2.0568536536400926E-3</v>
+        <v>3.0458402501166893E-3</v>
       </c>
       <c r="H60">
-        <v>1.6685342349097572E-3</v>
+        <v>2.4589012579645728E-3</v>
       </c>
       <c r="I60">
-        <v>2.3957817305474698E-3</v>
+        <v>3.4804474257658256E-3</v>
       </c>
       <c r="J60">
-        <v>9.830685208528523E-4</v>
+        <v>2.0651266065936646E-3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1.3873950890976177E-4</v>
+        <v>2.3759273890496584E-4</v>
       </c>
       <c r="B61">
-        <v>4.4276496158872163E-4</v>
+        <v>1.3882088345044423E-3</v>
       </c>
       <c r="C61">
-        <v>1.298842151317136E-3</v>
+        <v>2.1110818686617245E-3</v>
       </c>
       <c r="D61">
-        <v>6.5798735320661474E-4</v>
+        <v>1.2186210752087453E-3</v>
       </c>
       <c r="E61">
-        <v>1.2676893427529022E-3</v>
+        <v>1.9833966739473095E-3</v>
       </c>
       <c r="F61">
-        <v>5.2444493809851889E-4</v>
+        <v>1.0109764475213919E-3</v>
       </c>
       <c r="G61">
-        <v>2.2237329590288242E-3</v>
+        <v>3.2925925560643335E-3</v>
       </c>
       <c r="H61">
-        <v>1.8104709982416497E-3</v>
+        <v>2.6676449775369362E-3</v>
       </c>
       <c r="I61">
-        <v>2.5954005560039945E-3</v>
+        <v>3.7682386138901762E-3</v>
       </c>
       <c r="J61">
-        <v>1.0716629017464472E-3</v>
+        <v>2.2371383567279307E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1.3784371675620226E-4</v>
+        <v>2.3683014438775346E-4</v>
       </c>
       <c r="B62">
-        <v>4.2744128459988313E-4</v>
+        <v>1.4467253334595569E-3</v>
       </c>
       <c r="C62">
-        <v>1.3995344475929729E-3</v>
+        <v>2.2723891323491699E-3</v>
       </c>
       <c r="D62">
-        <v>7.1333346270858154E-4</v>
+        <v>1.3188482396886581E-3</v>
       </c>
       <c r="E62">
-        <v>1.3710471934856017E-3</v>
+        <v>2.1448510508570613E-3</v>
       </c>
       <c r="F62">
-        <v>5.6525757987115023E-4</v>
+        <v>1.0874908020913603E-3</v>
       </c>
       <c r="G62">
-        <v>2.3995681591152066E-3</v>
+        <v>3.5526043665378079E-3</v>
       </c>
       <c r="H62">
-        <v>1.9598077143087264E-3</v>
+        <v>2.8876102425136082E-3</v>
       </c>
       <c r="I62">
-        <v>2.8055382753974429E-3</v>
+        <v>4.0714798403409013E-3</v>
       </c>
       <c r="J62">
-        <v>1.1648158072393316E-3</v>
+        <v>2.4184645371775025E-3</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1.3179954916976917E-4</v>
+        <v>2.3369656801332705E-4</v>
       </c>
       <c r="B63">
-        <v>3.53940827799765E-4</v>
+        <v>1.8164657298905026E-3</v>
       </c>
       <c r="C63">
-        <v>1.9786814624216066E-3</v>
+        <v>3.2007924672831077E-3</v>
       </c>
       <c r="D63">
-        <v>1.0316591298439202E-3</v>
+        <v>1.8953628594539269E-3</v>
       </c>
       <c r="E63">
-        <v>1.9666639397545077E-3</v>
+        <v>3.0755797130840169E-3</v>
       </c>
       <c r="F63">
-        <v>7.990570411591137E-4</v>
+        <v>1.5268531704851647E-3</v>
       </c>
       <c r="G63">
-        <v>3.4041337113366343E-3</v>
+        <v>5.0382496699510216E-3</v>
       </c>
       <c r="H63">
-        <v>2.8119312048725817E-3</v>
+        <v>4.1461793586423726E-3</v>
       </c>
       <c r="I63">
-        <v>4.0047742928895277E-3</v>
+        <v>5.8050349753494329E-3</v>
       </c>
       <c r="J63">
-        <v>1.6961254710056244E-3</v>
+        <v>3.456702772209181E-3</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1.2287980778557855E-4</v>
-      </c>
-      <c r="B64">
-        <v>2.819279635960085E-4</v>
+      <c r="A64" s="3">
+        <v>2.3194037142648224E-4</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2.3025362906002279E-3</v>
       </c>
       <c r="C64">
-        <v>2.6817736008343217E-3</v>
+        <v>4.3285808185794476E-3</v>
       </c>
       <c r="D64">
-        <v>1.417973730519914E-3</v>
+        <v>2.5951258394700254E-3</v>
       </c>
       <c r="E64">
-        <v>2.6908188473289893E-3</v>
+        <v>4.2074412159165244E-3</v>
       </c>
       <c r="F64">
-        <v>1.0820000895686351E-3</v>
+        <v>2.0596271231887462E-3</v>
       </c>
       <c r="G64">
-        <v>4.6171247945387649E-3</v>
+        <v>6.8323124870766283E-3</v>
       </c>
       <c r="H64">
-        <v>3.8396571550275956E-3</v>
+        <v>5.667076320863166E-3</v>
       </c>
       <c r="I64">
-        <v>5.4513579741190463E-3</v>
+        <v>7.8989116353271795E-3</v>
       </c>
       <c r="J64">
-        <v>2.3363634208280019E-3</v>
+        <v>4.7122636727770298E-3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>9.6846137419373448E-5</v>
-      </c>
-      <c r="B65">
-        <v>1.3043617798171384E-4</v>
+      <c r="A65" s="3">
+        <v>2.3417683781609022E-4</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3.5586600833118075E-3</v>
       </c>
       <c r="C65">
-        <v>4.4176374057070568E-3</v>
+        <v>7.1135830187976359E-3</v>
       </c>
       <c r="D65">
-        <v>2.372280341456394E-3</v>
+        <v>4.3235785897015426E-3</v>
       </c>
       <c r="E65">
-        <v>4.4816771242390269E-3</v>
+        <v>7.006811020537353E-3</v>
       </c>
       <c r="F65">
-        <v>1.77912235811008E-3</v>
+        <v>3.3733126215701897E-3</v>
       </c>
       <c r="G65">
-        <v>7.6012989300071748E-3</v>
+        <v>1.1246249721284631E-2</v>
       </c>
       <c r="H65">
-        <v>6.3684574696653692E-3</v>
+        <v>9.4122315078785691E-3</v>
       </c>
       <c r="I65">
-        <v>9.0093341125253908E-3</v>
+        <v>1.305220835707124E-2</v>
       </c>
       <c r="J65">
-        <v>3.9111295491040731E-3</v>
+        <v>7.8053776462131824E-3</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>6.1944377093295366E-5</v>
-      </c>
-      <c r="B66" s="1">
-        <f>$B$65</f>
-        <v>1.3043617798171384E-4</v>
+      <c r="A66" s="3">
+        <v>2.4704536039104572E-4</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5.1345992739079103E-3</v>
       </c>
       <c r="C66">
-        <v>6.5578294457573991E-3</v>
+        <v>1.0548861497285972E-2</v>
       </c>
       <c r="D66">
-        <v>3.5463167939257145E-3</v>
+        <v>6.4511852221108244E-3</v>
       </c>
       <c r="E66">
-        <v>6.686159021804086E-3</v>
+        <v>1.0452950916799165E-2</v>
       </c>
       <c r="F66">
-        <v>2.6389156812116552E-3</v>
+        <v>4.9951786885304916E-3</v>
       </c>
       <c r="G66">
-        <v>1.1281950673236474E-2</v>
+        <v>1.6690543520137782E-2</v>
       </c>
       <c r="H66">
-        <v>9.4816911802496264E-3</v>
+        <v>1.4024122326253717E-2</v>
       </c>
       <c r="I66">
-        <v>1.339363775412423E-2</v>
+        <v>1.940359101443118E-2</v>
       </c>
       <c r="J66">
-        <v>5.8470978043694676E-3</v>
+        <v>1.1615554967677483E-2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B67" s="1">
-        <f t="shared" ref="B67:B82" si="0">$B$65</f>
-        <v>1.3043617798171384E-4</v>
+      <c r="A67" s="3">
+        <v>2.7239764651118683E-4</v>
+      </c>
+      <c r="B67" s="3">
+        <v>6.9589215924156268E-3</v>
       </c>
       <c r="C67">
-        <v>9.0273362019500977E-3</v>
+        <v>1.4514188387502009E-2</v>
       </c>
       <c r="D67">
-        <v>4.8979428242572395E-3</v>
+        <v>8.9019995251772427E-3</v>
       </c>
       <c r="E67">
-        <v>9.224579989743048E-3</v>
+        <v>1.4421286768229711E-2</v>
       </c>
       <c r="F67">
-        <v>3.631932091764936E-3</v>
+        <v>6.8696895828888223E-3</v>
       </c>
       <c r="G67">
-        <v>1.5534882349559302E-2</v>
+        <v>2.2981440297241279E-2</v>
       </c>
       <c r="H67">
-        <v>1.3072379431132531E-2</v>
+        <v>1.9343768921838558E-2</v>
       </c>
       <c r="I67">
-        <v>1.8455556225418876E-2</v>
+        <v>2.6736748352404506E-2</v>
       </c>
       <c r="J67">
-        <v>8.0774203100561458E-3</v>
+        <v>1.6011188026475692E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f>$A$67</f>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B68" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A68" s="3">
+        <v>3.3186962297628703E-4</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1.00217616762529E-2</v>
       </c>
       <c r="C68">
-        <v>1.3173893139531084E-2</v>
+        <v>2.1174328030561941E-2</v>
       </c>
       <c r="D68">
-        <v>7.1630635880152917E-3</v>
+        <v>1.3011164235057555E-2</v>
       </c>
       <c r="E68">
-        <v>1.3478897300981509E-2</v>
+        <v>2.1072320978560509E-2</v>
       </c>
       <c r="F68">
-        <v>5.3008312468932495E-3</v>
+        <v>1.0021781608444644E-2</v>
       </c>
       <c r="G68">
-        <v>2.2685965966541752E-2</v>
+        <v>3.3559368943541175E-2</v>
       </c>
       <c r="H68">
-        <v>1.9100492200291037E-2</v>
+        <v>2.827498226335003E-2</v>
       </c>
       <c r="I68">
-        <v>2.6961315348312049E-2</v>
+        <v>3.9058771500942849E-2</v>
       </c>
       <c r="J68">
-        <v>1.1818372773451734E-2</v>
+        <v>2.3391848160699152E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <f t="shared" ref="A69:A82" si="1">$A$67</f>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B69" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A69" s="3">
+        <v>4.6939531042804319E-4</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1.5645342910993107E-2</v>
       </c>
       <c r="C69">
-        <v>2.0798653808787419E-2</v>
+        <v>3.3424412862289858E-2</v>
       </c>
       <c r="D69">
-        <v>1.1320489287574028E-2</v>
+        <v>2.0556618219944287E-2</v>
       </c>
       <c r="E69">
-        <v>2.1287517520909245E-2</v>
+        <v>3.3280391627059605E-2</v>
       </c>
       <c r="F69">
-        <v>8.3724800963741203E-3</v>
+        <v>1.5826159798698957E-2</v>
       </c>
       <c r="G69">
-        <v>3.5854386729266934E-2</v>
+        <v>5.3038345462192965E-2</v>
       </c>
       <c r="H69">
-        <v>3.0184363334057863E-2</v>
+        <v>4.4697555561068268E-2</v>
       </c>
       <c r="I69">
-        <v>4.2614643305553986E-2</v>
+        <v>6.1734588789158516E-2</v>
       </c>
       <c r="J69">
-        <v>1.8691210823459179E-2</v>
+        <v>3.6964414851402151E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B70" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A70" s="3">
+        <v>6.3185073669620219E-4</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2.161095543236646E-2</v>
       </c>
       <c r="C70">
-        <v>2.8899690966071936E-2</v>
+        <v>4.644209846635132E-2</v>
       </c>
       <c r="D70">
-        <v>1.5731914775864008E-2</v>
+        <v>2.8565609214175672E-2</v>
       </c>
       <c r="E70">
-        <v>2.9573232005124857E-2</v>
+        <v>4.62346296098817E-2</v>
       </c>
       <c r="F70">
-        <v>1.1638173644424887E-2</v>
+        <v>2.1999302671127936E-2</v>
       </c>
       <c r="G70">
-        <v>4.9859905389805455E-2</v>
+        <v>7.3755682140249759E-2</v>
       </c>
       <c r="H70">
-        <v>4.1960459063844269E-2</v>
+        <v>6.2146325172632175E-2</v>
       </c>
       <c r="I70">
-        <v>5.9255911789226672E-2</v>
+        <v>8.5840954639043926E-2</v>
       </c>
       <c r="J70">
-        <v>2.5989188127886184E-2</v>
+        <v>5.1385821432303413E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B71" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A71" s="3">
+        <v>8.0502035028426897E-4</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2.7708394404834163E-2</v>
       </c>
       <c r="C71">
-        <v>3.7183222377542208E-2</v>
+        <v>5.9753724775822026E-2</v>
       </c>
       <c r="D71">
-        <v>2.0241086321782665E-2</v>
+        <v>3.6752788823449165E-2</v>
       </c>
       <c r="E71">
-        <v>3.8042530121894284E-2</v>
+        <v>5.9475970521184904E-2</v>
       </c>
       <c r="F71">
-        <v>1.4978066061853344E-2</v>
+        <v>2.831330004395062E-2</v>
       </c>
       <c r="G71">
-        <v>6.4185166485737979E-2</v>
+        <v>9.4946020548646037E-2</v>
       </c>
       <c r="H71">
-        <v>5.4001817710635378E-2</v>
+        <v>7.9988334327442734E-2</v>
       </c>
       <c r="I71">
-        <v>7.627504463514391E-2</v>
+        <v>0.11049451778935046</v>
       </c>
       <c r="J71">
-        <v>3.3450402828736951E-2</v>
+        <v>6.6132439751623223E-2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B72" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A72" s="3">
+        <v>9.8294686886599928E-4</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3.385058181755507E-2</v>
       </c>
       <c r="C72">
-        <v>4.5528168760007995E-2</v>
+        <v>7.3164218054702607E-2</v>
       </c>
       <c r="D72">
-        <v>2.4783278706823612E-2</v>
+        <v>4.500010716042311E-2</v>
       </c>
       <c r="E72">
-        <v>4.6573845488978124E-2</v>
+        <v>7.2814294015383738E-2</v>
       </c>
       <c r="F72">
-        <v>1.834288072478801E-2</v>
+        <v>3.4674562804027066E-2</v>
       </c>
       <c r="G72">
-        <v>7.8617711621929917E-2</v>
+        <v>0.11629506410387475</v>
       </c>
       <c r="H72">
-        <v>6.6132437005083644E-2</v>
+        <v>9.7962675123513671E-2</v>
       </c>
       <c r="I72">
-        <v>9.3421114070944514E-2</v>
+        <v>0.13533192103956843</v>
       </c>
       <c r="J72">
-        <v>4.0966644720176991E-2</v>
+        <v>8.098848044855457E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B73" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A73" s="3">
+        <v>1.1630678718690275E-3</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4.0002471941603668E-2</v>
       </c>
       <c r="C73">
-        <v>5.3886261187869391E-2</v>
+        <v>8.6595877414094885E-2</v>
       </c>
       <c r="D73">
-        <v>2.9332531568469912E-2</v>
+        <v>5.3260287813990774E-2</v>
       </c>
       <c r="E73">
-        <v>5.5118420610934249E-2</v>
+        <v>8.6173354384304693E-2</v>
       </c>
       <c r="F73">
-        <v>2.1713033157755433E-2</v>
+        <v>4.104595169541822E-2</v>
       </c>
       <c r="G73">
-        <v>9.3073242625743444E-2</v>
+        <v>0.13767811076115449</v>
       </c>
       <c r="H73">
-        <v>7.8282153957411185E-2</v>
+        <v>0.11596534402775704</v>
       </c>
       <c r="I73">
-        <v>0.11059436705572365</v>
+        <v>0.16020869740328567</v>
       </c>
       <c r="J73">
-        <v>4.8494659996591111E-2</v>
+        <v>9.5867945713089292E-2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B74" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A74" s="3">
+        <v>1.3442120535953586E-3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4.6150090994419385E-2</v>
       </c>
       <c r="C74">
-        <v>6.2238421016516193E-2</v>
+        <v>0.10001801166121375</v>
       </c>
       <c r="D74">
-        <v>3.387853483203751E-2</v>
+        <v>6.151457731040199E-2</v>
       </c>
       <c r="E74">
-        <v>6.3656891559862955E-2</v>
+        <v>9.9522872985079364E-2</v>
       </c>
       <c r="F74">
-        <v>2.5080801447852664E-2</v>
+        <v>4.7412840931050172E-2</v>
       </c>
       <c r="G74">
-        <v>0.10751856724359304</v>
+        <v>0.15904606021129286</v>
       </c>
       <c r="H74">
-        <v>9.0423238477226761E-2</v>
+        <v>0.1339552376811666</v>
       </c>
       <c r="I74">
-        <v>0.12775546598234136</v>
+        <v>0.1850678696868493</v>
       </c>
       <c r="J74">
-        <v>5.6017317265810593E-2</v>
+        <v>0.11073685430363715</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B75" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A75" s="3">
+        <v>1.525808106046897E-3</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5.2287989715933722E-2</v>
       </c>
       <c r="C75">
-        <v>7.0577264390522032E-2</v>
+        <v>0.11341874789716438</v>
       </c>
       <c r="D75">
-        <v>3.8417285744208635E-2</v>
+        <v>6.9755700493490183E-2</v>
       </c>
       <c r="E75">
-        <v>7.2181740520791626E-2</v>
+        <v>0.11285109498622949</v>
       </c>
       <c r="F75">
-        <v>2.8443201931664552E-2</v>
+        <v>5.3769583807871293E-2</v>
       </c>
       <c r="G75">
-        <v>0.12194087211765331</v>
+        <v>0.18037995826265057</v>
       </c>
       <c r="H75">
-        <v>0.10254495974765671</v>
+        <v>0.15191644959255177</v>
       </c>
       <c r="I75">
-        <v>0.14488920993940441</v>
+        <v>0.20988741861952548</v>
       </c>
       <c r="J75">
-        <v>6.3527977459991739E-2</v>
+        <v>0.12558205742074274</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B76" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A76" s="3">
+        <v>1.8892716524386394E-3</v>
+      </c>
+      <c r="B76" s="3">
+        <v>6.4527120887025474E-2</v>
       </c>
       <c r="C76">
-        <v>8.7204914153167501E-2</v>
+        <v>0.14013981047582055</v>
       </c>
       <c r="D76">
-        <v>4.7467551164086942E-2</v>
+        <v>8.6188493873791169E-2</v>
       </c>
       <c r="E76">
-        <v>8.918028142661015E-2</v>
+        <v>0.13942755840586143</v>
       </c>
       <c r="F76">
-        <v>3.5147827554928013E-2</v>
+        <v>6.6444928139067855E-2</v>
       </c>
       <c r="G76">
-        <v>0.15069894600664027</v>
+        <v>0.22291974801747849</v>
       </c>
       <c r="H76">
-        <v>0.12671565523516443</v>
+        <v>0.18773109842967614</v>
       </c>
       <c r="I76">
-        <v>0.17905388707090483</v>
+        <v>0.25937759241518921</v>
       </c>
       <c r="J76">
-        <v>7.8504228889504493E-2</v>
+        <v>0.15518338607508414</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B77" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A77" s="3">
+        <v>2.360987021645466E-3</v>
+      </c>
+      <c r="B77" s="3">
+        <v>8.0360094327760256E-2</v>
       </c>
       <c r="C77">
-        <v>0.10871477322748715</v>
+        <v>0.17470670980765171</v>
       </c>
       <c r="D77">
-        <v>5.9175154371190551E-2</v>
+        <v>0.10744628223487759</v>
       </c>
       <c r="E77">
-        <v>0.11116993109794723</v>
+        <v>0.17380739982828003</v>
       </c>
       <c r="F77">
-        <v>4.3821064998323646E-2</v>
+        <v>8.284200677075719E-2</v>
       </c>
       <c r="G77">
-        <v>0.18790096485257893</v>
+        <v>0.27795006982882997</v>
       </c>
       <c r="H77">
-        <v>0.15798333603634079</v>
+        <v>0.23406164248177017</v>
       </c>
       <c r="I77">
-        <v>0.22324999107711943</v>
+        <v>0.32339906905738269</v>
       </c>
       <c r="J77">
-        <v>9.7877805573763882E-2</v>
+        <v>0.19347625505569396</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B78" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A78" s="3">
+        <v>4.9704513733490425E-3</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.1676274631030529</v>
       </c>
       <c r="C78">
-        <v>0.22727007395701204</v>
+        <v>0.36522814212481819</v>
       </c>
       <c r="D78">
-        <v>0.12370363003600207</v>
+        <v>0.22461225196665607</v>
       </c>
       <c r="E78">
-        <v>0.23236967626148403</v>
+        <v>0.36329783038691954</v>
       </c>
       <c r="F78">
-        <v>9.1625109762312029E-2</v>
+        <v>0.17321733624408281</v>
       </c>
       <c r="G78">
-        <v>0.39294631335774044</v>
+        <v>0.58125918764762052</v>
       </c>
       <c r="H78">
-        <v>0.33032047639056744</v>
+        <v>0.48942043589462897</v>
       </c>
       <c r="I78">
-        <v>0.46684442082484262</v>
+        <v>0.67626448957493845</v>
       </c>
       <c r="J78">
-        <v>0.2046586155355189</v>
+        <v>0.404534013100256</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B79" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A79" s="3">
+        <v>9.956223995496314E-3</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.33408225696202704</v>
       </c>
       <c r="C79">
-        <v>0.45340235102849547</v>
+        <v>0.72862855629288903</v>
       </c>
       <c r="D79">
-        <v>0.24678518820406095</v>
+        <v>0.44809452065185096</v>
       </c>
       <c r="E79">
-        <v>0.46354596067380172</v>
+        <v>0.72473171318116159</v>
       </c>
       <c r="F79">
-        <v>0.18280650265157669</v>
+        <v>0.34559916117538408</v>
       </c>
       <c r="G79">
-        <v>0.78404963254031013</v>
+        <v>1.1597907349226946</v>
       </c>
       <c r="H79">
-        <v>0.65903611608885071</v>
+        <v>0.97649157863603597</v>
       </c>
       <c r="I79">
-        <v>0.93147620025781042</v>
+        <v>1.3493196863994668</v>
       </c>
       <c r="J79">
-        <v>0.40833223775742566</v>
+        <v>0.80710539788521973</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B80" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A80" s="3">
+        <v>1.903634827654024E-2</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.6371131468788348</v>
       </c>
       <c r="C80">
-        <v>0.86507544712084272</v>
+        <v>1.3901978625967852</v>
       </c>
       <c r="D80">
-        <v>0.47085477607215798</v>
+        <v>0.85494328499574901</v>
       </c>
       <c r="E80">
-        <v>0.88440165464862752</v>
+        <v>1.3827209555380418</v>
       </c>
       <c r="F80">
-        <v>0.34880194023282934</v>
+        <v>0.65941972911351565</v>
       </c>
       <c r="G80">
-        <v>1.4960519898953084</v>
+        <v>2.2130055895986933</v>
       </c>
       <c r="H80">
-        <v>1.2574618696051287</v>
+        <v>1.8632030567709588</v>
       </c>
       <c r="I80">
-        <v>1.7773368772176308</v>
+        <v>2.574614546945718</v>
       </c>
       <c r="J80">
-        <v>0.77911942302971671</v>
+        <v>1.5399853328263444</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B81" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A81" s="3">
+        <v>3.413067332444928E-2</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1.1408069442660336</v>
       </c>
       <c r="C81">
-        <v>1.5493525682781963</v>
+        <v>2.4898488835194525</v>
       </c>
       <c r="D81">
-        <v>0.84330003417588306</v>
+        <v>1.5312014711141742</v>
       </c>
       <c r="E81">
-        <v>1.5839419577733995</v>
+        <v>2.4764212455561214</v>
       </c>
       <c r="F81">
-        <v>0.62471717784822567</v>
+        <v>1.1810477802484334</v>
       </c>
       <c r="G81">
-        <v>2.6795321055749199</v>
+        <v>3.9636442288963103</v>
       </c>
       <c r="H81">
-        <v>2.2521565691645393</v>
+        <v>3.3370821699519775</v>
       </c>
       <c r="I81">
-        <v>3.1833143693919914</v>
+        <v>4.6112821063284155</v>
       </c>
       <c r="J81">
-        <v>1.3954365688508781</v>
+        <v>2.75816785895976</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0573583496724375E-5</v>
-      </c>
-      <c r="B82" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3043617798171384E-4</v>
+      <c r="A82" s="3">
+        <v>4.2842033748798247E-2</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1.4314963679075077</v>
       </c>
       <c r="C82">
-        <v>1.9442593655004703</v>
+        <v>3.1244743142356537</v>
       </c>
       <c r="D82">
-        <v>1.0582438916737036</v>
+        <v>1.9214804182303622</v>
       </c>
       <c r="E82">
-        <v>1.9876573707757272</v>
+        <v>3.1076124184224931</v>
       </c>
       <c r="F82">
-        <v>0.78395208343981448</v>
+        <v>1.4820873103635583</v>
       </c>
       <c r="G82">
-        <v>3.3625365896018709</v>
+        <v>4.9739645753995694</v>
       </c>
       <c r="H82">
-        <v>2.8262100991221839</v>
+        <v>4.1876803590981524</v>
       </c>
       <c r="I82">
-        <v>3.9947254934254883</v>
+        <v>5.7866741193661655</v>
       </c>
       <c r="J82">
-        <v>1.7511226243697124</v>
+        <v>3.4611996350866816</v>
       </c>
     </row>
   </sheetData>
